--- a/Experiment/RunningTime+SolutionNumber(SAT Solver).xlsx
+++ b/Experiment/RunningTime+SolutionNumber(SAT Solver).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\TA-Yin-Yang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{342FF908-00CC-4F1B-A9A0-D09A15496833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FAE429-4733-449B-9A26-ABA964C9AAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{786B68CC-4CCC-48FD-999D-77648639387C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{786B68CC-4CCC-48FD-999D-77648639387C}"/>
   </bookViews>
   <sheets>
     <sheet name="Number of Solutions" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="T(2,n)" sheetId="4" r:id="rId4"/>
     <sheet name="T(3,n)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -88,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -319,22 +316,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,6 +328,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,20 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,16 +508,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="circle"/>
             <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
@@ -694,10 +692,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -713,6 +712,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -859,10 +859,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -878,6 +879,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1478,10 +1480,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1497,6 +1500,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1607,10 +1611,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1626,6 +1631,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1724,10 +1730,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1743,6 +1750,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2295,10 +2303,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2314,6 +2323,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2400,10 +2410,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2419,6 +2430,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2496,10 +2508,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2515,6 +2528,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4677,348 +4691,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RawData"/>
-      <sheetName val="T(1,n)"/>
-      <sheetName val="T(2,n)"/>
-      <sheetName val="T(3,n)"/>
-      <sheetName val="4 and 5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>ES-BFS</v>
-          </cell>
-          <cell r="B8">
-            <v>4.0666666666666668E-5</v>
-          </cell>
-          <cell r="C8">
-            <v>9.0333333333333325E-5</v>
-          </cell>
-          <cell r="D8">
-            <v>1.34E-4</v>
-          </cell>
-          <cell r="E8">
-            <v>2.3266666666666669E-4</v>
-          </cell>
-          <cell r="F8">
-            <v>4.9233333333333334E-4</v>
-          </cell>
-          <cell r="G8">
-            <v>6.7066666666666663E-4</v>
-          </cell>
-          <cell r="H8">
-            <v>1.2003333333333332E-3</v>
-          </cell>
-          <cell r="I8">
-            <v>2.2536666666666664E-3</v>
-          </cell>
-          <cell r="J8">
-            <v>4.4216666666666666E-3</v>
-          </cell>
-          <cell r="K8">
-            <v>7.8829999999999994E-3</v>
-          </cell>
-          <cell r="L8">
-            <v>1.6244333333333336E-2</v>
-          </cell>
-          <cell r="M8">
-            <v>3.0260666666666668E-2</v>
-          </cell>
-          <cell r="N8">
-            <v>6.2432999999999995E-2</v>
-          </cell>
-          <cell r="O8">
-            <v>0.11373999999999999</v>
-          </cell>
-          <cell r="P8">
-            <v>0.22698666666666667</v>
-          </cell>
-          <cell r="Q8">
-            <v>0.46662933333333334</v>
-          </cell>
-          <cell r="R8">
-            <v>0.90265266666666666</v>
-          </cell>
-          <cell r="S8">
-            <v>1.7579500000000001</v>
-          </cell>
-          <cell r="T8">
-            <v>3.5846166666666668</v>
-          </cell>
-          <cell r="U8">
-            <v>7.0596999999999994</v>
-          </cell>
-          <cell r="V8">
-            <v>13.937533333333334</v>
-          </cell>
-          <cell r="W8">
-            <v>28.41333333333333</v>
-          </cell>
-          <cell r="X8">
-            <v>62.609800000000007</v>
-          </cell>
-          <cell r="Y8">
-            <v>116.075</v>
-          </cell>
-          <cell r="Z8">
-            <v>241.92466666666667</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>ES-DFS</v>
-          </cell>
-          <cell r="B9">
-            <v>4.4000000000000006E-5</v>
-          </cell>
-          <cell r="C9">
-            <v>5.7666666666666661E-5</v>
-          </cell>
-          <cell r="D9">
-            <v>1.1533333333333334E-4</v>
-          </cell>
-          <cell r="E9">
-            <v>2.2599999999999999E-4</v>
-          </cell>
-          <cell r="F9">
-            <v>3.4133333333333341E-4</v>
-          </cell>
-          <cell r="G9">
-            <v>8.1499999999999986E-4</v>
-          </cell>
-          <cell r="H9">
-            <v>1.4266666666666666E-3</v>
-          </cell>
-          <cell r="I9">
-            <v>2.2590000000000002E-3</v>
-          </cell>
-          <cell r="J9">
-            <v>4.2593333333333337E-3</v>
-          </cell>
-          <cell r="K9">
-            <v>8.7329999999999994E-3</v>
-          </cell>
-          <cell r="L9">
-            <v>1.5932666666666668E-2</v>
-          </cell>
-          <cell r="M9">
-            <v>3.0930666666666665E-2</v>
-          </cell>
-          <cell r="N9">
-            <v>5.9687333333333335E-2</v>
-          </cell>
-          <cell r="O9">
-            <v>0.11867933333333335</v>
-          </cell>
-          <cell r="P9">
-            <v>0.23658133333333334</v>
-          </cell>
-          <cell r="Q9">
-            <v>0.47783533333333333</v>
-          </cell>
-          <cell r="R9">
-            <v>0.88350200000000001</v>
-          </cell>
-          <cell r="S9">
-            <v>1.8081066666666665</v>
-          </cell>
-          <cell r="T9">
-            <v>3.6136033333333337</v>
-          </cell>
-          <cell r="U9">
-            <v>7.1286800000000001</v>
-          </cell>
-          <cell r="V9">
-            <v>14.045566666666666</v>
-          </cell>
-          <cell r="W9">
-            <v>27.932566666666663</v>
-          </cell>
-          <cell r="X9">
-            <v>55.448633333333333</v>
-          </cell>
-          <cell r="Y9">
-            <v>114.85266666666666</v>
-          </cell>
-          <cell r="Z9">
-            <v>246.05799999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>PS-BFS</v>
-          </cell>
-          <cell r="B10">
-            <v>3.9333333333333338E-5</v>
-          </cell>
-          <cell r="C10">
-            <v>6.2666666666666668E-5</v>
-          </cell>
-          <cell r="D10">
-            <v>1.4300000000000001E-4</v>
-          </cell>
-          <cell r="E10">
-            <v>2.0433333333333336E-4</v>
-          </cell>
-          <cell r="F10">
-            <v>4.46E-4</v>
-          </cell>
-          <cell r="G10">
-            <v>6.3233333333333327E-4</v>
-          </cell>
-          <cell r="H10">
-            <v>1.7696666666666666E-3</v>
-          </cell>
-          <cell r="I10">
-            <v>2.3513333333333333E-3</v>
-          </cell>
-          <cell r="J10">
-            <v>4.4643333333333332E-3</v>
-          </cell>
-          <cell r="K10">
-            <v>8.2586666666666659E-3</v>
-          </cell>
-          <cell r="L10">
-            <v>1.7286333333333331E-2</v>
-          </cell>
-          <cell r="M10">
-            <v>3.2354000000000001E-2</v>
-          </cell>
-          <cell r="N10">
-            <v>6.4616666666666669E-2</v>
-          </cell>
-          <cell r="O10">
-            <v>0.13020233333333334</v>
-          </cell>
-          <cell r="P10">
-            <v>0.51303366666666672</v>
-          </cell>
-          <cell r="Q10">
-            <v>0.50074066666666672</v>
-          </cell>
-          <cell r="R10">
-            <v>0.95856166666666665</v>
-          </cell>
-          <cell r="S10">
-            <v>1.9254499999999999</v>
-          </cell>
-          <cell r="T10">
-            <v>3.8613666666666666</v>
-          </cell>
-          <cell r="U10">
-            <v>7.7389200000000002</v>
-          </cell>
-          <cell r="V10">
-            <v>14.859299999999999</v>
-          </cell>
-          <cell r="W10">
-            <v>30.239333333333335</v>
-          </cell>
-          <cell r="X10">
-            <v>60.813600000000008</v>
-          </cell>
-          <cell r="Y10">
-            <v>126.587</v>
-          </cell>
-          <cell r="Z10">
-            <v>261.95266666666669</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>PS-DFS</v>
-          </cell>
-          <cell r="B11">
-            <v>6.166666666666667E-5</v>
-          </cell>
-          <cell r="C11">
-            <v>7.2999999999999999E-5</v>
-          </cell>
-          <cell r="D11">
-            <v>1.5999999999999999E-4</v>
-          </cell>
-          <cell r="E11">
-            <v>3.2533333333333329E-4</v>
-          </cell>
-          <cell r="F11">
-            <v>4.0433333333333337E-4</v>
-          </cell>
-          <cell r="G11">
-            <v>8.4599999999999996E-4</v>
-          </cell>
-          <cell r="H11">
-            <v>1.647E-3</v>
-          </cell>
-          <cell r="I11">
-            <v>2.7053333333333335E-3</v>
-          </cell>
-          <cell r="J11">
-            <v>5.0463333333333332E-3</v>
-          </cell>
-          <cell r="K11">
-            <v>8.7656666666666664E-3</v>
-          </cell>
-          <cell r="L11">
-            <v>1.5659333333333334E-2</v>
-          </cell>
-          <cell r="M11">
-            <v>3.1710666666666665E-2</v>
-          </cell>
-          <cell r="N11">
-            <v>6.3194666666666663E-2</v>
-          </cell>
-          <cell r="O11">
-            <v>0.11939866666666665</v>
-          </cell>
-          <cell r="P11">
-            <v>0.26277400000000001</v>
-          </cell>
-          <cell r="Q11">
-            <v>0.54044599999999998</v>
-          </cell>
-          <cell r="R11">
-            <v>0.98040400000000005</v>
-          </cell>
-          <cell r="S11">
-            <v>1.8937733333333335</v>
-          </cell>
-          <cell r="T11">
-            <v>3.7721233333333331</v>
-          </cell>
-          <cell r="U11">
-            <v>7.4277966666666666</v>
-          </cell>
-          <cell r="V11">
-            <v>14.886733333333334</v>
-          </cell>
-          <cell r="W11">
-            <v>29.561999999999998</v>
-          </cell>
-          <cell r="X11">
-            <v>59.553133333333335</v>
-          </cell>
-          <cell r="Y11">
-            <v>121.55900000000001</v>
-          </cell>
-          <cell r="Z11">
-            <v>253.27333333333331</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6183,90 +5855,90 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35">
+      <c r="B1" s="27">
         <v>1</v>
       </c>
-      <c r="C1" s="35">
+      <c r="C1" s="27">
         <v>2</v>
       </c>
-      <c r="D1" s="35">
+      <c r="D1" s="27">
         <f>C1+1</f>
         <v>3</v>
       </c>
-      <c r="E1" s="35">
+      <c r="E1" s="27">
         <f t="shared" ref="E1:O1" si="0">D1+1</f>
         <v>4</v>
       </c>
-      <c r="F1" s="35">
+      <c r="F1" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G1" s="35">
+      <c r="G1" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H1" s="35">
+      <c r="H1" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I1" s="35">
+      <c r="I1" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J1" s="35">
+      <c r="J1" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K1" s="35">
+      <c r="K1" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L1" s="35">
+      <c r="L1" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M1" s="35">
+      <c r="M1" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="N1" s="35">
+      <c r="N1" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O1" s="35">
+      <c r="O1" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P1" s="35">
+      <c r="P1" s="27">
         <f t="shared" ref="P1" si="1">O1+1</f>
         <v>15</v>
       </c>
-      <c r="Q1" s="35">
+      <c r="Q1" s="27">
         <f t="shared" ref="Q1" si="2">P1+1</f>
         <v>16</v>
       </c>
-      <c r="R1" s="35">
+      <c r="R1" s="27">
         <f t="shared" ref="R1" si="3">Q1+1</f>
         <v>17</v>
       </c>
-      <c r="S1" s="35">
+      <c r="S1" s="27">
         <f t="shared" ref="S1" si="4">R1+1</f>
         <v>18</v>
       </c>
-      <c r="T1" s="35">
+      <c r="T1" s="27">
         <f t="shared" ref="T1" si="5">S1+1</f>
         <v>19</v>
       </c>
-      <c r="U1" s="35">
+      <c r="U1" s="27">
         <f t="shared" ref="U1" si="6">T1+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="35">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -6331,10 +6003,10 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1">
         <v>12</v>
       </c>
@@ -6378,11 +6050,11 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="35">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="1">
         <v>34</v>
       </c>
@@ -6415,12 +6087,12 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="35">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="1">
         <v>96</v>
       </c>
@@ -6446,13 +6118,13 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="1">
         <v>660</v>
       </c>
@@ -6473,90 +6145,90 @@
       <c r="U6" s="1"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="27">
         <v>1</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="27">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="27">
         <f>C8+1</f>
         <v>3</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="27">
         <f t="shared" ref="E8:O8" si="7">D8+1</f>
         <v>4</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="27">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="27">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="27">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="27">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="27">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="27">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="27">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="27">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="27">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="27">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="27">
         <f t="shared" ref="P8" si="8">O8+1</f>
         <v>15</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="27">
         <f t="shared" ref="Q8" si="9">P8+1</f>
         <v>16</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="27">
         <f t="shared" ref="R8" si="10">Q8+1</f>
         <v>17</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="27">
         <f t="shared" ref="S8" si="11">R8+1</f>
         <v>18</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="27">
         <f t="shared" ref="T8" si="12">S8+1</f>
         <v>19</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="27">
         <f t="shared" ref="U8" si="13">T8+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+      <c r="A9" s="27">
         <v>1</v>
       </c>
       <c r="B9" s="1">
@@ -6609,10 +6281,10 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+      <c r="A10" s="27">
         <v>2</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="1">
         <v>12</v>
       </c>
@@ -6650,11 +6322,11 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+      <c r="A11" s="27">
         <v>3</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="1">
         <v>34</v>
       </c>
@@ -6683,12 +6355,12 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+      <c r="A12" s="27">
         <v>4</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="1">
         <v>96</v>
       </c>
@@ -6710,13 +6382,13 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+      <c r="A13" s="27">
         <v>5</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -6735,90 +6407,90 @@
       <c r="U13" s="1"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="27">
         <v>1</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="27">
         <v>2</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="27">
         <f>C15+1</f>
         <v>3</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="27">
         <f t="shared" ref="E15:O15" si="14">D15+1</f>
         <v>4</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="27">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="27">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="27">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="27">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="27">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="27">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="27">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="27">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="27">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="27">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="27">
         <f t="shared" ref="P15" si="15">O15+1</f>
         <v>15</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="27">
         <f t="shared" ref="Q15" si="16">P15+1</f>
         <v>16</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15" s="27">
         <f t="shared" ref="R15" si="17">Q15+1</f>
         <v>17</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15" s="27">
         <f t="shared" ref="S15" si="18">R15+1</f>
         <v>18</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15" s="27">
         <f t="shared" ref="T15" si="19">S15+1</f>
         <v>19</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15" s="27">
         <f t="shared" ref="U15" si="20">T15+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+      <c r="A16" s="27">
         <v>1</v>
       </c>
       <c r="B16" s="1">
@@ -6873,10 +6545,10 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+      <c r="A17" s="27">
         <v>2</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="1">
         <v>3</v>
       </c>
@@ -6914,11 +6586,11 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+      <c r="A18" s="27">
         <v>3</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="1">
         <v>8</v>
       </c>
@@ -6947,12 +6619,12 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="35">
+      <c r="A19" s="27">
         <v>4</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="1">
         <v>12</v>
       </c>
@@ -6976,13 +6648,13 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="35">
+      <c r="A20" s="27">
         <v>5</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -7019,529 +6691,529 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="18">
+      <c r="B1" s="38"/>
+      <c r="C1" s="33">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="18">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="33">
         <f>C1+1</f>
         <v>2</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="18">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33">
         <f>G1+1</f>
         <v>3</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="18">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="33">
         <f>K1+1</f>
         <v>4</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="18">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="33">
         <f>O1+1</f>
         <v>5</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="18">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="33">
         <f>S1+1</f>
         <v>6</v>
       </c>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="18">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="33">
         <f>W1+1</f>
         <v>7</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="18">
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="33">
         <f>AA1+1</f>
         <v>8</v>
       </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="18">
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="33">
         <f>AE1+1</f>
         <v>9</v>
       </c>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="18">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="33">
         <f>AI1+1</f>
         <v>10</v>
       </c>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="18">
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="33">
         <f>AM1+1</f>
         <v>11</v>
       </c>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="18">
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="33">
         <f>AQ1+1</f>
         <v>12</v>
       </c>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="18">
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="33">
         <f>AU1+1</f>
         <v>13</v>
       </c>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="19"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="18">
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="33">
         <f>AY1+1</f>
         <v>14</v>
       </c>
-      <c r="BD1" s="19"/>
-      <c r="BE1" s="19"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="18">
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="33">
         <f>BC1+1</f>
         <v>15</v>
       </c>
-      <c r="BH1" s="19"/>
-      <c r="BI1" s="19"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="18">
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="33">
         <f>BG1+1</f>
         <v>16</v>
       </c>
-      <c r="BL1" s="19"/>
-      <c r="BM1" s="19"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="18">
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="33">
         <f>BK1+1</f>
         <v>17</v>
       </c>
-      <c r="BP1" s="19"/>
-      <c r="BQ1" s="19"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="18">
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="33">
         <f>BO1+1</f>
         <v>18</v>
       </c>
-      <c r="BT1" s="19"/>
-      <c r="BU1" s="19"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="18">
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="35"/>
+      <c r="BW1" s="33">
         <f>BS1+1</f>
         <v>19</v>
       </c>
-      <c r="BX1" s="19"/>
-      <c r="BY1" s="19"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="18">
+      <c r="BX1" s="34"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="35"/>
+      <c r="CA1" s="33">
         <f>BW1+1</f>
         <v>20</v>
       </c>
-      <c r="CB1" s="19"/>
-      <c r="CC1" s="19"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="18">
+      <c r="CB1" s="34"/>
+      <c r="CC1" s="34"/>
+      <c r="CD1" s="35"/>
+      <c r="CE1" s="33">
         <f>CA1+1</f>
         <v>21</v>
       </c>
-      <c r="CF1" s="19"/>
-      <c r="CG1" s="19"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="18">
+      <c r="CF1" s="34"/>
+      <c r="CG1" s="34"/>
+      <c r="CH1" s="35"/>
+      <c r="CI1" s="33">
         <f>CE1+1</f>
         <v>22</v>
       </c>
-      <c r="CJ1" s="19"/>
-      <c r="CK1" s="19"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="18">
+      <c r="CJ1" s="34"/>
+      <c r="CK1" s="34"/>
+      <c r="CL1" s="35"/>
+      <c r="CM1" s="33">
         <f>CI1+1</f>
         <v>23</v>
       </c>
-      <c r="CN1" s="19"/>
-      <c r="CO1" s="19"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="18">
+      <c r="CN1" s="34"/>
+      <c r="CO1" s="34"/>
+      <c r="CP1" s="35"/>
+      <c r="CQ1" s="33">
         <f>CM1+1</f>
         <v>24</v>
       </c>
-      <c r="CR1" s="19"/>
-      <c r="CS1" s="19"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="18">
+      <c r="CR1" s="34"/>
+      <c r="CS1" s="34"/>
+      <c r="CT1" s="35"/>
+      <c r="CU1" s="33">
         <f>CQ1+1</f>
         <v>25</v>
       </c>
-      <c r="CV1" s="19"/>
-      <c r="CW1" s="19"/>
-      <c r="CX1" s="13"/>
-      <c r="CY1" s="18">
+      <c r="CV1" s="34"/>
+      <c r="CW1" s="34"/>
+      <c r="CX1" s="35"/>
+      <c r="CY1" s="33">
         <f>CU1+1</f>
         <v>26</v>
       </c>
-      <c r="CZ1" s="19"/>
-      <c r="DA1" s="19"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="18">
+      <c r="CZ1" s="34"/>
+      <c r="DA1" s="34"/>
+      <c r="DB1" s="35"/>
+      <c r="DC1" s="33">
         <f>CY1+1</f>
         <v>27</v>
       </c>
-      <c r="DD1" s="19"/>
-      <c r="DE1" s="19"/>
-      <c r="DF1" s="13"/>
+      <c r="DD1" s="34"/>
+      <c r="DE1" s="34"/>
+      <c r="DF1" s="35"/>
     </row>
     <row r="2" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="Z2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="22" t="s">
+      <c r="AD2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AG2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="22" t="s">
+      <c r="AH2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="21" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="21" t="s">
+      <c r="AK2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="22" t="s">
+      <c r="AL2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AM2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AN2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="21" t="s">
+      <c r="AO2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="22" t="s">
+      <c r="AP2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AQ2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="21" t="s">
+      <c r="AR2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="21" t="s">
+      <c r="AS2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AT2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AU2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="21" t="s">
+      <c r="AV2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AW2" s="21" t="s">
+      <c r="AW2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="22" t="s">
+      <c r="AX2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AY2" s="20" t="s">
+      <c r="AY2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="21" t="s">
+      <c r="BA2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="22" t="s">
+      <c r="BB2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BC2" s="20" t="s">
+      <c r="BC2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="21" t="s">
+      <c r="BD2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="21" t="s">
+      <c r="BE2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="BF2" s="22" t="s">
+      <c r="BF2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BG2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BH2" s="21" t="s">
+      <c r="BH2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BI2" s="21" t="s">
+      <c r="BI2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="BJ2" s="22" t="s">
+      <c r="BJ2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BK2" s="20" t="s">
+      <c r="BK2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BL2" s="21" t="s">
+      <c r="BL2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" s="21" t="s">
+      <c r="BM2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="BN2" s="22" t="s">
+      <c r="BN2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BO2" s="20" t="s">
+      <c r="BO2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BP2" s="21" t="s">
+      <c r="BP2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BQ2" s="21" t="s">
+      <c r="BQ2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="BR2" s="22" t="s">
+      <c r="BR2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BS2" s="20" t="s">
+      <c r="BS2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BT2" s="21" t="s">
+      <c r="BT2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" s="21" t="s">
+      <c r="BU2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" s="22" t="s">
+      <c r="BV2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BW2" s="20" t="s">
+      <c r="BW2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BX2" s="21" t="s">
+      <c r="BX2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="21" t="s">
+      <c r="BY2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="22" t="s">
+      <c r="BZ2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="20" t="s">
+      <c r="CA2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="CB2" s="21" t="s">
+      <c r="CB2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="CC2" s="21" t="s">
+      <c r="CC2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CD2" s="22" t="s">
+      <c r="CD2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CE2" s="20" t="s">
+      <c r="CE2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="CF2" s="21" t="s">
+      <c r="CF2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="CG2" s="21" t="s">
+      <c r="CG2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CH2" s="22" t="s">
+      <c r="CH2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CI2" s="20" t="s">
+      <c r="CI2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="CJ2" s="21" t="s">
+      <c r="CJ2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="CK2" s="21" t="s">
+      <c r="CK2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CL2" s="22" t="s">
+      <c r="CL2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CM2" s="20" t="s">
+      <c r="CM2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="CN2" s="21" t="s">
+      <c r="CN2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="CO2" s="21" t="s">
+      <c r="CO2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CP2" s="22" t="s">
+      <c r="CP2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CQ2" s="20" t="s">
+      <c r="CQ2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="CR2" s="21" t="s">
+      <c r="CR2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="CS2" s="21" t="s">
+      <c r="CS2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CT2" s="22" t="s">
+      <c r="CT2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CU2" s="20" t="s">
+      <c r="CU2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="CV2" s="21" t="s">
+      <c r="CV2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="CW2" s="21" t="s">
+      <c r="CW2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CX2" s="22" t="s">
+      <c r="CX2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CY2" s="20" t="s">
+      <c r="CY2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="CZ2" s="21" t="s">
+      <c r="CZ2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="DA2" s="21" t="s">
+      <c r="DA2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="DB2" s="22" t="s">
+      <c r="DB2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="DC2" s="20" t="s">
+      <c r="DC2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="DD2" s="21" t="s">
+      <c r="DD2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="DE2" s="21" t="s">
+      <c r="DE2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="DF2" s="22" t="s">
+      <c r="DF2" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -7556,7 +7228,7 @@
       <c r="E3" s="11">
         <v>3.7100000000012103E-5</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <f>AVERAGE(C3:E3)</f>
         <v>5.6166666666671897E-5</v>
       </c>
@@ -7569,7 +7241,7 @@
       <c r="I3" s="4">
         <v>1.1070000000001899E-4</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="29">
         <f>AVERAGE(G3:I3)</f>
         <v>1.5956666666664733E-4</v>
       </c>
@@ -7582,7 +7254,7 @@
       <c r="M3" s="4">
         <v>2.9589999999990398E-4</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="29">
         <f>AVERAGE(K3:M3)</f>
         <v>2.0493333333330464E-4</v>
       </c>
@@ -7595,7 +7267,7 @@
       <c r="Q3" s="4">
         <v>3.2909999999986001E-4</v>
       </c>
-      <c r="R3" s="37">
+      <c r="R3" s="29">
         <f>AVERAGE(O3:Q3)</f>
         <v>4.03966666666644E-4</v>
       </c>
@@ -7608,8 +7280,8 @@
       <c r="U3" s="4">
         <v>8.4670000000031098E-4</v>
       </c>
-      <c r="V3" s="37">
-        <f>AVERAGE(S3:U3)</f>
+      <c r="V3" s="29">
+        <f t="shared" ref="V3:V17" si="0">AVERAGE(S3:U3)</f>
         <v>8.0196666666676431E-4</v>
       </c>
       <c r="W3" s="3">
@@ -7621,8 +7293,8 @@
       <c r="Y3" s="4">
         <v>1.70350000000008E-3</v>
       </c>
-      <c r="Z3" s="37">
-        <f>AVERAGE(W3:Y3)</f>
+      <c r="Z3" s="29">
+        <f t="shared" ref="Z3:Z17" si="1">AVERAGE(W3:Y3)</f>
         <v>1.6036999999999798E-3</v>
       </c>
       <c r="AA3" s="3">
@@ -7634,8 +7306,8 @@
       <c r="AC3" s="4">
         <v>3.2065999999999401E-3</v>
       </c>
-      <c r="AD3" s="37">
-        <f>AVERAGE(AA3:AC3)</f>
+      <c r="AD3" s="29">
+        <f t="shared" ref="AD3:AD17" si="2">AVERAGE(AA3:AC3)</f>
         <v>3.2511666666666535E-3</v>
       </c>
       <c r="AE3" s="3">
@@ -7647,8 +7319,8 @@
       <c r="AG3" s="4">
         <v>6.9234000000000196E-3</v>
       </c>
-      <c r="AH3" s="37">
-        <f>AVERAGE(AE3:AG3)</f>
+      <c r="AH3" s="29">
+        <f t="shared" ref="AH3:AH17" si="3">AVERAGE(AE3:AG3)</f>
         <v>7.6894666666667702E-3</v>
       </c>
       <c r="AI3" s="3">
@@ -7660,8 +7332,8 @@
       <c r="AK3" s="4">
         <v>1.2092599999999801E-2</v>
       </c>
-      <c r="AL3" s="37">
-        <f>AVERAGE(AI3:AK3)</f>
+      <c r="AL3" s="29">
+        <f t="shared" ref="AL3:AL17" si="4">AVERAGE(AI3:AK3)</f>
         <v>1.3923933333333201E-2</v>
       </c>
       <c r="AM3" s="3">
@@ -7673,8 +7345,8 @@
       <c r="AO3" s="4">
         <v>3.3944300000000101E-2</v>
       </c>
-      <c r="AP3" s="37">
-        <f>AVERAGE(AM3:AO3)</f>
+      <c r="AP3" s="29">
+        <f t="shared" ref="AP3:AP17" si="5">AVERAGE(AM3:AO3)</f>
         <v>3.4368700000000002E-2</v>
       </c>
       <c r="AQ3" s="3">
@@ -7686,8 +7358,8 @@
       <c r="AS3" s="4">
         <v>5.7353599999999803E-2</v>
       </c>
-      <c r="AT3" s="37">
-        <f>AVERAGE(AQ3:AS3)</f>
+      <c r="AT3" s="29">
+        <f t="shared" ref="AT3:AT17" si="6">AVERAGE(AQ3:AS3)</f>
         <v>5.80450666666667E-2</v>
       </c>
       <c r="AU3" s="3">
@@ -7699,8 +7371,8 @@
       <c r="AW3" s="4">
         <v>0.154888099999999</v>
       </c>
-      <c r="AX3" s="37">
-        <f>AVERAGE(AU3:AW3)</f>
+      <c r="AX3" s="29">
+        <f t="shared" ref="AX3:AX17" si="7">AVERAGE(AU3:AW3)</f>
         <v>0.13362716666666599</v>
       </c>
       <c r="AY3" s="3">
@@ -7712,8 +7384,8 @@
       <c r="BA3" s="4">
         <v>0.276416299999999</v>
       </c>
-      <c r="BB3" s="37">
-        <f>AVERAGE(AY3:BA3)</f>
+      <c r="BB3" s="29">
+        <f t="shared" ref="BB3:BB17" si="8">AVERAGE(AY3:BA3)</f>
         <v>0.25920489999999935</v>
       </c>
       <c r="BC3" s="3">
@@ -7725,8 +7397,8 @@
       <c r="BE3" s="4">
         <v>0.52139569999999902</v>
       </c>
-      <c r="BF3" s="37">
-        <f>AVERAGE(BC3:BE3)</f>
+      <c r="BF3" s="29">
+        <f t="shared" ref="BF3:BF17" si="9">AVERAGE(BC3:BE3)</f>
         <v>0.57439179999999956</v>
       </c>
       <c r="BG3" s="3">
@@ -7738,8 +7410,8 @@
       <c r="BI3" s="4">
         <v>1.1530962</v>
       </c>
-      <c r="BJ3" s="37">
-        <f>AVERAGE(BG3:BI3)</f>
+      <c r="BJ3" s="29">
+        <f t="shared" ref="BJ3:BJ17" si="10">AVERAGE(BG3:BI3)</f>
         <v>1.1544019333333333</v>
       </c>
       <c r="BK3" s="3">
@@ -7751,8 +7423,8 @@
       <c r="BM3" s="4">
         <v>3.1699139999999999</v>
       </c>
-      <c r="BN3" s="37">
-        <f>AVERAGE(BK3:BM3)</f>
+      <c r="BN3" s="29">
+        <f t="shared" ref="BN3:BN17" si="11">AVERAGE(BK3:BM3)</f>
         <v>2.6930842666666632</v>
       </c>
       <c r="BO3" s="3">
@@ -7764,8 +7436,8 @@
       <c r="BQ3" s="4">
         <v>6.0043215999999999</v>
       </c>
-      <c r="BR3" s="37">
-        <f>AVERAGE(BO3:BQ3)</f>
+      <c r="BR3" s="29">
+        <f t="shared" ref="BR3:BR17" si="12">AVERAGE(BO3:BQ3)</f>
         <v>5.8804635666666663</v>
       </c>
       <c r="BS3" s="3">
@@ -7777,8 +7449,8 @@
       <c r="BU3" s="4">
         <v>13.832367100000001</v>
       </c>
-      <c r="BV3" s="37">
-        <f>AVERAGE(BS3:BU3)</f>
+      <c r="BV3" s="29">
+        <f t="shared" ref="BV3:BV17" si="13">AVERAGE(BS3:BU3)</f>
         <v>13.433749999999998</v>
       </c>
       <c r="BW3" s="3">
@@ -7790,8 +7462,8 @@
       <c r="BY3" s="4">
         <v>36.558977300000002</v>
       </c>
-      <c r="BZ3" s="37">
-        <f>AVERAGE(BW3:BY3)</f>
+      <c r="BZ3" s="29">
+        <f t="shared" ref="BZ3:BZ17" si="14">AVERAGE(BW3:BY3)</f>
         <v>36.635885266666669</v>
       </c>
       <c r="CA3" s="3">
@@ -7803,51 +7475,51 @@
       <c r="CC3" s="4">
         <v>83.703122699999895</v>
       </c>
-      <c r="CD3" s="37">
-        <f>AVERAGE(CA3:CC3)</f>
+      <c r="CD3" s="29">
+        <f t="shared" ref="CD3:CD17" si="15">AVERAGE(CA3:CC3)</f>
         <v>90.667480166666607</v>
       </c>
       <c r="CE3" s="3"/>
       <c r="CF3" s="3"/>
       <c r="CG3" s="4"/>
-      <c r="CH3" s="37" t="e">
-        <f>AVERAGE(CE3:CG3)</f>
+      <c r="CH3" s="29" t="e">
+        <f t="shared" ref="CH3:CH17" si="16">AVERAGE(CE3:CG3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="4"/>
-      <c r="CL3" s="14"/>
+      <c r="CL3" s="12"/>
       <c r="CM3" s="3"/>
       <c r="CN3" s="3"/>
       <c r="CO3" s="4"/>
-      <c r="CP3" s="14"/>
+      <c r="CP3" s="12"/>
       <c r="CQ3" s="3"/>
       <c r="CR3" s="3"/>
       <c r="CS3" s="4"/>
-      <c r="CT3" s="14"/>
+      <c r="CT3" s="12"/>
       <c r="CU3" s="3"/>
       <c r="CV3" s="3"/>
       <c r="CW3" s="4"/>
-      <c r="CX3" s="14"/>
+      <c r="CX3" s="12"/>
       <c r="CY3" s="3"/>
       <c r="CZ3" s="3"/>
       <c r="DA3" s="4"/>
-      <c r="DB3" s="14"/>
+      <c r="DB3" s="12"/>
       <c r="DC3" s="3"/>
       <c r="DD3" s="3"/>
       <c r="DE3" s="4"/>
-      <c r="DF3" s="14"/>
+      <c r="DF3" s="12"/>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="5">
         <v>6.1290000000013801E-4</v>
       </c>
@@ -7857,7 +7529,7 @@
       <c r="I4" s="6">
         <v>5.2839999999987298E-4</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="29">
         <f>AVERAGE(G4:I4)</f>
         <v>6.3936666666656629E-4</v>
       </c>
@@ -7870,7 +7542,7 @@
       <c r="M4" s="6">
         <v>3.0926999999998299E-3</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="29">
         <f>AVERAGE(K4:M4)</f>
         <v>2.2998999999999767E-3</v>
       </c>
@@ -7883,7 +7555,7 @@
       <c r="Q4" s="6">
         <v>4.86220000000003E-3</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="29">
         <f>AVERAGE(O4:Q4)</f>
         <v>5.6194000000000478E-3</v>
       </c>
@@ -7896,8 +7568,8 @@
       <c r="U4" s="6">
         <v>1.7686199999999899E-2</v>
       </c>
-      <c r="V4" s="37">
-        <f>AVERAGE(S4:U4)</f>
+      <c r="V4" s="29">
+        <f t="shared" si="0"/>
         <v>1.649746666666663E-2</v>
       </c>
       <c r="W4" s="5">
@@ -7909,8 +7581,8 @@
       <c r="Y4" s="6">
         <v>7.2652400000000103E-2</v>
       </c>
-      <c r="Z4" s="37">
-        <f>AVERAGE(W4:Y4)</f>
+      <c r="Z4" s="29">
+        <f t="shared" si="1"/>
         <v>7.0438000000000042E-2</v>
       </c>
       <c r="AA4" s="5">
@@ -7922,8 +7594,8 @@
       <c r="AC4" s="6">
         <v>0.18835829999999901</v>
       </c>
-      <c r="AD4" s="37">
-        <f>AVERAGE(AA4:AC4)</f>
+      <c r="AD4" s="29">
+        <f t="shared" si="2"/>
         <v>0.183399799999999</v>
       </c>
       <c r="AE4" s="5">
@@ -7935,8 +7607,8 @@
       <c r="AG4" s="6">
         <v>0.59865859999999904</v>
       </c>
-      <c r="AH4" s="37">
-        <f>AVERAGE(AE4:AG4)</f>
+      <c r="AH4" s="29">
+        <f t="shared" si="3"/>
         <v>0.60939636666666608</v>
       </c>
       <c r="AI4" s="5">
@@ -7948,8 +7620,8 @@
       <c r="AK4" s="6">
         <v>2.1128761999999899</v>
       </c>
-      <c r="AL4" s="37">
-        <f>AVERAGE(AI4:AK4)</f>
+      <c r="AL4" s="29">
+        <f t="shared" si="4"/>
         <v>2.0887958333333301</v>
       </c>
       <c r="AM4" s="5">
@@ -7961,8 +7633,8 @@
       <c r="AO4" s="6">
         <v>7.5882440000000004</v>
       </c>
-      <c r="AP4" s="37">
-        <f>AVERAGE(AM4:AO4)</f>
+      <c r="AP4" s="29">
+        <f t="shared" si="5"/>
         <v>7.1073683999999959</v>
       </c>
       <c r="AQ4" s="5">
@@ -7974,8 +7646,8 @@
       <c r="AS4" s="6">
         <v>23.102848900000001</v>
       </c>
-      <c r="AT4" s="37">
-        <f>AVERAGE(AQ4:AS4)</f>
+      <c r="AT4" s="29">
+        <f t="shared" si="6"/>
         <v>22.174428133333333</v>
       </c>
       <c r="AU4" s="5">
@@ -7987,111 +7659,111 @@
       <c r="AW4" s="6">
         <v>107.17026619999901</v>
       </c>
-      <c r="AX4" s="37">
-        <f>AVERAGE(AU4:AW4)</f>
+      <c r="AX4" s="29">
+        <f t="shared" si="7"/>
         <v>104.819255133333</v>
       </c>
       <c r="AY4" s="5"/>
       <c r="AZ4" s="5"/>
       <c r="BA4" s="6"/>
-      <c r="BB4" s="37" t="e">
-        <f>AVERAGE(AY4:BA4)</f>
+      <c r="BB4" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC4" s="5"/>
       <c r="BD4" s="5"/>
       <c r="BE4" s="6"/>
-      <c r="BF4" s="37" t="e">
-        <f>AVERAGE(BC4:BE4)</f>
+      <c r="BF4" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG4" s="5"/>
       <c r="BH4" s="5"/>
       <c r="BI4" s="6"/>
-      <c r="BJ4" s="37" t="e">
-        <f>AVERAGE(BG4:BI4)</f>
+      <c r="BJ4" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK4" s="5"/>
       <c r="BL4" s="5"/>
       <c r="BM4" s="6"/>
-      <c r="BN4" s="37" t="e">
-        <f>AVERAGE(BK4:BM4)</f>
+      <c r="BN4" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO4" s="5"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="6"/>
-      <c r="BR4" s="37" t="e">
-        <f>AVERAGE(BO4:BQ4)</f>
+      <c r="BR4" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS4" s="5"/>
       <c r="BT4" s="5"/>
       <c r="BU4" s="6"/>
-      <c r="BV4" s="37" t="e">
-        <f>AVERAGE(BS4:BU4)</f>
+      <c r="BV4" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW4" s="5"/>
       <c r="BX4" s="5"/>
       <c r="BY4" s="6"/>
-      <c r="BZ4" s="37" t="e">
-        <f>AVERAGE(BW4:BY4)</f>
+      <c r="BZ4" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA4" s="5"/>
       <c r="CB4" s="5"/>
       <c r="CC4" s="6"/>
-      <c r="CD4" s="37" t="e">
-        <f>AVERAGE(CA4:CC4)</f>
+      <c r="CD4" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE4" s="5"/>
       <c r="CF4" s="5"/>
       <c r="CG4" s="6"/>
-      <c r="CH4" s="37" t="e">
-        <f>AVERAGE(CE4:CG4)</f>
+      <c r="CH4" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI4" s="5"/>
       <c r="CJ4" s="5"/>
       <c r="CK4" s="6"/>
-      <c r="CL4" s="15"/>
+      <c r="CL4" s="13"/>
       <c r="CM4" s="5"/>
       <c r="CN4" s="5"/>
       <c r="CO4" s="6"/>
-      <c r="CP4" s="15"/>
+      <c r="CP4" s="13"/>
       <c r="CQ4" s="5"/>
       <c r="CR4" s="5"/>
       <c r="CS4" s="6"/>
-      <c r="CT4" s="15"/>
+      <c r="CT4" s="13"/>
       <c r="CU4" s="5"/>
       <c r="CV4" s="5"/>
       <c r="CW4" s="6"/>
-      <c r="CX4" s="15"/>
+      <c r="CX4" s="13"/>
       <c r="CY4" s="5"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="6"/>
-      <c r="DB4" s="15"/>
+      <c r="DB4" s="13"/>
       <c r="DC4" s="5"/>
       <c r="DD4" s="5"/>
       <c r="DE4" s="6"/>
-      <c r="DF4" s="15"/>
+      <c r="DF4" s="13"/>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="39"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="31"/>
       <c r="K5" s="5">
         <v>7.5557000000001599E-3</v>
       </c>
@@ -8101,7 +7773,7 @@
       <c r="M5" s="6">
         <v>7.7625999999999503E-3</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="29">
         <f>AVERAGE(K5:M5)</f>
         <v>7.6818000000000658E-3</v>
       </c>
@@ -8114,7 +7786,7 @@
       <c r="Q5" s="6">
         <v>3.91137999999999E-2</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="29">
         <f>AVERAGE(O5:Q5)</f>
         <v>4.0485066666666597E-2</v>
       </c>
@@ -8127,8 +7799,8 @@
       <c r="U5" s="6">
         <v>0.19525039999999899</v>
       </c>
-      <c r="V5" s="37">
-        <f>AVERAGE(S5:U5)</f>
+      <c r="V5" s="29">
+        <f t="shared" si="0"/>
         <v>0.21454139999999966</v>
       </c>
       <c r="W5" s="5">
@@ -8140,8 +7812,8 @@
       <c r="Y5" s="6">
         <v>1.1045111999999899</v>
       </c>
-      <c r="Z5" s="37">
-        <f>AVERAGE(W5:Y5)</f>
+      <c r="Z5" s="29">
+        <f t="shared" si="1"/>
         <v>1.05867893333333</v>
       </c>
       <c r="AA5" s="5">
@@ -8153,8 +7825,8 @@
       <c r="AC5" s="6">
         <v>5.7819424000000001</v>
       </c>
-      <c r="AD5" s="37">
-        <f>AVERAGE(AA5:AC5)</f>
+      <c r="AD5" s="29">
+        <f t="shared" si="2"/>
         <v>5.9377166333333333</v>
       </c>
       <c r="AE5" s="5">
@@ -8166,8 +7838,8 @@
       <c r="AG5" s="6">
         <v>38.825708800000001</v>
       </c>
-      <c r="AH5" s="37">
-        <f>AVERAGE(AE5:AG5)</f>
+      <c r="AH5" s="29">
+        <f t="shared" si="3"/>
         <v>38.5624015</v>
       </c>
       <c r="AI5" s="5">
@@ -8179,136 +7851,136 @@
       <c r="AK5" s="6">
         <v>444.16120649999999</v>
       </c>
-      <c r="AL5" s="37">
-        <f>AVERAGE(AI5:AK5)</f>
+      <c r="AL5" s="29">
+        <f t="shared" si="4"/>
         <v>397.93158736666669</v>
       </c>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
       <c r="AO5" s="6"/>
-      <c r="AP5" s="37" t="e">
-        <f>AVERAGE(AM5:AO5)</f>
+      <c r="AP5" s="29" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ5" s="5"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="6"/>
-      <c r="AT5" s="37" t="e">
-        <f>AVERAGE(AQ5:AS5)</f>
+      <c r="AT5" s="29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU5" s="5"/>
       <c r="AV5" s="5"/>
       <c r="AW5" s="6"/>
-      <c r="AX5" s="37" t="e">
-        <f>AVERAGE(AU5:AW5)</f>
+      <c r="AX5" s="29" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY5" s="5"/>
       <c r="AZ5" s="5"/>
       <c r="BA5" s="6"/>
-      <c r="BB5" s="37" t="e">
-        <f>AVERAGE(AY5:BA5)</f>
+      <c r="BB5" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC5" s="5"/>
       <c r="BD5" s="5"/>
       <c r="BE5" s="6"/>
-      <c r="BF5" s="37" t="e">
-        <f>AVERAGE(BC5:BE5)</f>
+      <c r="BF5" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG5" s="5"/>
       <c r="BH5" s="5"/>
       <c r="BI5" s="6"/>
-      <c r="BJ5" s="37" t="e">
-        <f>AVERAGE(BG5:BI5)</f>
+      <c r="BJ5" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK5" s="5"/>
       <c r="BL5" s="5"/>
       <c r="BM5" s="6"/>
-      <c r="BN5" s="37" t="e">
-        <f>AVERAGE(BK5:BM5)</f>
+      <c r="BN5" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO5" s="5"/>
       <c r="BP5" s="5"/>
       <c r="BQ5" s="6"/>
-      <c r="BR5" s="37" t="e">
-        <f>AVERAGE(BO5:BQ5)</f>
+      <c r="BR5" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS5" s="5"/>
       <c r="BT5" s="5"/>
       <c r="BU5" s="6"/>
-      <c r="BV5" s="37" t="e">
-        <f>AVERAGE(BS5:BU5)</f>
+      <c r="BV5" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW5" s="5"/>
       <c r="BX5" s="5"/>
       <c r="BY5" s="6"/>
-      <c r="BZ5" s="37" t="e">
-        <f>AVERAGE(BW5:BY5)</f>
+      <c r="BZ5" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA5" s="5"/>
       <c r="CB5" s="5"/>
       <c r="CC5" s="6"/>
-      <c r="CD5" s="37" t="e">
-        <f>AVERAGE(CA5:CC5)</f>
+      <c r="CD5" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE5" s="5"/>
       <c r="CF5" s="5"/>
       <c r="CG5" s="6"/>
-      <c r="CH5" s="37" t="e">
-        <f>AVERAGE(CE5:CG5)</f>
+      <c r="CH5" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI5" s="5"/>
       <c r="CJ5" s="5"/>
       <c r="CK5" s="6"/>
-      <c r="CL5" s="15"/>
+      <c r="CL5" s="13"/>
       <c r="CM5" s="5"/>
       <c r="CN5" s="5"/>
       <c r="CO5" s="6"/>
-      <c r="CP5" s="15"/>
+      <c r="CP5" s="13"/>
       <c r="CQ5" s="5"/>
       <c r="CR5" s="5"/>
       <c r="CS5" s="6"/>
-      <c r="CT5" s="15"/>
+      <c r="CT5" s="13"/>
       <c r="CU5" s="5"/>
       <c r="CV5" s="5"/>
       <c r="CW5" s="6"/>
-      <c r="CX5" s="15"/>
+      <c r="CX5" s="13"/>
       <c r="CY5" s="5"/>
       <c r="CZ5" s="5"/>
       <c r="DA5" s="6"/>
-      <c r="DB5" s="15"/>
+      <c r="DB5" s="13"/>
       <c r="DC5" s="5"/>
       <c r="DD5" s="5"/>
       <c r="DE5" s="6"/>
-      <c r="DF5" s="15"/>
+      <c r="DF5" s="13"/>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="39"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="5">
         <v>0.34230939999999999</v>
       </c>
@@ -8318,7 +7990,7 @@
       <c r="Q6" s="6">
         <v>0.3389894</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="29">
         <f>AVERAGE(O6:Q6)</f>
         <v>0.34219473333333333</v>
       </c>
@@ -8331,8 +8003,8 @@
       <c r="U6" s="6">
         <v>3.2671855999999901</v>
       </c>
-      <c r="V6" s="37">
-        <f>AVERAGE(S6:U6)</f>
+      <c r="V6" s="29">
+        <f t="shared" si="0"/>
         <v>3.1358164666666632</v>
       </c>
       <c r="W6" s="5">
@@ -8344,309 +8016,309 @@
       <c r="Y6" s="6">
         <v>29.914805999999999</v>
       </c>
-      <c r="Z6" s="37">
-        <f>AVERAGE(W6:Y6)</f>
+      <c r="Z6" s="29">
+        <f t="shared" si="1"/>
         <v>28.626742233333331</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="37" t="e">
-        <f>AVERAGE(AA6:AC6)</f>
+      <c r="AD6" s="29" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="6"/>
-      <c r="AH6" s="37" t="e">
-        <f>AVERAGE(AE6:AG6)</f>
+      <c r="AH6" s="29" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="37" t="e">
-        <f>AVERAGE(AI6:AK6)</f>
+      <c r="AL6" s="29" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="6"/>
-      <c r="AP6" s="37" t="e">
-        <f>AVERAGE(AM6:AO6)</f>
+      <c r="AP6" s="29" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ6" s="5"/>
       <c r="AR6" s="5"/>
       <c r="AS6" s="6"/>
-      <c r="AT6" s="37" t="e">
-        <f>AVERAGE(AQ6:AS6)</f>
+      <c r="AT6" s="29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU6" s="5"/>
       <c r="AV6" s="5"/>
       <c r="AW6" s="6"/>
-      <c r="AX6" s="37" t="e">
-        <f>AVERAGE(AU6:AW6)</f>
+      <c r="AX6" s="29" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY6" s="5"/>
       <c r="AZ6" s="5"/>
       <c r="BA6" s="6"/>
-      <c r="BB6" s="37" t="e">
-        <f>AVERAGE(AY6:BA6)</f>
+      <c r="BB6" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC6" s="5"/>
       <c r="BD6" s="5"/>
       <c r="BE6" s="6"/>
-      <c r="BF6" s="37" t="e">
-        <f>AVERAGE(BC6:BE6)</f>
+      <c r="BF6" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG6" s="5"/>
       <c r="BH6" s="5"/>
       <c r="BI6" s="6"/>
-      <c r="BJ6" s="37" t="e">
-        <f>AVERAGE(BG6:BI6)</f>
+      <c r="BJ6" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK6" s="5"/>
       <c r="BL6" s="5"/>
       <c r="BM6" s="6"/>
-      <c r="BN6" s="37" t="e">
-        <f>AVERAGE(BK6:BM6)</f>
+      <c r="BN6" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO6" s="5"/>
       <c r="BP6" s="5"/>
       <c r="BQ6" s="6"/>
-      <c r="BR6" s="37" t="e">
-        <f>AVERAGE(BO6:BQ6)</f>
+      <c r="BR6" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS6" s="5"/>
       <c r="BT6" s="5"/>
       <c r="BU6" s="6"/>
-      <c r="BV6" s="37" t="e">
-        <f>AVERAGE(BS6:BU6)</f>
+      <c r="BV6" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW6" s="5"/>
       <c r="BX6" s="5"/>
       <c r="BY6" s="6"/>
-      <c r="BZ6" s="37" t="e">
-        <f>AVERAGE(BW6:BY6)</f>
+      <c r="BZ6" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA6" s="5"/>
       <c r="CB6" s="5"/>
       <c r="CC6" s="6"/>
-      <c r="CD6" s="37" t="e">
-        <f>AVERAGE(CA6:CC6)</f>
+      <c r="CD6" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE6" s="5"/>
       <c r="CF6" s="5"/>
       <c r="CG6" s="6"/>
-      <c r="CH6" s="37" t="e">
-        <f>AVERAGE(CE6:CG6)</f>
+      <c r="CH6" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI6" s="5"/>
       <c r="CJ6" s="5"/>
       <c r="CK6" s="6"/>
-      <c r="CL6" s="15"/>
+      <c r="CL6" s="13"/>
       <c r="CM6" s="5"/>
       <c r="CN6" s="5"/>
       <c r="CO6" s="6"/>
-      <c r="CP6" s="15"/>
+      <c r="CP6" s="13"/>
       <c r="CQ6" s="5"/>
       <c r="CR6" s="5"/>
       <c r="CS6" s="6"/>
-      <c r="CT6" s="15"/>
+      <c r="CT6" s="13"/>
       <c r="CU6" s="5"/>
       <c r="CV6" s="5"/>
       <c r="CW6" s="6"/>
-      <c r="CX6" s="15"/>
+      <c r="CX6" s="13"/>
       <c r="CY6" s="5"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="6"/>
-      <c r="DB6" s="15"/>
+      <c r="DB6" s="13"/>
       <c r="DC6" s="5"/>
       <c r="DD6" s="5"/>
       <c r="DE6" s="6"/>
-      <c r="DF6" s="15"/>
+      <c r="DF6" s="13"/>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="38"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="30"/>
       <c r="S7" s="7">
         <v>49.572052399999997</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="37">
-        <f>AVERAGE(S7:U7)</f>
+      <c r="V7" s="29">
+        <f t="shared" si="0"/>
         <v>49.572052399999997</v>
       </c>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="8"/>
-      <c r="Z7" s="37" t="e">
-        <f>AVERAGE(W7:Y7)</f>
+      <c r="Z7" s="29" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="8"/>
-      <c r="AD7" s="37" t="e">
-        <f>AVERAGE(AA7:AC7)</f>
+      <c r="AD7" s="29" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="8"/>
-      <c r="AH7" s="37" t="e">
-        <f>AVERAGE(AE7:AG7)</f>
+      <c r="AH7" s="29" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="37" t="e">
-        <f>AVERAGE(AI7:AK7)</f>
+      <c r="AL7" s="29" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
       <c r="AO7" s="8"/>
-      <c r="AP7" s="37" t="e">
-        <f>AVERAGE(AM7:AO7)</f>
+      <c r="AP7" s="29" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ7" s="7"/>
       <c r="AR7" s="7"/>
       <c r="AS7" s="8"/>
-      <c r="AT7" s="37" t="e">
-        <f>AVERAGE(AQ7:AS7)</f>
+      <c r="AT7" s="29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU7" s="7"/>
       <c r="AV7" s="7"/>
       <c r="AW7" s="8"/>
-      <c r="AX7" s="37" t="e">
-        <f>AVERAGE(AU7:AW7)</f>
+      <c r="AX7" s="29" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
       <c r="BA7" s="8"/>
-      <c r="BB7" s="37" t="e">
-        <f>AVERAGE(AY7:BA7)</f>
+      <c r="BB7" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC7" s="7"/>
       <c r="BD7" s="7"/>
       <c r="BE7" s="8"/>
-      <c r="BF7" s="37" t="e">
-        <f>AVERAGE(BC7:BE7)</f>
+      <c r="BF7" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7"/>
       <c r="BI7" s="8"/>
-      <c r="BJ7" s="37" t="e">
-        <f>AVERAGE(BG7:BI7)</f>
+      <c r="BJ7" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK7" s="7"/>
       <c r="BL7" s="7"/>
       <c r="BM7" s="8"/>
-      <c r="BN7" s="37" t="e">
-        <f>AVERAGE(BK7:BM7)</f>
+      <c r="BN7" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO7" s="7"/>
       <c r="BP7" s="7"/>
       <c r="BQ7" s="8"/>
-      <c r="BR7" s="37" t="e">
-        <f>AVERAGE(BO7:BQ7)</f>
+      <c r="BR7" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS7" s="7"/>
       <c r="BT7" s="7"/>
       <c r="BU7" s="8"/>
-      <c r="BV7" s="37" t="e">
-        <f>AVERAGE(BS7:BU7)</f>
+      <c r="BV7" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW7" s="7"/>
       <c r="BX7" s="7"/>
       <c r="BY7" s="8"/>
-      <c r="BZ7" s="37" t="e">
-        <f>AVERAGE(BW7:BY7)</f>
+      <c r="BZ7" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA7" s="7"/>
       <c r="CB7" s="7"/>
       <c r="CC7" s="8"/>
-      <c r="CD7" s="37" t="e">
-        <f>AVERAGE(CA7:CC7)</f>
+      <c r="CD7" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE7" s="7"/>
       <c r="CF7" s="7"/>
       <c r="CG7" s="8"/>
-      <c r="CH7" s="37" t="e">
-        <f>AVERAGE(CE7:CG7)</f>
+      <c r="CH7" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI7" s="7"/>
       <c r="CJ7" s="7"/>
       <c r="CK7" s="8"/>
-      <c r="CL7" s="16"/>
+      <c r="CL7" s="14"/>
       <c r="CM7" s="7"/>
       <c r="CN7" s="7"/>
       <c r="CO7" s="8"/>
-      <c r="CP7" s="16"/>
+      <c r="CP7" s="14"/>
       <c r="CQ7" s="7"/>
       <c r="CR7" s="7"/>
       <c r="CS7" s="8"/>
-      <c r="CT7" s="16"/>
+      <c r="CT7" s="14"/>
       <c r="CU7" s="7"/>
       <c r="CV7" s="7"/>
       <c r="CW7" s="8"/>
-      <c r="CX7" s="16"/>
+      <c r="CX7" s="14"/>
       <c r="CY7" s="7"/>
       <c r="CZ7" s="7"/>
       <c r="DA7" s="8"/>
-      <c r="DB7" s="16"/>
+      <c r="DB7" s="14"/>
       <c r="DC7" s="7"/>
       <c r="DD7" s="7"/>
       <c r="DE7" s="8"/>
-      <c r="DF7" s="16"/>
+      <c r="DF7" s="14"/>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1">
@@ -8661,7 +8333,7 @@
       <c r="E8" s="11">
         <v>3.11000000000616E-5</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <f>AVERAGE(C8:E8)</f>
         <v>5.3333333333349637E-5</v>
       </c>
@@ -8674,7 +8346,7 @@
       <c r="I8" s="4">
         <v>1.2670000000003501E-4</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="29">
         <f>AVERAGE(G8:I8)</f>
         <v>1.2743333333331501E-4</v>
       </c>
@@ -8687,7 +8359,7 @@
       <c r="M8" s="4">
         <v>2.6379999999992499E-4</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="29">
         <f>AVERAGE(K8:M8)</f>
         <v>2.5539999999997932E-4</v>
       </c>
@@ -8700,7 +8372,7 @@
       <c r="Q8" s="4">
         <v>6.7530000000015601E-4</v>
       </c>
-      <c r="R8" s="37">
+      <c r="R8" s="29">
         <f>AVERAGE(O8:Q8)</f>
         <v>6.303333333334359E-4</v>
       </c>
@@ -8713,8 +8385,8 @@
       <c r="U8" s="4">
         <v>1.65400000000004E-3</v>
       </c>
-      <c r="V8" s="37">
-        <f>AVERAGE(S8:U8)</f>
+      <c r="V8" s="29">
+        <f t="shared" si="0"/>
         <v>1.33836666666664E-3</v>
       </c>
       <c r="W8" s="3">
@@ -8726,8 +8398,8 @@
       <c r="Y8" s="4">
         <v>3.3013000000000599E-3</v>
       </c>
-      <c r="Z8" s="37">
-        <f>AVERAGE(W8:Y8)</f>
+      <c r="Z8" s="29">
+        <f t="shared" si="1"/>
         <v>3.3525666666666832E-3</v>
       </c>
       <c r="AA8" s="3">
@@ -8739,8 +8411,8 @@
       <c r="AC8" s="4">
         <v>8.4081000000000294E-3</v>
       </c>
-      <c r="AD8" s="37">
-        <f>AVERAGE(AA8:AC8)</f>
+      <c r="AD8" s="29">
+        <f t="shared" si="2"/>
         <v>8.7914999999999868E-3</v>
       </c>
       <c r="AE8" s="3">
@@ -8752,8 +8424,8 @@
       <c r="AG8" s="4">
         <v>2.9729800000000001E-2</v>
       </c>
-      <c r="AH8" s="37">
-        <f>AVERAGE(AE8:AG8)</f>
+      <c r="AH8" s="29">
+        <f t="shared" si="3"/>
         <v>2.8637133333333269E-2</v>
       </c>
       <c r="AI8" s="3">
@@ -8765,8 +8437,8 @@
       <c r="AK8" s="4">
         <v>0.100961499999999</v>
       </c>
-      <c r="AL8" s="37">
-        <f>AVERAGE(AI8:AK8)</f>
+      <c r="AL8" s="29">
+        <f t="shared" si="4"/>
         <v>0.10160603333333267</v>
       </c>
       <c r="AM8" s="3">
@@ -8778,8 +8450,8 @@
       <c r="AO8" s="4">
         <v>0.43812259999999897</v>
       </c>
-      <c r="AP8" s="37">
-        <f>AVERAGE(AM8:AO8)</f>
+      <c r="AP8" s="29">
+        <f t="shared" si="5"/>
         <v>0.42380776666666625</v>
       </c>
       <c r="AQ8" s="3">
@@ -8791,8 +8463,8 @@
       <c r="AS8" s="4">
         <v>1.9180953000000001</v>
       </c>
-      <c r="AT8" s="37">
-        <f>AVERAGE(AQ8:AS8)</f>
+      <c r="AT8" s="29">
+        <f t="shared" si="6"/>
         <v>1.9158226333333268</v>
       </c>
       <c r="AU8" s="3">
@@ -8804,8 +8476,8 @@
       <c r="AW8" s="4">
         <v>8.4724173999999906</v>
       </c>
-      <c r="AX8" s="37">
-        <f>AVERAGE(AU8:AW8)</f>
+      <c r="AX8" s="29">
+        <f t="shared" si="7"/>
         <v>8.268901466666664</v>
       </c>
       <c r="AY8" s="3">
@@ -8817,8 +8489,8 @@
       <c r="BA8" s="4">
         <v>36.394675700000001</v>
       </c>
-      <c r="BB8" s="37">
-        <f>AVERAGE(AY8:BA8)</f>
+      <c r="BB8" s="29">
+        <f t="shared" si="8"/>
         <v>36.256256466666663</v>
       </c>
       <c r="BC8" s="3">
@@ -8830,93 +8502,93 @@
       <c r="BE8" s="4">
         <v>181.95623499999999</v>
       </c>
-      <c r="BF8" s="37">
-        <f>AVERAGE(BC8:BE8)</f>
+      <c r="BF8" s="29">
+        <f t="shared" si="9"/>
         <v>171.36670049999967</v>
       </c>
       <c r="BG8" s="3"/>
       <c r="BH8" s="3"/>
       <c r="BI8" s="4"/>
-      <c r="BJ8" s="37" t="e">
-        <f>AVERAGE(BG8:BI8)</f>
+      <c r="BJ8" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
       <c r="BM8" s="4"/>
-      <c r="BN8" s="37" t="e">
-        <f>AVERAGE(BK8:BM8)</f>
+      <c r="BN8" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
       <c r="BQ8" s="4"/>
-      <c r="BR8" s="37" t="e">
-        <f>AVERAGE(BO8:BQ8)</f>
+      <c r="BR8" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS8" s="3"/>
       <c r="BT8" s="3"/>
       <c r="BU8" s="4"/>
-      <c r="BV8" s="37" t="e">
-        <f>AVERAGE(BS8:BU8)</f>
+      <c r="BV8" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW8" s="3"/>
       <c r="BX8" s="3"/>
       <c r="BY8" s="4"/>
-      <c r="BZ8" s="37" t="e">
-        <f>AVERAGE(BW8:BY8)</f>
+      <c r="BZ8" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA8" s="3"/>
       <c r="CB8" s="3"/>
       <c r="CC8" s="4"/>
-      <c r="CD8" s="37" t="e">
-        <f>AVERAGE(CA8:CC8)</f>
+      <c r="CD8" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE8" s="3"/>
       <c r="CF8" s="3"/>
       <c r="CG8" s="4"/>
-      <c r="CH8" s="37" t="e">
-        <f>AVERAGE(CE8:CG8)</f>
+      <c r="CH8" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="4"/>
-      <c r="CL8" s="14"/>
+      <c r="CL8" s="12"/>
       <c r="CM8" s="3"/>
       <c r="CN8" s="3"/>
       <c r="CO8" s="4"/>
-      <c r="CP8" s="14"/>
+      <c r="CP8" s="12"/>
       <c r="CQ8" s="3"/>
       <c r="CR8" s="3"/>
       <c r="CS8" s="4"/>
-      <c r="CT8" s="14"/>
+      <c r="CT8" s="12"/>
       <c r="CU8" s="3"/>
       <c r="CV8" s="3"/>
       <c r="CW8" s="4"/>
-      <c r="CX8" s="14"/>
+      <c r="CX8" s="12"/>
       <c r="CY8" s="3"/>
       <c r="CZ8" s="3"/>
       <c r="DA8" s="4"/>
-      <c r="DB8" s="14"/>
+      <c r="DB8" s="12"/>
       <c r="DC8" s="3"/>
       <c r="DD8" s="3"/>
       <c r="DE8" s="4"/>
-      <c r="DF8" s="14"/>
+      <c r="DF8" s="12"/>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="5">
         <v>5.0020000000006095E-4</v>
       </c>
@@ -8926,7 +8598,7 @@
       <c r="I9" s="6">
         <v>4.2920000000001802E-4</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="29">
         <f>AVERAGE(G9:I9)</f>
         <v>4.79900000000014E-4</v>
       </c>
@@ -8939,7 +8611,7 @@
       <c r="M9" s="6">
         <v>1.7048000000000601E-3</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="29">
         <f>AVERAGE(K9:M9)</f>
         <v>1.7423666666666765E-3</v>
       </c>
@@ -8952,7 +8624,7 @@
       <c r="Q9" s="6">
         <v>8.6317999999999603E-3</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="29">
         <f>AVERAGE(O9:Q9)</f>
         <v>8.9335666666666667E-3</v>
       </c>
@@ -8965,8 +8637,8 @@
       <c r="U9" s="6">
         <v>5.8336599999999898E-2</v>
       </c>
-      <c r="V9" s="37">
-        <f>AVERAGE(S9:U9)</f>
+      <c r="V9" s="29">
+        <f t="shared" si="0"/>
         <v>5.8896299999999902E-2</v>
       </c>
       <c r="W9" s="5">
@@ -8978,8 +8650,8 @@
       <c r="Y9" s="6">
         <v>0.54606789999999905</v>
       </c>
-      <c r="Z9" s="37">
-        <f>AVERAGE(W9:Y9)</f>
+      <c r="Z9" s="29">
+        <f t="shared" si="1"/>
         <v>0.54356306666666632</v>
       </c>
       <c r="AA9" s="5">
@@ -8991,8 +8663,8 @@
       <c r="AC9" s="6">
         <v>5.9757831000000001</v>
       </c>
-      <c r="AD9" s="37">
-        <f>AVERAGE(AA9:AC9)</f>
+      <c r="AD9" s="29">
+        <f t="shared" si="2"/>
         <v>5.8401685666666632</v>
       </c>
       <c r="AE9" s="5">
@@ -9004,8 +8676,8 @@
       <c r="AG9" s="6">
         <v>64.688005099999998</v>
       </c>
-      <c r="AH9" s="37">
-        <f>AVERAGE(AE9:AG9)</f>
+      <c r="AH9" s="29">
+        <f t="shared" si="3"/>
         <v>65.022226133333334</v>
       </c>
       <c r="AI9" s="5">
@@ -9013,132 +8685,132 @@
       </c>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="37">
-        <f>AVERAGE(AI9:AK9)</f>
+      <c r="AL9" s="29">
+        <f t="shared" si="4"/>
         <v>941.21151220000002</v>
       </c>
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
       <c r="AO9" s="6"/>
-      <c r="AP9" s="37" t="e">
-        <f>AVERAGE(AM9:AO9)</f>
+      <c r="AP9" s="29" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="6"/>
-      <c r="AT9" s="37" t="e">
-        <f>AVERAGE(AQ9:AS9)</f>
+      <c r="AT9" s="29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU9" s="5"/>
       <c r="AV9" s="5"/>
       <c r="AW9" s="6"/>
-      <c r="AX9" s="37" t="e">
-        <f>AVERAGE(AU9:AW9)</f>
+      <c r="AX9" s="29" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY9" s="5"/>
       <c r="AZ9" s="5"/>
       <c r="BA9" s="6"/>
-      <c r="BB9" s="37" t="e">
-        <f>AVERAGE(AY9:BA9)</f>
+      <c r="BB9" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC9" s="5"/>
       <c r="BD9" s="5"/>
       <c r="BE9" s="6"/>
-      <c r="BF9" s="37" t="e">
-        <f>AVERAGE(BC9:BE9)</f>
+      <c r="BF9" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG9" s="5"/>
       <c r="BH9" s="5"/>
       <c r="BI9" s="6"/>
-      <c r="BJ9" s="37" t="e">
-        <f>AVERAGE(BG9:BI9)</f>
+      <c r="BJ9" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BM9" s="6"/>
-      <c r="BN9" s="37" t="e">
-        <f>AVERAGE(BK9:BM9)</f>
+      <c r="BN9" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO9" s="5"/>
       <c r="BP9" s="5"/>
       <c r="BQ9" s="6"/>
-      <c r="BR9" s="37" t="e">
-        <f>AVERAGE(BO9:BQ9)</f>
+      <c r="BR9" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS9" s="5"/>
       <c r="BT9" s="5"/>
       <c r="BU9" s="6"/>
-      <c r="BV9" s="37" t="e">
-        <f>AVERAGE(BS9:BU9)</f>
+      <c r="BV9" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW9" s="5"/>
       <c r="BX9" s="5"/>
       <c r="BY9" s="6"/>
-      <c r="BZ9" s="37" t="e">
-        <f>AVERAGE(BW9:BY9)</f>
+      <c r="BZ9" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA9" s="5"/>
       <c r="CB9" s="5"/>
       <c r="CC9" s="6"/>
-      <c r="CD9" s="37" t="e">
-        <f>AVERAGE(CA9:CC9)</f>
+      <c r="CD9" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE9" s="5"/>
       <c r="CF9" s="5"/>
       <c r="CG9" s="6"/>
-      <c r="CH9" s="37" t="e">
-        <f>AVERAGE(CE9:CG9)</f>
+      <c r="CH9" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI9" s="5"/>
       <c r="CJ9" s="5"/>
       <c r="CK9" s="6"/>
-      <c r="CL9" s="15"/>
+      <c r="CL9" s="13"/>
       <c r="CM9" s="5"/>
       <c r="CN9" s="5"/>
       <c r="CO9" s="6"/>
-      <c r="CP9" s="15"/>
+      <c r="CP9" s="13"/>
       <c r="CQ9" s="5"/>
       <c r="CR9" s="5"/>
       <c r="CS9" s="6"/>
-      <c r="CT9" s="15"/>
+      <c r="CT9" s="13"/>
       <c r="CU9" s="5"/>
       <c r="CV9" s="5"/>
       <c r="CW9" s="6"/>
-      <c r="CX9" s="15"/>
+      <c r="CX9" s="13"/>
       <c r="CY9" s="5"/>
       <c r="CZ9" s="5"/>
       <c r="DA9" s="6"/>
-      <c r="DB9" s="15"/>
+      <c r="DB9" s="13"/>
       <c r="DC9" s="5"/>
       <c r="DD9" s="5"/>
       <c r="DE9" s="6"/>
-      <c r="DF9" s="15"/>
+      <c r="DF9" s="13"/>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="39"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="5">
         <v>1.9680699999999898E-2</v>
       </c>
@@ -9148,7 +8820,7 @@
       <c r="M10" s="6">
         <v>2.9576399999999999E-2</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="29">
         <f>AVERAGE(K10:M10)</f>
         <v>2.2220333333333269E-2</v>
       </c>
@@ -9161,7 +8833,7 @@
       <c r="Q10" s="6">
         <v>0.3521241</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="29">
         <f>AVERAGE(O10:Q10)</f>
         <v>0.357603333333333</v>
       </c>
@@ -9174,8 +8846,8 @@
       <c r="U10" s="6">
         <v>8.1411528000000004</v>
       </c>
-      <c r="V10" s="37">
-        <f>AVERAGE(S10:U10)</f>
+      <c r="V10" s="29">
+        <f t="shared" si="0"/>
         <v>8.2163553999999994</v>
       </c>
       <c r="W10" s="5">
@@ -9187,157 +8859,157 @@
       <c r="Y10" s="6">
         <v>306.14584730000001</v>
       </c>
-      <c r="Z10" s="37">
-        <f>AVERAGE(W10:Y10)</f>
+      <c r="Z10" s="29">
+        <f t="shared" si="1"/>
         <v>295.93232576666668</v>
       </c>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="37" t="e">
-        <f>AVERAGE(AA10:AC10)</f>
+      <c r="AD10" s="29" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="6"/>
-      <c r="AH10" s="37" t="e">
-        <f>AVERAGE(AE10:AG10)</f>
+      <c r="AH10" s="29" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="6"/>
-      <c r="AL10" s="37" t="e">
-        <f>AVERAGE(AI10:AK10)</f>
+      <c r="AL10" s="29" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
       <c r="AO10" s="6"/>
-      <c r="AP10" s="37" t="e">
-        <f>AVERAGE(AM10:AO10)</f>
+      <c r="AP10" s="29" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
       <c r="AS10" s="6"/>
-      <c r="AT10" s="37" t="e">
-        <f>AVERAGE(AQ10:AS10)</f>
+      <c r="AT10" s="29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU10" s="5"/>
       <c r="AV10" s="5"/>
       <c r="AW10" s="6"/>
-      <c r="AX10" s="37" t="e">
-        <f>AVERAGE(AU10:AW10)</f>
+      <c r="AX10" s="29" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY10" s="5"/>
       <c r="AZ10" s="5"/>
       <c r="BA10" s="6"/>
-      <c r="BB10" s="37" t="e">
-        <f>AVERAGE(AY10:BA10)</f>
+      <c r="BB10" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC10" s="5"/>
       <c r="BD10" s="5"/>
       <c r="BE10" s="6"/>
-      <c r="BF10" s="37" t="e">
-        <f>AVERAGE(BC10:BE10)</f>
+      <c r="BF10" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG10" s="5"/>
       <c r="BH10" s="5"/>
       <c r="BI10" s="6"/>
-      <c r="BJ10" s="37" t="e">
-        <f>AVERAGE(BG10:BI10)</f>
+      <c r="BJ10" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK10" s="5"/>
       <c r="BL10" s="5"/>
       <c r="BM10" s="6"/>
-      <c r="BN10" s="37" t="e">
-        <f>AVERAGE(BK10:BM10)</f>
+      <c r="BN10" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO10" s="5"/>
       <c r="BP10" s="5"/>
       <c r="BQ10" s="6"/>
-      <c r="BR10" s="37" t="e">
-        <f>AVERAGE(BO10:BQ10)</f>
+      <c r="BR10" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS10" s="5"/>
       <c r="BT10" s="5"/>
       <c r="BU10" s="6"/>
-      <c r="BV10" s="37" t="e">
-        <f>AVERAGE(BS10:BU10)</f>
+      <c r="BV10" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW10" s="5"/>
       <c r="BX10" s="5"/>
       <c r="BY10" s="6"/>
-      <c r="BZ10" s="37" t="e">
-        <f>AVERAGE(BW10:BY10)</f>
+      <c r="BZ10" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA10" s="5"/>
       <c r="CB10" s="5"/>
       <c r="CC10" s="6"/>
-      <c r="CD10" s="37" t="e">
-        <f>AVERAGE(CA10:CC10)</f>
+      <c r="CD10" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE10" s="5"/>
       <c r="CF10" s="5"/>
       <c r="CG10" s="6"/>
-      <c r="CH10" s="37" t="e">
-        <f>AVERAGE(CE10:CG10)</f>
+      <c r="CH10" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI10" s="5"/>
       <c r="CJ10" s="5"/>
       <c r="CK10" s="6"/>
-      <c r="CL10" s="15"/>
+      <c r="CL10" s="13"/>
       <c r="CM10" s="5"/>
       <c r="CN10" s="5"/>
       <c r="CO10" s="6"/>
-      <c r="CP10" s="15"/>
+      <c r="CP10" s="13"/>
       <c r="CQ10" s="5"/>
       <c r="CR10" s="5"/>
       <c r="CS10" s="6"/>
-      <c r="CT10" s="15"/>
+      <c r="CT10" s="13"/>
       <c r="CU10" s="5"/>
       <c r="CV10" s="5"/>
       <c r="CW10" s="6"/>
-      <c r="CX10" s="15"/>
+      <c r="CX10" s="13"/>
       <c r="CY10" s="5"/>
       <c r="CZ10" s="5"/>
       <c r="DA10" s="6"/>
-      <c r="DB10" s="15"/>
+      <c r="DB10" s="13"/>
       <c r="DC10" s="5"/>
       <c r="DD10" s="5"/>
       <c r="DE10" s="6"/>
-      <c r="DF10" s="15"/>
+      <c r="DF10" s="13"/>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="39"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="31"/>
       <c r="O11" s="5">
         <v>24.125190699999902</v>
       </c>
@@ -9347,321 +9019,321 @@
       <c r="Q11" s="6">
         <v>24.2371628</v>
       </c>
-      <c r="R11" s="37">
+      <c r="R11" s="29">
         <f>AVERAGE(O11:Q11)</f>
         <v>23.863800433333299</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="37" t="e">
-        <f>AVERAGE(S11:U11)</f>
+      <c r="V11" s="29" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="37" t="e">
-        <f>AVERAGE(W11:Y11)</f>
+      <c r="Z11" s="29" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="37" t="e">
-        <f>AVERAGE(AA11:AC11)</f>
+      <c r="AD11" s="29" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="6"/>
-      <c r="AH11" s="37" t="e">
-        <f>AVERAGE(AE11:AG11)</f>
+      <c r="AH11" s="29" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="37" t="e">
-        <f>AVERAGE(AI11:AK11)</f>
+      <c r="AL11" s="29" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
       <c r="AO11" s="6"/>
-      <c r="AP11" s="37" t="e">
-        <f>AVERAGE(AM11:AO11)</f>
+      <c r="AP11" s="29" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AS11" s="6"/>
-      <c r="AT11" s="37" t="e">
-        <f>AVERAGE(AQ11:AS11)</f>
+      <c r="AT11" s="29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU11" s="5"/>
       <c r="AV11" s="5"/>
       <c r="AW11" s="6"/>
-      <c r="AX11" s="37" t="e">
-        <f>AVERAGE(AU11:AW11)</f>
+      <c r="AX11" s="29" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY11" s="5"/>
       <c r="AZ11" s="5"/>
       <c r="BA11" s="6"/>
-      <c r="BB11" s="37" t="e">
-        <f>AVERAGE(AY11:BA11)</f>
+      <c r="BB11" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC11" s="5"/>
       <c r="BD11" s="5"/>
       <c r="BE11" s="6"/>
-      <c r="BF11" s="37" t="e">
-        <f>AVERAGE(BC11:BE11)</f>
+      <c r="BF11" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG11" s="5"/>
       <c r="BH11" s="5"/>
       <c r="BI11" s="6"/>
-      <c r="BJ11" s="37" t="e">
-        <f>AVERAGE(BG11:BI11)</f>
+      <c r="BJ11" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="6"/>
-      <c r="BN11" s="37" t="e">
-        <f>AVERAGE(BK11:BM11)</f>
+      <c r="BN11" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO11" s="5"/>
       <c r="BP11" s="5"/>
       <c r="BQ11" s="6"/>
-      <c r="BR11" s="37" t="e">
-        <f>AVERAGE(BO11:BQ11)</f>
+      <c r="BR11" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS11" s="5"/>
       <c r="BT11" s="5"/>
       <c r="BU11" s="6"/>
-      <c r="BV11" s="37" t="e">
-        <f>AVERAGE(BS11:BU11)</f>
+      <c r="BV11" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW11" s="5"/>
       <c r="BX11" s="5"/>
       <c r="BY11" s="6"/>
-      <c r="BZ11" s="37" t="e">
-        <f>AVERAGE(BW11:BY11)</f>
+      <c r="BZ11" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA11" s="5"/>
       <c r="CB11" s="5"/>
       <c r="CC11" s="6"/>
-      <c r="CD11" s="37" t="e">
-        <f>AVERAGE(CA11:CC11)</f>
+      <c r="CD11" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE11" s="5"/>
       <c r="CF11" s="5"/>
       <c r="CG11" s="6"/>
-      <c r="CH11" s="37" t="e">
-        <f>AVERAGE(CE11:CG11)</f>
+      <c r="CH11" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI11" s="5"/>
       <c r="CJ11" s="5"/>
       <c r="CK11" s="6"/>
-      <c r="CL11" s="15"/>
+      <c r="CL11" s="13"/>
       <c r="CM11" s="5"/>
       <c r="CN11" s="5"/>
       <c r="CO11" s="6"/>
-      <c r="CP11" s="15"/>
+      <c r="CP11" s="13"/>
       <c r="CQ11" s="5"/>
       <c r="CR11" s="5"/>
       <c r="CS11" s="6"/>
-      <c r="CT11" s="15"/>
+      <c r="CT11" s="13"/>
       <c r="CU11" s="5"/>
       <c r="CV11" s="5"/>
       <c r="CW11" s="6"/>
-      <c r="CX11" s="15"/>
+      <c r="CX11" s="13"/>
       <c r="CY11" s="5"/>
       <c r="CZ11" s="5"/>
       <c r="DA11" s="6"/>
-      <c r="DB11" s="15"/>
+      <c r="DB11" s="13"/>
       <c r="DC11" s="5"/>
       <c r="DD11" s="5"/>
       <c r="DE11" s="6"/>
-      <c r="DF11" s="15"/>
+      <c r="DF11" s="13"/>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="38"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="30"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="37" t="e">
-        <f>AVERAGE(S12:U12)</f>
+      <c r="V12" s="29" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="8"/>
-      <c r="Z12" s="37" t="e">
-        <f>AVERAGE(W12:Y12)</f>
+      <c r="Z12" s="29" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="37" t="e">
-        <f>AVERAGE(AA12:AC12)</f>
+      <c r="AD12" s="29" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="8"/>
-      <c r="AH12" s="37" t="e">
-        <f>AVERAGE(AE12:AG12)</f>
+      <c r="AH12" s="29" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="37" t="e">
-        <f>AVERAGE(AI12:AK12)</f>
+      <c r="AL12" s="29" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="8"/>
-      <c r="AP12" s="37" t="e">
-        <f>AVERAGE(AM12:AO12)</f>
+      <c r="AP12" s="29" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="8"/>
-      <c r="AT12" s="37" t="e">
-        <f>AVERAGE(AQ12:AS12)</f>
+      <c r="AT12" s="29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="8"/>
-      <c r="AX12" s="37" t="e">
-        <f>AVERAGE(AU12:AW12)</f>
+      <c r="AX12" s="29" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
       <c r="BA12" s="8"/>
-      <c r="BB12" s="37" t="e">
-        <f>AVERAGE(AY12:BA12)</f>
+      <c r="BB12" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
       <c r="BE12" s="8"/>
-      <c r="BF12" s="37" t="e">
-        <f>AVERAGE(BC12:BE12)</f>
+      <c r="BF12" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG12" s="7"/>
       <c r="BH12" s="7"/>
       <c r="BI12" s="8"/>
-      <c r="BJ12" s="37" t="e">
-        <f>AVERAGE(BG12:BI12)</f>
+      <c r="BJ12" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="8"/>
-      <c r="BN12" s="37" t="e">
-        <f>AVERAGE(BK12:BM12)</f>
+      <c r="BN12" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO12" s="7"/>
       <c r="BP12" s="7"/>
       <c r="BQ12" s="8"/>
-      <c r="BR12" s="37" t="e">
-        <f>AVERAGE(BO12:BQ12)</f>
+      <c r="BR12" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS12" s="7"/>
       <c r="BT12" s="7"/>
       <c r="BU12" s="8"/>
-      <c r="BV12" s="37" t="e">
-        <f>AVERAGE(BS12:BU12)</f>
+      <c r="BV12" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW12" s="7"/>
       <c r="BX12" s="7"/>
       <c r="BY12" s="8"/>
-      <c r="BZ12" s="37" t="e">
-        <f>AVERAGE(BW12:BY12)</f>
+      <c r="BZ12" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA12" s="7"/>
       <c r="CB12" s="7"/>
       <c r="CC12" s="8"/>
-      <c r="CD12" s="37" t="e">
-        <f>AVERAGE(CA12:CC12)</f>
+      <c r="CD12" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE12" s="7"/>
       <c r="CF12" s="7"/>
       <c r="CG12" s="8"/>
-      <c r="CH12" s="37" t="e">
-        <f>AVERAGE(CE12:CG12)</f>
+      <c r="CH12" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI12" s="7"/>
       <c r="CJ12" s="7"/>
       <c r="CK12" s="8"/>
-      <c r="CL12" s="16"/>
+      <c r="CL12" s="14"/>
       <c r="CM12" s="7"/>
       <c r="CN12" s="7"/>
       <c r="CO12" s="8"/>
-      <c r="CP12" s="16"/>
+      <c r="CP12" s="14"/>
       <c r="CQ12" s="7"/>
       <c r="CR12" s="7"/>
       <c r="CS12" s="8"/>
-      <c r="CT12" s="16"/>
+      <c r="CT12" s="14"/>
       <c r="CU12" s="7"/>
       <c r="CV12" s="7"/>
       <c r="CW12" s="8"/>
-      <c r="CX12" s="16"/>
+      <c r="CX12" s="14"/>
       <c r="CY12" s="7"/>
       <c r="CZ12" s="7"/>
       <c r="DA12" s="8"/>
-      <c r="DB12" s="16"/>
+      <c r="DB12" s="14"/>
       <c r="DC12" s="7"/>
       <c r="DD12" s="7"/>
       <c r="DE12" s="8"/>
-      <c r="DF12" s="16"/>
+      <c r="DF12" s="14"/>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1">
@@ -9676,7 +9348,7 @@
       <c r="E13" s="4">
         <v>2.0640000000005099E-4</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <f>AVERAGE(C13:E13)</f>
         <v>2.0686666666669366E-4</v>
       </c>
@@ -9689,7 +9361,7 @@
       <c r="I13" s="4">
         <v>4.18899999999666E-4</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="29">
         <f>AVERAGE(G13:I13)</f>
         <v>2.9906666666660637E-4</v>
       </c>
@@ -9702,7 +9374,7 @@
       <c r="M13" s="4">
         <v>5.7600000000013196E-4</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="29">
         <f>AVERAGE(K13:M13)</f>
         <v>6.299000000001459E-4</v>
       </c>
@@ -9715,7 +9387,7 @@
       <c r="Q13" s="4">
         <v>9.9059999999995198E-4</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="29">
         <f>AVERAGE(O13:Q13)</f>
         <v>1.0672000000000439E-3</v>
       </c>
@@ -9728,8 +9400,8 @@
       <c r="U13" s="4">
         <v>2.0910999999999001E-3</v>
       </c>
-      <c r="V13" s="37">
-        <f>AVERAGE(S13:U13)</f>
+      <c r="V13" s="29">
+        <f t="shared" si="0"/>
         <v>2.8017999999999967E-3</v>
       </c>
       <c r="W13" s="3">
@@ -9741,8 +9413,8 @@
       <c r="Y13" s="4">
         <v>4.6891999999999403E-3</v>
       </c>
-      <c r="Z13" s="37">
-        <f>AVERAGE(W13:Y13)</f>
+      <c r="Z13" s="29">
+        <f t="shared" si="1"/>
         <v>5.0592666666666305E-3</v>
       </c>
       <c r="AA13" s="3">
@@ -9754,8 +9426,8 @@
       <c r="AC13" s="4">
         <v>1.2955700000000001E-2</v>
       </c>
-      <c r="AD13" s="37">
-        <f>AVERAGE(AA13:AC13)</f>
+      <c r="AD13" s="29">
+        <f t="shared" si="2"/>
         <v>1.4957433333333299E-2</v>
       </c>
       <c r="AE13" s="3">
@@ -9767,8 +9439,8 @@
       <c r="AG13" s="4">
         <v>2.7337500000000198E-2</v>
       </c>
-      <c r="AH13" s="37">
-        <f>AVERAGE(AE13:AG13)</f>
+      <c r="AH13" s="29">
+        <f t="shared" si="3"/>
         <v>2.7703166666666598E-2</v>
       </c>
       <c r="AI13" s="3">
@@ -9780,8 +9452,8 @@
       <c r="AK13" s="4">
         <v>8.5858799999999999E-2</v>
       </c>
-      <c r="AL13" s="37">
-        <f>AVERAGE(AI13:AK13)</f>
+      <c r="AL13" s="29">
+        <f t="shared" si="4"/>
         <v>8.1548000000000009E-2</v>
       </c>
       <c r="AM13" s="3">
@@ -9793,8 +9465,8 @@
       <c r="AO13" s="4">
         <v>0.234510999999999</v>
       </c>
-      <c r="AP13" s="37">
-        <f>AVERAGE(AM13:AO13)</f>
+      <c r="AP13" s="29">
+        <f t="shared" si="5"/>
         <v>0.23350689999999899</v>
       </c>
       <c r="AQ13" s="3">
@@ -9806,8 +9478,8 @@
       <c r="AS13" s="4">
         <v>0.80799399999999899</v>
       </c>
-      <c r="AT13" s="37">
-        <f>AVERAGE(AQ13:AS13)</f>
+      <c r="AT13" s="29">
+        <f t="shared" si="6"/>
         <v>0.81881753333333263</v>
       </c>
       <c r="AU13" s="3">
@@ -9819,8 +9491,8 @@
       <c r="AW13" s="4">
         <v>3.84443149999999</v>
       </c>
-      <c r="AX13" s="37">
-        <f>AVERAGE(AU13:AW13)</f>
+      <c r="AX13" s="29">
+        <f t="shared" si="7"/>
         <v>3.6568906666666634</v>
       </c>
       <c r="AY13" s="3">
@@ -9832,8 +9504,8 @@
       <c r="BA13" s="4">
         <v>14.3022732999999</v>
       </c>
-      <c r="BB13" s="37">
-        <f>AVERAGE(AY13:BA13)</f>
+      <c r="BB13" s="29">
+        <f t="shared" si="8"/>
         <v>14.158216566666601</v>
       </c>
       <c r="BC13" s="5">
@@ -9845,8 +9517,8 @@
       <c r="BE13" s="4">
         <v>61.840815899999903</v>
       </c>
-      <c r="BF13" s="37">
-        <f>AVERAGE(BC13:BE13)</f>
+      <c r="BF13" s="29">
+        <f t="shared" si="9"/>
         <v>60.188196166666636</v>
       </c>
       <c r="BG13" s="3">
@@ -9858,86 +9530,86 @@
       <c r="BI13" s="4">
         <v>264.79604029999899</v>
       </c>
-      <c r="BJ13" s="37">
-        <f>AVERAGE(BG13:BI13)</f>
+      <c r="BJ13" s="29">
+        <f t="shared" si="10"/>
         <v>266.19534633333268</v>
       </c>
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
       <c r="BM13" s="4"/>
-      <c r="BN13" s="37" t="e">
-        <f>AVERAGE(BK13:BM13)</f>
+      <c r="BN13" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO13" s="3"/>
       <c r="BP13" s="3"/>
       <c r="BQ13" s="4"/>
-      <c r="BR13" s="37" t="e">
-        <f>AVERAGE(BO13:BQ13)</f>
+      <c r="BR13" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS13" s="3"/>
       <c r="BT13" s="3"/>
       <c r="BU13" s="4"/>
-      <c r="BV13" s="37" t="e">
-        <f>AVERAGE(BS13:BU13)</f>
+      <c r="BV13" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW13" s="3"/>
       <c r="BX13" s="3"/>
       <c r="BY13" s="4"/>
-      <c r="BZ13" s="37" t="e">
-        <f>AVERAGE(BW13:BY13)</f>
+      <c r="BZ13" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA13" s="3"/>
       <c r="CB13" s="3"/>
       <c r="CC13" s="4"/>
-      <c r="CD13" s="37" t="e">
-        <f>AVERAGE(CA13:CC13)</f>
+      <c r="CD13" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE13" s="3"/>
       <c r="CF13" s="3"/>
       <c r="CG13" s="4"/>
-      <c r="CH13" s="37" t="e">
-        <f>AVERAGE(CE13:CG13)</f>
+      <c r="CH13" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI13" s="3"/>
       <c r="CJ13" s="3"/>
       <c r="CK13" s="4"/>
-      <c r="CL13" s="17"/>
+      <c r="CL13" s="15"/>
       <c r="CM13" s="3"/>
       <c r="CN13" s="3"/>
       <c r="CO13" s="4"/>
-      <c r="CP13" s="17"/>
+      <c r="CP13" s="15"/>
       <c r="CQ13" s="3"/>
       <c r="CR13" s="3"/>
       <c r="CS13" s="4"/>
-      <c r="CT13" s="17"/>
+      <c r="CT13" s="15"/>
       <c r="CU13" s="3"/>
       <c r="CV13" s="3"/>
       <c r="CW13" s="4"/>
-      <c r="CX13" s="17"/>
+      <c r="CX13" s="15"/>
       <c r="CY13" s="3"/>
       <c r="CZ13" s="3"/>
       <c r="DA13" s="4"/>
-      <c r="DB13" s="17"/>
+      <c r="DB13" s="15"/>
       <c r="DC13" s="3"/>
       <c r="DD13" s="3"/>
       <c r="DE13" s="4"/>
-      <c r="DF13" s="17"/>
+      <c r="DF13" s="15"/>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="5">
         <v>9.3969999999998701E-4</v>
       </c>
@@ -9947,7 +9619,7 @@
       <c r="I14" s="6">
         <v>8.7490000000001102E-4</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="29">
         <f>AVERAGE(G14:I14)</f>
         <v>8.8486666666664961E-4</v>
       </c>
@@ -9960,7 +9632,7 @@
       <c r="M14" s="6">
         <v>2.0459999999999901E-3</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="29">
         <f>AVERAGE(K14:M14)</f>
         <v>2.2325000000000036E-3</v>
       </c>
@@ -9973,7 +9645,7 @@
       <c r="Q14" s="6">
         <v>6.5541000000000002E-3</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="29">
         <f>AVERAGE(O14:Q14)</f>
         <v>5.7165000000000063E-3</v>
       </c>
@@ -9986,8 +9658,8 @@
       <c r="U14" s="6">
         <v>2.7502499999999899E-2</v>
       </c>
-      <c r="V14" s="37">
-        <f>AVERAGE(S14:U14)</f>
+      <c r="V14" s="29">
+        <f t="shared" si="0"/>
         <v>2.7487233333333236E-2</v>
       </c>
       <c r="W14" s="5">
@@ -9999,8 +9671,8 @@
       <c r="Y14" s="6">
         <v>0.1393558</v>
       </c>
-      <c r="Z14" s="37">
-        <f>AVERAGE(W14:Y14)</f>
+      <c r="Z14" s="29">
+        <f t="shared" si="1"/>
         <v>0.139901733333333</v>
       </c>
       <c r="AA14" s="5">
@@ -10012,8 +9684,8 @@
       <c r="AC14" s="6">
         <v>1.1298878000000001</v>
       </c>
-      <c r="AD14" s="37">
-        <f>AVERAGE(AA14:AC14)</f>
+      <c r="AD14" s="29">
+        <f t="shared" si="2"/>
         <v>1.1381403999999968</v>
       </c>
       <c r="AE14" s="5">
@@ -10025,8 +9697,8 @@
       <c r="AG14" s="6">
         <v>10.7181149999999</v>
       </c>
-      <c r="AH14" s="37">
-        <f>AVERAGE(AE14:AG14)</f>
+      <c r="AH14" s="29">
+        <f t="shared" si="3"/>
         <v>10.402950566666632</v>
       </c>
       <c r="AI14" s="5">
@@ -10038,131 +9710,131 @@
       <c r="AK14" s="6">
         <v>106.93552849999899</v>
       </c>
-      <c r="AL14" s="37">
-        <f>AVERAGE(AI14:AK14)</f>
+      <c r="AL14" s="29">
+        <f t="shared" si="4"/>
         <v>106.166562633333</v>
       </c>
       <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
       <c r="AO14" s="6"/>
-      <c r="AP14" s="37" t="e">
-        <f>AVERAGE(AM14:AO14)</f>
+      <c r="AP14" s="29" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
       <c r="AS14" s="6"/>
-      <c r="AT14" s="37" t="e">
-        <f>AVERAGE(AQ14:AS14)</f>
+      <c r="AT14" s="29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU14" s="5"/>
       <c r="AV14" s="5"/>
       <c r="AW14" s="6"/>
-      <c r="AX14" s="37" t="e">
-        <f>AVERAGE(AU14:AW14)</f>
+      <c r="AX14" s="29" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY14" s="5"/>
       <c r="AZ14" s="5"/>
       <c r="BA14" s="6"/>
-      <c r="BB14" s="37" t="e">
-        <f>AVERAGE(AY14:BA14)</f>
+      <c r="BB14" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD14" s="5"/>
       <c r="BE14" s="6"/>
-      <c r="BF14" s="37" t="e">
-        <f>AVERAGE(BC14:BE14)</f>
+      <c r="BF14" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG14" s="5"/>
       <c r="BH14" s="5"/>
       <c r="BI14" s="6"/>
-      <c r="BJ14" s="37" t="e">
-        <f>AVERAGE(BG14:BI14)</f>
+      <c r="BJ14" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK14" s="5"/>
       <c r="BL14" s="5"/>
       <c r="BM14" s="6"/>
-      <c r="BN14" s="37" t="e">
-        <f>AVERAGE(BK14:BM14)</f>
+      <c r="BN14" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO14" s="5"/>
       <c r="BP14" s="5"/>
       <c r="BQ14" s="6"/>
-      <c r="BR14" s="37" t="e">
-        <f>AVERAGE(BO14:BQ14)</f>
+      <c r="BR14" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS14" s="5"/>
       <c r="BT14" s="5"/>
       <c r="BU14" s="6"/>
-      <c r="BV14" s="37" t="e">
-        <f>AVERAGE(BS14:BU14)</f>
+      <c r="BV14" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW14" s="5"/>
       <c r="BX14" s="5"/>
       <c r="BY14" s="6"/>
-      <c r="BZ14" s="37" t="e">
-        <f>AVERAGE(BW14:BY14)</f>
+      <c r="BZ14" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA14" s="5"/>
       <c r="CB14" s="5"/>
       <c r="CC14" s="6"/>
-      <c r="CD14" s="37" t="e">
-        <f>AVERAGE(CA14:CC14)</f>
+      <c r="CD14" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE14" s="5"/>
       <c r="CF14" s="5"/>
       <c r="CG14" s="6"/>
-      <c r="CH14" s="37" t="e">
-        <f>AVERAGE(CE14:CG14)</f>
+      <c r="CH14" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI14" s="5"/>
       <c r="CJ14" s="5"/>
       <c r="CK14" s="6"/>
-      <c r="CL14" s="15"/>
+      <c r="CL14" s="13"/>
       <c r="CM14" s="5"/>
       <c r="CN14" s="5"/>
       <c r="CO14" s="6"/>
-      <c r="CP14" s="15"/>
+      <c r="CP14" s="13"/>
       <c r="CQ14" s="5"/>
       <c r="CR14" s="5"/>
       <c r="CS14" s="6"/>
-      <c r="CT14" s="15"/>
+      <c r="CT14" s="13"/>
       <c r="CU14" s="5"/>
       <c r="CV14" s="5"/>
       <c r="CW14" s="6"/>
-      <c r="CX14" s="15"/>
+      <c r="CX14" s="13"/>
       <c r="CY14" s="5"/>
       <c r="CZ14" s="5"/>
       <c r="DA14" s="6"/>
-      <c r="DB14" s="15"/>
+      <c r="DB14" s="13"/>
       <c r="DC14" s="5"/>
       <c r="DD14" s="5"/>
       <c r="DE14" s="6"/>
-      <c r="DF14" s="15"/>
+      <c r="DF14" s="13"/>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="39"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="5">
         <v>1.41667999999999E-2</v>
       </c>
@@ -10172,7 +9844,7 @@
       <c r="M15" s="6">
         <v>1.51691E-2</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="29">
         <f>AVERAGE(K15:M15)</f>
         <v>1.4741366666666632E-2</v>
       </c>
@@ -10185,7 +9857,7 @@
       <c r="Q15" s="6">
         <v>0.12806089999999901</v>
       </c>
-      <c r="R15" s="37">
+      <c r="R15" s="29">
         <f>AVERAGE(O15:Q15)</f>
         <v>0.119860866666666</v>
       </c>
@@ -10198,8 +9870,8 @@
       <c r="U15" s="6">
         <v>1.76530979999999</v>
       </c>
-      <c r="V15" s="37">
-        <f>AVERAGE(S15:U15)</f>
+      <c r="V15" s="29">
+        <f t="shared" si="0"/>
         <v>1.81055723333333</v>
       </c>
       <c r="W15" s="5">
@@ -10211,157 +9883,157 @@
       <c r="Y15" s="6">
         <v>41.473571999999997</v>
       </c>
-      <c r="Z15" s="37">
-        <f>AVERAGE(W15:Y15)</f>
+      <c r="Z15" s="29">
+        <f t="shared" si="1"/>
         <v>42.341274499999997</v>
       </c>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="37" t="e">
-        <f>AVERAGE(AA15:AC15)</f>
+      <c r="AD15" s="29" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="6"/>
-      <c r="AH15" s="37" t="e">
-        <f>AVERAGE(AE15:AG15)</f>
+      <c r="AH15" s="29" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="37" t="e">
-        <f>AVERAGE(AI15:AK15)</f>
+      <c r="AL15" s="29" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
       <c r="AO15" s="6"/>
-      <c r="AP15" s="37" t="e">
-        <f>AVERAGE(AM15:AO15)</f>
+      <c r="AP15" s="29" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
       <c r="AS15" s="6"/>
-      <c r="AT15" s="37" t="e">
-        <f>AVERAGE(AQ15:AS15)</f>
+      <c r="AT15" s="29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU15" s="5"/>
       <c r="AV15" s="5"/>
       <c r="AW15" s="6"/>
-      <c r="AX15" s="37" t="e">
-        <f>AVERAGE(AU15:AW15)</f>
+      <c r="AX15" s="29" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY15" s="5"/>
       <c r="AZ15" s="5"/>
       <c r="BA15" s="6"/>
-      <c r="BB15" s="37" t="e">
-        <f>AVERAGE(AY15:BA15)</f>
+      <c r="BB15" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC15" s="5"/>
       <c r="BD15" s="5"/>
       <c r="BE15" s="6"/>
-      <c r="BF15" s="37" t="e">
-        <f>AVERAGE(BC15:BE15)</f>
+      <c r="BF15" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG15" s="5"/>
       <c r="BH15" s="5"/>
       <c r="BI15" s="6"/>
-      <c r="BJ15" s="37" t="e">
-        <f>AVERAGE(BG15:BI15)</f>
+      <c r="BJ15" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK15" s="5"/>
       <c r="BL15" s="5"/>
       <c r="BM15" s="6"/>
-      <c r="BN15" s="37" t="e">
-        <f>AVERAGE(BK15:BM15)</f>
+      <c r="BN15" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO15" s="5"/>
       <c r="BP15" s="5"/>
       <c r="BQ15" s="6"/>
-      <c r="BR15" s="37" t="e">
-        <f>AVERAGE(BO15:BQ15)</f>
+      <c r="BR15" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS15" s="5"/>
       <c r="BT15" s="5"/>
       <c r="BU15" s="6"/>
-      <c r="BV15" s="37" t="e">
-        <f>AVERAGE(BS15:BU15)</f>
+      <c r="BV15" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW15" s="5"/>
       <c r="BX15" s="5"/>
       <c r="BY15" s="6"/>
-      <c r="BZ15" s="37" t="e">
-        <f>AVERAGE(BW15:BY15)</f>
+      <c r="BZ15" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA15" s="5"/>
       <c r="CB15" s="5"/>
       <c r="CC15" s="6"/>
-      <c r="CD15" s="37" t="e">
-        <f>AVERAGE(CA15:CC15)</f>
+      <c r="CD15" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE15" s="5"/>
       <c r="CF15" s="5"/>
       <c r="CG15" s="6"/>
-      <c r="CH15" s="37" t="e">
-        <f>AVERAGE(CE15:CG15)</f>
+      <c r="CH15" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI15" s="5"/>
       <c r="CJ15" s="5"/>
       <c r="CK15" s="6"/>
-      <c r="CL15" s="15"/>
+      <c r="CL15" s="13"/>
       <c r="CM15" s="5"/>
       <c r="CN15" s="5"/>
       <c r="CO15" s="6"/>
-      <c r="CP15" s="15"/>
+      <c r="CP15" s="13"/>
       <c r="CQ15" s="5"/>
       <c r="CR15" s="5"/>
       <c r="CS15" s="6"/>
-      <c r="CT15" s="15"/>
+      <c r="CT15" s="13"/>
       <c r="CU15" s="5"/>
       <c r="CV15" s="5"/>
       <c r="CW15" s="6"/>
-      <c r="CX15" s="15"/>
+      <c r="CX15" s="13"/>
       <c r="CY15" s="5"/>
       <c r="CZ15" s="5"/>
       <c r="DA15" s="6"/>
-      <c r="DB15" s="15"/>
+      <c r="DB15" s="13"/>
       <c r="DC15" s="5"/>
       <c r="DD15" s="5"/>
       <c r="DE15" s="6"/>
-      <c r="DF15" s="15"/>
+      <c r="DF15" s="13"/>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1">
         <v>4</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="39"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="5">
         <v>2.1477347</v>
       </c>
@@ -10371,7 +10043,7 @@
       <c r="Q16" s="6">
         <v>2.1792795999999899</v>
       </c>
-      <c r="R16" s="37">
+      <c r="R16" s="29">
         <f>AVERAGE(O16:Q16)</f>
         <v>2.1463821333333271</v>
       </c>
@@ -10384,329 +10056,324 @@
       <c r="U16" s="6">
         <v>282.1051794</v>
       </c>
-      <c r="V16" s="37">
-        <f>AVERAGE(S16:U16)</f>
+      <c r="V16" s="29">
+        <f t="shared" si="0"/>
         <v>283.10576306666633</v>
       </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="37" t="e">
-        <f>AVERAGE(W16:Y16)</f>
+      <c r="Z16" s="29" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="37" t="e">
-        <f>AVERAGE(AA16:AC16)</f>
+      <c r="AD16" s="29" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="6"/>
-      <c r="AH16" s="37" t="e">
-        <f>AVERAGE(AE16:AG16)</f>
+      <c r="AH16" s="29" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="37" t="e">
-        <f>AVERAGE(AI16:AK16)</f>
+      <c r="AL16" s="29" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
       <c r="AO16" s="6"/>
-      <c r="AP16" s="37" t="e">
-        <f>AVERAGE(AM16:AO16)</f>
+      <c r="AP16" s="29" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
       <c r="AS16" s="6"/>
-      <c r="AT16" s="37" t="e">
-        <f>AVERAGE(AQ16:AS16)</f>
+      <c r="AT16" s="29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU16" s="5"/>
       <c r="AV16" s="5"/>
       <c r="AW16" s="6"/>
-      <c r="AX16" s="37" t="e">
-        <f>AVERAGE(AU16:AW16)</f>
+      <c r="AX16" s="29" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY16" s="5"/>
       <c r="AZ16" s="5"/>
       <c r="BA16" s="6"/>
-      <c r="BB16" s="37" t="e">
-        <f>AVERAGE(AY16:BA16)</f>
+      <c r="BB16" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC16" s="5"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="6"/>
-      <c r="BF16" s="37" t="e">
-        <f>AVERAGE(BC16:BE16)</f>
+      <c r="BF16" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG16" s="5"/>
       <c r="BH16" s="5"/>
       <c r="BI16" s="6"/>
-      <c r="BJ16" s="37" t="e">
-        <f>AVERAGE(BG16:BI16)</f>
+      <c r="BJ16" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK16" s="5"/>
       <c r="BL16" s="5"/>
       <c r="BM16" s="6"/>
-      <c r="BN16" s="37" t="e">
-        <f>AVERAGE(BK16:BM16)</f>
+      <c r="BN16" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO16" s="5"/>
       <c r="BP16" s="5"/>
       <c r="BQ16" s="6"/>
-      <c r="BR16" s="37" t="e">
-        <f>AVERAGE(BO16:BQ16)</f>
+      <c r="BR16" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS16" s="5"/>
       <c r="BT16" s="5"/>
       <c r="BU16" s="6"/>
-      <c r="BV16" s="37" t="e">
-        <f>AVERAGE(BS16:BU16)</f>
+      <c r="BV16" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW16" s="5"/>
       <c r="BX16" s="5"/>
       <c r="BY16" s="6"/>
-      <c r="BZ16" s="37" t="e">
-        <f>AVERAGE(BW16:BY16)</f>
+      <c r="BZ16" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA16" s="5"/>
       <c r="CB16" s="5"/>
       <c r="CC16" s="6"/>
-      <c r="CD16" s="37" t="e">
-        <f>AVERAGE(CA16:CC16)</f>
+      <c r="CD16" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE16" s="5"/>
       <c r="CF16" s="5"/>
       <c r="CG16" s="6"/>
-      <c r="CH16" s="37" t="e">
-        <f>AVERAGE(CE16:CG16)</f>
+      <c r="CH16" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI16" s="5"/>
       <c r="CJ16" s="5"/>
       <c r="CK16" s="6"/>
-      <c r="CL16" s="15"/>
+      <c r="CL16" s="13"/>
       <c r="CM16" s="5"/>
       <c r="CN16" s="5"/>
       <c r="CO16" s="6"/>
-      <c r="CP16" s="15"/>
+      <c r="CP16" s="13"/>
       <c r="CQ16" s="5"/>
       <c r="CR16" s="5"/>
       <c r="CS16" s="6"/>
-      <c r="CT16" s="15"/>
+      <c r="CT16" s="13"/>
       <c r="CU16" s="5"/>
       <c r="CV16" s="5"/>
       <c r="CW16" s="6"/>
-      <c r="CX16" s="15"/>
+      <c r="CX16" s="13"/>
       <c r="CY16" s="5"/>
       <c r="CZ16" s="5"/>
       <c r="DA16" s="6"/>
-      <c r="DB16" s="15"/>
+      <c r="DB16" s="13"/>
       <c r="DC16" s="5"/>
       <c r="DD16" s="5"/>
       <c r="DE16" s="6"/>
-      <c r="DF16" s="15"/>
+      <c r="DF16" s="13"/>
     </row>
     <row r="17" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="38"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="30"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="8"/>
-      <c r="V17" s="37" t="e">
-        <f>AVERAGE(S17:U17)</f>
+      <c r="V17" s="29" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="8"/>
-      <c r="Z17" s="37" t="e">
-        <f>AVERAGE(W17:Y17)</f>
+      <c r="Z17" s="29" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="8"/>
-      <c r="AD17" s="37" t="e">
-        <f>AVERAGE(AA17:AC17)</f>
+      <c r="AD17" s="29" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="8"/>
-      <c r="AH17" s="37" t="e">
-        <f>AVERAGE(AE17:AG17)</f>
+      <c r="AH17" s="29" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="37" t="e">
-        <f>AVERAGE(AI17:AK17)</f>
+      <c r="AL17" s="29" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
       <c r="AO17" s="8"/>
-      <c r="AP17" s="37" t="e">
-        <f>AVERAGE(AM17:AO17)</f>
+      <c r="AP17" s="29" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ17" s="7"/>
       <c r="AR17" s="7"/>
       <c r="AS17" s="8"/>
-      <c r="AT17" s="37" t="e">
-        <f>AVERAGE(AQ17:AS17)</f>
+      <c r="AT17" s="29" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU17" s="7"/>
       <c r="AV17" s="7"/>
       <c r="AW17" s="8"/>
-      <c r="AX17" s="37" t="e">
-        <f>AVERAGE(AU17:AW17)</f>
+      <c r="AX17" s="29" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY17" s="7"/>
       <c r="AZ17" s="7"/>
       <c r="BA17" s="8"/>
-      <c r="BB17" s="37" t="e">
-        <f>AVERAGE(AY17:BA17)</f>
+      <c r="BB17" s="29" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC17" s="7"/>
       <c r="BD17" s="7"/>
       <c r="BE17" s="8"/>
-      <c r="BF17" s="37" t="e">
-        <f>AVERAGE(BC17:BE17)</f>
+      <c r="BF17" s="29" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG17" s="7"/>
       <c r="BH17" s="7"/>
       <c r="BI17" s="8"/>
-      <c r="BJ17" s="37" t="e">
-        <f>AVERAGE(BG17:BI17)</f>
+      <c r="BJ17" s="29" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK17" s="7"/>
       <c r="BL17" s="7"/>
       <c r="BM17" s="8"/>
-      <c r="BN17" s="37" t="e">
-        <f>AVERAGE(BK17:BM17)</f>
+      <c r="BN17" s="29" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO17" s="7"/>
       <c r="BP17" s="7"/>
       <c r="BQ17" s="8"/>
-      <c r="BR17" s="37" t="e">
-        <f>AVERAGE(BO17:BQ17)</f>
+      <c r="BR17" s="29" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS17" s="7"/>
       <c r="BT17" s="7"/>
       <c r="BU17" s="8"/>
-      <c r="BV17" s="37" t="e">
-        <f>AVERAGE(BS17:BU17)</f>
+      <c r="BV17" s="29" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW17" s="7"/>
       <c r="BX17" s="7"/>
       <c r="BY17" s="8"/>
-      <c r="BZ17" s="37" t="e">
-        <f>AVERAGE(BW17:BY17)</f>
+      <c r="BZ17" s="29" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA17" s="7"/>
       <c r="CB17" s="7"/>
       <c r="CC17" s="8"/>
-      <c r="CD17" s="37" t="e">
-        <f>AVERAGE(CA17:CC17)</f>
+      <c r="CD17" s="29" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE17" s="7"/>
       <c r="CF17" s="7"/>
       <c r="CG17" s="8"/>
-      <c r="CH17" s="37" t="e">
-        <f>AVERAGE(CE17:CG17)</f>
+      <c r="CH17" s="29" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI17" s="7"/>
       <c r="CJ17" s="7"/>
       <c r="CK17" s="8"/>
-      <c r="CL17" s="16"/>
+      <c r="CL17" s="14"/>
       <c r="CM17" s="7"/>
       <c r="CN17" s="7"/>
       <c r="CO17" s="8"/>
-      <c r="CP17" s="16"/>
+      <c r="CP17" s="14"/>
       <c r="CQ17" s="7"/>
       <c r="CR17" s="7"/>
       <c r="CS17" s="8"/>
-      <c r="CT17" s="16"/>
+      <c r="CT17" s="14"/>
       <c r="CU17" s="7"/>
       <c r="CV17" s="7"/>
       <c r="CW17" s="8"/>
-      <c r="CX17" s="16"/>
+      <c r="CX17" s="14"/>
       <c r="CY17" s="7"/>
       <c r="CZ17" s="7"/>
       <c r="DA17" s="8"/>
-      <c r="DB17" s="16"/>
+      <c r="DB17" s="14"/>
       <c r="DC17" s="7"/>
       <c r="DD17" s="7"/>
       <c r="DE17" s="8"/>
-      <c r="DF17" s="16"/>
+      <c r="DF17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="CA1:CD1"/>
-    <mergeCell ref="CE1:CH1"/>
-    <mergeCell ref="CI1:CL1"/>
-    <mergeCell ref="CM1:CP1"/>
-    <mergeCell ref="CQ1:CT1"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AI1:AL1"/>
@@ -10717,12 +10384,17 @@
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="BG1:BJ1"/>
     <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="DC1:DF1"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="BS1:BV1"/>
     <mergeCell ref="BW1:BZ1"/>
     <mergeCell ref="CU1:CX1"/>
     <mergeCell ref="CY1:DB1"/>
-    <mergeCell ref="DC1:DF1"/>
+    <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="CE1:CH1"/>
+    <mergeCell ref="CI1:CL1"/>
+    <mergeCell ref="CM1:CP1"/>
+    <mergeCell ref="CQ1:CT1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10732,8 +10404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1CC828-D403-4180-8DD1-C2982F3E4C99}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11058,8 +10730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26506763-C184-4448-8CF0-D6B4E6691286}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11079,7 +10751,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:M1" si="0">C1+1</f>
+        <f t="shared" ref="D1:L1" si="0">C1+1</f>
         <v>4</v>
       </c>
       <c r="E1" s="1">
@@ -11251,8 +10923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFF2C2F-8B5A-494F-8116-5199FDA899C3}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Experiment/RunningTime+SolutionNumber(SAT Solver).xlsx
+++ b/Experiment/RunningTime+SolutionNumber(SAT Solver).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\TA-Yin-Yang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Yin-Yang-SAT-Solver\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FAE429-4733-449B-9A26-ABA964C9AAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012ABD7E-9687-436B-ABA6-CD8428CBCCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{786B68CC-4CCC-48FD-999D-77648639387C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{786B68CC-4CCC-48FD-999D-77648639387C}"/>
   </bookViews>
   <sheets>
     <sheet name="Number of Solutions" sheetId="1" r:id="rId1"/>
@@ -303,13 +303,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -330,7 +329,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -343,6 +342,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,9 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5848,97 +5847,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994536F1-51AE-4898-86E3-1F56E77BFE33}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27">
+      <c r="B1" s="26">
         <v>1</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="26">
         <v>2</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="26">
         <f>C1+1</f>
         <v>3</v>
       </c>
-      <c r="E1" s="27">
+      <c r="E1" s="26">
         <f t="shared" ref="E1:O1" si="0">D1+1</f>
         <v>4</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K1" s="27">
+      <c r="K1" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L1" s="27">
+      <c r="L1" s="26">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M1" s="27">
+      <c r="M1" s="26">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="N1" s="27">
+      <c r="N1" s="26">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O1" s="27">
+      <c r="O1" s="26">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="26">
         <f t="shared" ref="P1" si="1">O1+1</f>
         <v>15</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="26">
         <f t="shared" ref="Q1" si="2">P1+1</f>
         <v>16</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="26">
         <f t="shared" ref="R1" si="3">Q1+1</f>
         <v>17</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="26">
         <f t="shared" ref="S1" si="4">R1+1</f>
         <v>18</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="26">
         <f t="shared" ref="T1" si="5">S1+1</f>
         <v>19</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="26">
         <f t="shared" ref="U1" si="6">T1+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -6003,10 +6002,10 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="1">
         <v>12</v>
       </c>
@@ -6050,11 +6049,11 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1">
         <v>34</v>
       </c>
@@ -6087,12 +6086,12 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="1">
         <v>96</v>
       </c>
@@ -6118,13 +6117,13 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="1">
         <v>660</v>
       </c>
@@ -6145,90 +6144,90 @@
       <c r="U6" s="1"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>1</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>2</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <f>C8+1</f>
         <v>3</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <f t="shared" ref="E8:O8" si="7">D8+1</f>
         <v>4</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="26">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="26">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="26">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="26">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="26">
         <f t="shared" ref="P8" si="8">O8+1</f>
         <v>15</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="26">
         <f t="shared" ref="Q8" si="9">P8+1</f>
         <v>16</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="26">
         <f t="shared" ref="R8" si="10">Q8+1</f>
         <v>17</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="26">
         <f t="shared" ref="S8" si="11">R8+1</f>
         <v>18</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="26">
         <f t="shared" ref="T8" si="12">S8+1</f>
         <v>19</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="26">
         <f t="shared" ref="U8" si="13">T8+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>1</v>
       </c>
       <c r="B9" s="1">
@@ -6281,10 +6280,10 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>2</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="1">
         <v>12</v>
       </c>
@@ -6322,11 +6321,11 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>3</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="1">
         <v>34</v>
       </c>
@@ -6355,12 +6354,12 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>4</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="1">
         <v>96</v>
       </c>
@@ -6382,13 +6381,13 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>5</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -6407,90 +6406,90 @@
       <c r="U13" s="1"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>1</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>2</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <f>C15+1</f>
         <v>3</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <f t="shared" ref="E15:O15" si="14">D15+1</f>
         <v>4</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="26">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="26">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="26">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="26">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="26">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="26">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="26">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="26">
         <f t="shared" ref="P15" si="15">O15+1</f>
         <v>15</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="26">
         <f t="shared" ref="Q15" si="16">P15+1</f>
         <v>16</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="26">
         <f t="shared" ref="R15" si="17">Q15+1</f>
         <v>17</v>
       </c>
-      <c r="S15" s="27">
+      <c r="S15" s="26">
         <f t="shared" ref="S15" si="18">R15+1</f>
         <v>18</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="26">
         <f t="shared" ref="T15" si="19">S15+1</f>
         <v>19</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="26">
         <f t="shared" ref="U15" si="20">T15+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>1</v>
       </c>
       <c r="B16" s="1">
@@ -6545,10 +6544,10 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>2</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="1">
         <v>3</v>
       </c>
@@ -6586,11 +6585,11 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>3</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="1">
         <v>8</v>
       </c>
@@ -6619,19 +6618,21 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>4</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="1">
         <v>12</v>
       </c>
       <c r="F19" s="1">
         <v>61</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>105</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -6648,13 +6649,13 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>5</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -6691,10 +6692,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="33">
         <v>1</v>
       </c>
@@ -6885,350 +6886,350 @@
       <c r="DF1" s="35"/>
     </row>
     <row r="2" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AB2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AC2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AD2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AF2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="17" t="s">
+      <c r="AG2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AH2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AI2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AK2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="18" t="s">
+      <c r="AL2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AN2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="17" t="s">
+      <c r="AO2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AP2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AQ2" s="16" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AR2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="17" t="s">
+      <c r="AS2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AT2" s="18" t="s">
+      <c r="AT2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AU2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="AV2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AW2" s="17" t="s">
+      <c r="AW2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="18" t="s">
+      <c r="AX2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AY2" s="16" t="s">
+      <c r="AY2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="AZ2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="17" t="s">
+      <c r="BA2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="18" t="s">
+      <c r="BB2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="BC2" s="16" t="s">
+      <c r="BC2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BD2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="17" t="s">
+      <c r="BE2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="BF2" s="18" t="s">
+      <c r="BF2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="BG2" s="16" t="s">
+      <c r="BG2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BH2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BI2" s="17" t="s">
+      <c r="BI2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="BJ2" s="18" t="s">
+      <c r="BJ2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="BK2" s="16" t="s">
+      <c r="BK2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BL2" s="17" t="s">
+      <c r="BL2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" s="17" t="s">
+      <c r="BM2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="BN2" s="18" t="s">
+      <c r="BN2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="BO2" s="16" t="s">
+      <c r="BO2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BP2" s="17" t="s">
+      <c r="BP2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BQ2" s="17" t="s">
+      <c r="BQ2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="BR2" s="18" t="s">
+      <c r="BR2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="BS2" s="16" t="s">
+      <c r="BS2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BT2" s="17" t="s">
+      <c r="BT2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" s="17" t="s">
+      <c r="BU2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" s="18" t="s">
+      <c r="BV2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="BW2" s="16" t="s">
+      <c r="BW2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BX2" s="17" t="s">
+      <c r="BX2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="17" t="s">
+      <c r="BY2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="18" t="s">
+      <c r="BZ2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="16" t="s">
+      <c r="CA2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="CB2" s="17" t="s">
+      <c r="CB2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="CC2" s="17" t="s">
+      <c r="CC2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="CD2" s="18" t="s">
+      <c r="CD2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CE2" s="16" t="s">
+      <c r="CE2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="CF2" s="17" t="s">
+      <c r="CF2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="CG2" s="17" t="s">
+      <c r="CG2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="CH2" s="18" t="s">
+      <c r="CH2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CI2" s="16" t="s">
+      <c r="CI2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="CJ2" s="17" t="s">
+      <c r="CJ2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="CK2" s="17" t="s">
+      <c r="CK2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="CL2" s="18" t="s">
+      <c r="CL2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CM2" s="16" t="s">
+      <c r="CM2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="CN2" s="17" t="s">
+      <c r="CN2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="CO2" s="17" t="s">
+      <c r="CO2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="CP2" s="18" t="s">
+      <c r="CP2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CQ2" s="16" t="s">
+      <c r="CQ2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="CR2" s="17" t="s">
+      <c r="CR2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="CS2" s="17" t="s">
+      <c r="CS2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="CT2" s="18" t="s">
+      <c r="CT2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CU2" s="16" t="s">
+      <c r="CU2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="CV2" s="17" t="s">
+      <c r="CV2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="CW2" s="17" t="s">
+      <c r="CW2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="CX2" s="18" t="s">
+      <c r="CX2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CY2" s="16" t="s">
+      <c r="CY2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="CZ2" s="17" t="s">
+      <c r="CZ2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="DA2" s="17" t="s">
+      <c r="DA2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="DB2" s="18" t="s">
+      <c r="DB2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="DC2" s="16" t="s">
+      <c r="DC2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="DD2" s="17" t="s">
+      <c r="DD2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="DE2" s="17" t="s">
+      <c r="DE2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="DF2" s="18" t="s">
+      <c r="DF2" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>4.6899999999960801E-5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>8.4500000000042806E-5</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>3.7100000000012103E-5</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f>AVERAGE(C3:E3)</f>
         <v>5.6166666666671897E-5</v>
       </c>
@@ -7241,7 +7242,7 @@
       <c r="I3" s="4">
         <v>1.1070000000001899E-4</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="28">
         <f>AVERAGE(G3:I3)</f>
         <v>1.5956666666664733E-4</v>
       </c>
@@ -7254,7 +7255,7 @@
       <c r="M3" s="4">
         <v>2.9589999999990398E-4</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="28">
         <f>AVERAGE(K3:M3)</f>
         <v>2.0493333333330464E-4</v>
       </c>
@@ -7267,7 +7268,7 @@
       <c r="Q3" s="4">
         <v>3.2909999999986001E-4</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="28">
         <f>AVERAGE(O3:Q3)</f>
         <v>4.03966666666644E-4</v>
       </c>
@@ -7280,7 +7281,7 @@
       <c r="U3" s="4">
         <v>8.4670000000031098E-4</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="28">
         <f t="shared" ref="V3:V17" si="0">AVERAGE(S3:U3)</f>
         <v>8.0196666666676431E-4</v>
       </c>
@@ -7293,7 +7294,7 @@
       <c r="Y3" s="4">
         <v>1.70350000000008E-3</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3" s="28">
         <f t="shared" ref="Z3:Z17" si="1">AVERAGE(W3:Y3)</f>
         <v>1.6036999999999798E-3</v>
       </c>
@@ -7306,7 +7307,7 @@
       <c r="AC3" s="4">
         <v>3.2065999999999401E-3</v>
       </c>
-      <c r="AD3" s="29">
+      <c r="AD3" s="28">
         <f t="shared" ref="AD3:AD17" si="2">AVERAGE(AA3:AC3)</f>
         <v>3.2511666666666535E-3</v>
       </c>
@@ -7319,7 +7320,7 @@
       <c r="AG3" s="4">
         <v>6.9234000000000196E-3</v>
       </c>
-      <c r="AH3" s="29">
+      <c r="AH3" s="28">
         <f t="shared" ref="AH3:AH17" si="3">AVERAGE(AE3:AG3)</f>
         <v>7.6894666666667702E-3</v>
       </c>
@@ -7332,7 +7333,7 @@
       <c r="AK3" s="4">
         <v>1.2092599999999801E-2</v>
       </c>
-      <c r="AL3" s="29">
+      <c r="AL3" s="28">
         <f t="shared" ref="AL3:AL17" si="4">AVERAGE(AI3:AK3)</f>
         <v>1.3923933333333201E-2</v>
       </c>
@@ -7345,7 +7346,7 @@
       <c r="AO3" s="4">
         <v>3.3944300000000101E-2</v>
       </c>
-      <c r="AP3" s="29">
+      <c r="AP3" s="28">
         <f t="shared" ref="AP3:AP17" si="5">AVERAGE(AM3:AO3)</f>
         <v>3.4368700000000002E-2</v>
       </c>
@@ -7358,7 +7359,7 @@
       <c r="AS3" s="4">
         <v>5.7353599999999803E-2</v>
       </c>
-      <c r="AT3" s="29">
+      <c r="AT3" s="28">
         <f t="shared" ref="AT3:AT17" si="6">AVERAGE(AQ3:AS3)</f>
         <v>5.80450666666667E-2</v>
       </c>
@@ -7371,7 +7372,7 @@
       <c r="AW3" s="4">
         <v>0.154888099999999</v>
       </c>
-      <c r="AX3" s="29">
+      <c r="AX3" s="28">
         <f t="shared" ref="AX3:AX17" si="7">AVERAGE(AU3:AW3)</f>
         <v>0.13362716666666599</v>
       </c>
@@ -7384,7 +7385,7 @@
       <c r="BA3" s="4">
         <v>0.276416299999999</v>
       </c>
-      <c r="BB3" s="29">
+      <c r="BB3" s="28">
         <f t="shared" ref="BB3:BB17" si="8">AVERAGE(AY3:BA3)</f>
         <v>0.25920489999999935</v>
       </c>
@@ -7397,7 +7398,7 @@
       <c r="BE3" s="4">
         <v>0.52139569999999902</v>
       </c>
-      <c r="BF3" s="29">
+      <c r="BF3" s="28">
         <f t="shared" ref="BF3:BF17" si="9">AVERAGE(BC3:BE3)</f>
         <v>0.57439179999999956</v>
       </c>
@@ -7410,7 +7411,7 @@
       <c r="BI3" s="4">
         <v>1.1530962</v>
       </c>
-      <c r="BJ3" s="29">
+      <c r="BJ3" s="28">
         <f t="shared" ref="BJ3:BJ17" si="10">AVERAGE(BG3:BI3)</f>
         <v>1.1544019333333333</v>
       </c>
@@ -7423,7 +7424,7 @@
       <c r="BM3" s="4">
         <v>3.1699139999999999</v>
       </c>
-      <c r="BN3" s="29">
+      <c r="BN3" s="28">
         <f t="shared" ref="BN3:BN17" si="11">AVERAGE(BK3:BM3)</f>
         <v>2.6930842666666632</v>
       </c>
@@ -7436,7 +7437,7 @@
       <c r="BQ3" s="4">
         <v>6.0043215999999999</v>
       </c>
-      <c r="BR3" s="29">
+      <c r="BR3" s="28">
         <f t="shared" ref="BR3:BR17" si="12">AVERAGE(BO3:BQ3)</f>
         <v>5.8804635666666663</v>
       </c>
@@ -7449,7 +7450,7 @@
       <c r="BU3" s="4">
         <v>13.832367100000001</v>
       </c>
-      <c r="BV3" s="29">
+      <c r="BV3" s="28">
         <f t="shared" ref="BV3:BV17" si="13">AVERAGE(BS3:BU3)</f>
         <v>13.433749999999998</v>
       </c>
@@ -7462,7 +7463,7 @@
       <c r="BY3" s="4">
         <v>36.558977300000002</v>
       </c>
-      <c r="BZ3" s="29">
+      <c r="BZ3" s="28">
         <f t="shared" ref="BZ3:BZ17" si="14">AVERAGE(BW3:BY3)</f>
         <v>36.635885266666669</v>
       </c>
@@ -7475,865 +7476,757 @@
       <c r="CC3" s="4">
         <v>83.703122699999895</v>
       </c>
-      <c r="CD3" s="29">
+      <c r="CD3" s="28">
         <f t="shared" ref="CD3:CD17" si="15">AVERAGE(CA3:CC3)</f>
         <v>90.667480166666607</v>
       </c>
       <c r="CE3" s="3"/>
       <c r="CF3" s="3"/>
       <c r="CG3" s="4"/>
-      <c r="CH3" s="29" t="e">
+      <c r="CH3" s="28" t="e">
         <f t="shared" ref="CH3:CH17" si="16">AVERAGE(CE3:CG3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="4"/>
-      <c r="CL3" s="12"/>
+      <c r="CL3" s="11"/>
       <c r="CM3" s="3"/>
       <c r="CN3" s="3"/>
       <c r="CO3" s="4"/>
-      <c r="CP3" s="12"/>
+      <c r="CP3" s="11"/>
       <c r="CQ3" s="3"/>
       <c r="CR3" s="3"/>
       <c r="CS3" s="4"/>
-      <c r="CT3" s="12"/>
+      <c r="CT3" s="11"/>
       <c r="CU3" s="3"/>
       <c r="CV3" s="3"/>
       <c r="CW3" s="4"/>
-      <c r="CX3" s="12"/>
+      <c r="CX3" s="11"/>
       <c r="CY3" s="3"/>
       <c r="CZ3" s="3"/>
       <c r="DA3" s="4"/>
-      <c r="DB3" s="12"/>
+      <c r="DB3" s="11"/>
       <c r="DC3" s="3"/>
       <c r="DD3" s="3"/>
       <c r="DE3" s="4"/>
-      <c r="DF3" s="12"/>
+      <c r="DF3" s="11"/>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="5">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4">
         <v>6.1290000000013801E-4</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>7.7679999999968798E-4</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>5.2839999999987298E-4</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="28">
         <f>AVERAGE(G4:I4)</f>
         <v>6.3936666666656629E-4</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4">
         <v>1.47760000000007E-3</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4">
         <v>2.3294000000000301E-3</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>3.0926999999998299E-3</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="28">
         <f>AVERAGE(K4:M4)</f>
         <v>2.2998999999999767E-3</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4">
         <v>6.5990000000000198E-3</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4">
         <v>5.3970000000000901E-3</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>4.86220000000003E-3</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="28">
         <f>AVERAGE(O4:Q4)</f>
         <v>5.6194000000000478E-3</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4">
         <v>1.6345600000000099E-2</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4">
         <v>1.5460599999999901E-2</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>1.7686199999999899E-2</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="28">
         <f t="shared" si="0"/>
         <v>1.649746666666663E-2</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4">
         <v>8.4461599999999998E-2</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="5">
         <v>7.2652400000000103E-2</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="28">
         <f t="shared" si="1"/>
         <v>7.0438000000000042E-2</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4">
         <v>0.18793309999999899</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4">
         <v>0.17390799999999901</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="5">
         <v>0.18835829999999901</v>
       </c>
-      <c r="AD4" s="29">
+      <c r="AD4" s="28">
         <f t="shared" si="2"/>
         <v>0.183399799999999</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4">
         <v>0.64716319999999905</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4">
         <v>0.58236730000000003</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4" s="5">
         <v>0.59865859999999904</v>
       </c>
-      <c r="AH4" s="29">
+      <c r="AH4" s="28">
         <f t="shared" si="3"/>
         <v>0.60939636666666608</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI4">
         <v>2.0170970000000001</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AJ4">
         <v>2.1364143000000002</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AK4" s="5">
         <v>2.1128761999999899</v>
       </c>
-      <c r="AL4" s="29">
+      <c r="AL4" s="28">
         <f t="shared" si="4"/>
         <v>2.0887958333333301</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AM4">
         <v>6.4068217999999897</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AN4">
         <v>7.3270394000000003</v>
       </c>
-      <c r="AO4" s="6">
+      <c r="AO4" s="5">
         <v>7.5882440000000004</v>
       </c>
-      <c r="AP4" s="29">
+      <c r="AP4" s="28">
         <f t="shared" si="5"/>
         <v>7.1073683999999959</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AQ4">
         <v>21.642227999999999</v>
       </c>
-      <c r="AR4" s="5">
+      <c r="AR4">
         <v>21.778207500000001</v>
       </c>
-      <c r="AS4" s="6">
+      <c r="AS4" s="5">
         <v>23.102848900000001</v>
       </c>
-      <c r="AT4" s="29">
+      <c r="AT4" s="28">
         <f t="shared" si="6"/>
         <v>22.174428133333333</v>
       </c>
-      <c r="AU4" s="5">
+      <c r="AU4">
         <v>98.774467400000006</v>
       </c>
-      <c r="AV4" s="5">
+      <c r="AV4">
         <v>108.51303179999999</v>
       </c>
-      <c r="AW4" s="6">
+      <c r="AW4" s="5">
         <v>107.17026619999901</v>
       </c>
-      <c r="AX4" s="29">
+      <c r="AX4" s="28">
         <f t="shared" si="7"/>
         <v>104.819255133333</v>
       </c>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="29" t="e">
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="29" t="e">
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="29" t="e">
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="6"/>
-      <c r="BN4" s="29" t="e">
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="6"/>
-      <c r="BR4" s="29" t="e">
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="6"/>
-      <c r="BV4" s="29" t="e">
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="6"/>
-      <c r="BZ4" s="29" t="e">
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="6"/>
-      <c r="CD4" s="29" t="e">
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
-      <c r="CG4" s="6"/>
-      <c r="CH4" s="29" t="e">
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
-      <c r="CK4" s="6"/>
-      <c r="CL4" s="13"/>
-      <c r="CM4" s="5"/>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="6"/>
-      <c r="CP4" s="13"/>
-      <c r="CQ4" s="5"/>
-      <c r="CR4" s="5"/>
-      <c r="CS4" s="6"/>
-      <c r="CT4" s="13"/>
-      <c r="CU4" s="5"/>
-      <c r="CV4" s="5"/>
-      <c r="CW4" s="6"/>
-      <c r="CX4" s="13"/>
-      <c r="CY4" s="5"/>
-      <c r="CZ4" s="5"/>
-      <c r="DA4" s="6"/>
-      <c r="DB4" s="13"/>
-      <c r="DC4" s="5"/>
-      <c r="DD4" s="5"/>
-      <c r="DE4" s="6"/>
-      <c r="DF4" s="13"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="12"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="12"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="12"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="12"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="12"/>
+      <c r="DE4" s="5"/>
+      <c r="DF4" s="12"/>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="5">
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="30"/>
+      <c r="K5">
         <v>7.5557000000001599E-3</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5">
         <v>7.72710000000009E-3</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>7.7625999999999503E-3</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="28">
         <f>AVERAGE(K5:M5)</f>
         <v>7.6818000000000658E-3</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5">
         <v>4.23405000000001E-2</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5">
         <v>4.0000899999999798E-2</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>3.91137999999999E-2</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="28">
         <f>AVERAGE(O5:Q5)</f>
         <v>4.0485066666666597E-2</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5">
         <v>0.1967294</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5">
         <v>0.25164439999999999</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>0.19525039999999899</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="28">
         <f t="shared" si="0"/>
         <v>0.21454139999999966</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5">
         <v>1.0451060999999999</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5">
         <v>1.0264195</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="5">
         <v>1.1045111999999899</v>
       </c>
-      <c r="Z5" s="29">
+      <c r="Z5" s="28">
         <f t="shared" si="1"/>
         <v>1.05867893333333</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5">
         <v>6.047803</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5">
         <v>5.9834044999999998</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="5">
         <v>5.7819424000000001</v>
       </c>
-      <c r="AD5" s="29">
+      <c r="AD5" s="28">
         <f t="shared" si="2"/>
         <v>5.9377166333333333</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5">
         <v>37.195037200000002</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5">
         <v>39.666458499999997</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="5">
         <v>38.825708800000001</v>
       </c>
-      <c r="AH5" s="29">
+      <c r="AH5" s="28">
         <f t="shared" si="3"/>
         <v>38.5624015</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5">
         <v>373.9266624</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AJ5">
         <v>375.70689320000002</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AK5" s="5">
         <v>444.16120649999999</v>
       </c>
-      <c r="AL5" s="29">
+      <c r="AL5" s="28">
         <f t="shared" si="4"/>
         <v>397.93158736666669</v>
       </c>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="29" t="e">
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="29" t="e">
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="28" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="29" t="e">
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="28" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="29" t="e">
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="6"/>
-      <c r="BF5" s="29" t="e">
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="6"/>
-      <c r="BJ5" s="29" t="e">
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="6"/>
-      <c r="BN5" s="29" t="e">
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO5" s="5"/>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="6"/>
-      <c r="BR5" s="29" t="e">
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS5" s="5"/>
-      <c r="BT5" s="5"/>
-      <c r="BU5" s="6"/>
-      <c r="BV5" s="29" t="e">
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW5" s="5"/>
-      <c r="BX5" s="5"/>
-      <c r="BY5" s="6"/>
-      <c r="BZ5" s="29" t="e">
+      <c r="BY5" s="5"/>
+      <c r="BZ5" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA5" s="5"/>
-      <c r="CB5" s="5"/>
-      <c r="CC5" s="6"/>
-      <c r="CD5" s="29" t="e">
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE5" s="5"/>
-      <c r="CF5" s="5"/>
-      <c r="CG5" s="6"/>
-      <c r="CH5" s="29" t="e">
+      <c r="CG5" s="5"/>
+      <c r="CH5" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI5" s="5"/>
-      <c r="CJ5" s="5"/>
-      <c r="CK5" s="6"/>
-      <c r="CL5" s="13"/>
-      <c r="CM5" s="5"/>
-      <c r="CN5" s="5"/>
-      <c r="CO5" s="6"/>
-      <c r="CP5" s="13"/>
-      <c r="CQ5" s="5"/>
-      <c r="CR5" s="5"/>
-      <c r="CS5" s="6"/>
-      <c r="CT5" s="13"/>
-      <c r="CU5" s="5"/>
-      <c r="CV5" s="5"/>
-      <c r="CW5" s="6"/>
-      <c r="CX5" s="13"/>
-      <c r="CY5" s="5"/>
-      <c r="CZ5" s="5"/>
-      <c r="DA5" s="6"/>
-      <c r="DB5" s="13"/>
-      <c r="DC5" s="5"/>
-      <c r="DD5" s="5"/>
-      <c r="DE5" s="6"/>
-      <c r="DF5" s="13"/>
+      <c r="CK5" s="5"/>
+      <c r="CL5" s="12"/>
+      <c r="CO5" s="5"/>
+      <c r="CP5" s="12"/>
+      <c r="CS5" s="5"/>
+      <c r="CT5" s="12"/>
+      <c r="CW5" s="5"/>
+      <c r="CX5" s="12"/>
+      <c r="DA5" s="5"/>
+      <c r="DB5" s="12"/>
+      <c r="DE5" s="5"/>
+      <c r="DF5" s="12"/>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="5">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="30"/>
+      <c r="O6">
         <v>0.34230939999999999</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6">
         <v>0.34528540000000002</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>0.3389894</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="28">
         <f>AVERAGE(O6:Q6)</f>
         <v>0.34219473333333333</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6">
         <v>3.0505798999999998</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6">
         <v>3.0896838999999998</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>3.2671855999999901</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="28">
         <f t="shared" si="0"/>
         <v>3.1358164666666632</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6">
         <v>27.969216400000001</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6">
         <v>27.996204299999999</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="5">
         <v>29.914805999999999</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="28">
         <f t="shared" si="1"/>
         <v>28.626742233333331</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="29" t="e">
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="29" t="e">
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="29" t="e">
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="29" t="e">
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="29" t="e">
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="28" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="29" t="e">
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="28" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="6"/>
-      <c r="BB6" s="29" t="e">
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="6"/>
-      <c r="BF6" s="29" t="e">
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="6"/>
-      <c r="BJ6" s="29" t="e">
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="6"/>
-      <c r="BN6" s="29" t="e">
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO6" s="5"/>
-      <c r="BP6" s="5"/>
-      <c r="BQ6" s="6"/>
-      <c r="BR6" s="29" t="e">
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS6" s="5"/>
-      <c r="BT6" s="5"/>
-      <c r="BU6" s="6"/>
-      <c r="BV6" s="29" t="e">
+      <c r="BU6" s="5"/>
+      <c r="BV6" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW6" s="5"/>
-      <c r="BX6" s="5"/>
-      <c r="BY6" s="6"/>
-      <c r="BZ6" s="29" t="e">
+      <c r="BY6" s="5"/>
+      <c r="BZ6" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA6" s="5"/>
-      <c r="CB6" s="5"/>
-      <c r="CC6" s="6"/>
-      <c r="CD6" s="29" t="e">
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE6" s="5"/>
-      <c r="CF6" s="5"/>
-      <c r="CG6" s="6"/>
-      <c r="CH6" s="29" t="e">
+      <c r="CG6" s="5"/>
+      <c r="CH6" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI6" s="5"/>
-      <c r="CJ6" s="5"/>
-      <c r="CK6" s="6"/>
-      <c r="CL6" s="13"/>
-      <c r="CM6" s="5"/>
-      <c r="CN6" s="5"/>
-      <c r="CO6" s="6"/>
-      <c r="CP6" s="13"/>
-      <c r="CQ6" s="5"/>
-      <c r="CR6" s="5"/>
-      <c r="CS6" s="6"/>
-      <c r="CT6" s="13"/>
-      <c r="CU6" s="5"/>
-      <c r="CV6" s="5"/>
-      <c r="CW6" s="6"/>
-      <c r="CX6" s="13"/>
-      <c r="CY6" s="5"/>
-      <c r="CZ6" s="5"/>
-      <c r="DA6" s="6"/>
-      <c r="DB6" s="13"/>
-      <c r="DC6" s="5"/>
-      <c r="DD6" s="5"/>
-      <c r="DE6" s="6"/>
-      <c r="DF6" s="13"/>
+      <c r="CK6" s="5"/>
+      <c r="CL6" s="12"/>
+      <c r="CO6" s="5"/>
+      <c r="CP6" s="12"/>
+      <c r="CS6" s="5"/>
+      <c r="CT6" s="12"/>
+      <c r="CW6" s="5"/>
+      <c r="CX6" s="12"/>
+      <c r="DA6" s="5"/>
+      <c r="DB6" s="12"/>
+      <c r="DE6" s="5"/>
+      <c r="DF6" s="12"/>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="7">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="6">
         <v>49.572052399999997</v>
       </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="29">
+      <c r="T7" s="6"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="28">
         <f t="shared" si="0"/>
         <v>49.572052399999997</v>
       </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="29" t="e">
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="29" t="e">
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="29" t="e">
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="29" t="e">
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="29" t="e">
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="29" t="e">
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="28" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="29" t="e">
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="28" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="8"/>
-      <c r="BB7" s="29" t="e">
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="29" t="e">
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG7" s="7"/>
-      <c r="BH7" s="7"/>
-      <c r="BI7" s="8"/>
-      <c r="BJ7" s="29" t="e">
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK7" s="7"/>
-      <c r="BL7" s="7"/>
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="29" t="e">
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="7"/>
+      <c r="BN7" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO7" s="7"/>
-      <c r="BP7" s="7"/>
-      <c r="BQ7" s="8"/>
-      <c r="BR7" s="29" t="e">
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="7"/>
+      <c r="BR7" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS7" s="7"/>
-      <c r="BT7" s="7"/>
-      <c r="BU7" s="8"/>
-      <c r="BV7" s="29" t="e">
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="7"/>
+      <c r="BV7" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW7" s="7"/>
-      <c r="BX7" s="7"/>
-      <c r="BY7" s="8"/>
-      <c r="BZ7" s="29" t="e">
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="7"/>
+      <c r="BZ7" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA7" s="7"/>
-      <c r="CB7" s="7"/>
-      <c r="CC7" s="8"/>
-      <c r="CD7" s="29" t="e">
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="7"/>
+      <c r="CD7" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE7" s="7"/>
-      <c r="CF7" s="7"/>
-      <c r="CG7" s="8"/>
-      <c r="CH7" s="29" t="e">
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="7"/>
+      <c r="CH7" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI7" s="7"/>
-      <c r="CJ7" s="7"/>
-      <c r="CK7" s="8"/>
-      <c r="CL7" s="14"/>
-      <c r="CM7" s="7"/>
-      <c r="CN7" s="7"/>
-      <c r="CO7" s="8"/>
-      <c r="CP7" s="14"/>
-      <c r="CQ7" s="7"/>
-      <c r="CR7" s="7"/>
-      <c r="CS7" s="8"/>
-      <c r="CT7" s="14"/>
-      <c r="CU7" s="7"/>
-      <c r="CV7" s="7"/>
-      <c r="CW7" s="8"/>
-      <c r="CX7" s="14"/>
-      <c r="CY7" s="7"/>
-      <c r="CZ7" s="7"/>
-      <c r="DA7" s="8"/>
-      <c r="DB7" s="14"/>
-      <c r="DC7" s="7"/>
-      <c r="DD7" s="7"/>
-      <c r="DE7" s="8"/>
-      <c r="DF7" s="14"/>
+      <c r="CI7" s="6"/>
+      <c r="CJ7" s="6"/>
+      <c r="CK7" s="7"/>
+      <c r="CL7" s="13"/>
+      <c r="CM7" s="6"/>
+      <c r="CN7" s="6"/>
+      <c r="CO7" s="7"/>
+      <c r="CP7" s="13"/>
+      <c r="CQ7" s="6"/>
+      <c r="CR7" s="6"/>
+      <c r="CS7" s="7"/>
+      <c r="CT7" s="13"/>
+      <c r="CU7" s="6"/>
+      <c r="CV7" s="6"/>
+      <c r="CW7" s="7"/>
+      <c r="CX7" s="13"/>
+      <c r="CY7" s="6"/>
+      <c r="CZ7" s="6"/>
+      <c r="DA7" s="7"/>
+      <c r="DB7" s="13"/>
+      <c r="DC7" s="6"/>
+      <c r="DD7" s="6"/>
+      <c r="DE7" s="7"/>
+      <c r="DF7" s="13"/>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>9.8400000000054E-5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>3.0499999999933301E-5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>3.11000000000616E-5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f>AVERAGE(C8:E8)</f>
         <v>5.3333333333349637E-5</v>
       </c>
@@ -8346,7 +8239,7 @@
       <c r="I8" s="4">
         <v>1.2670000000003501E-4</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="28">
         <f>AVERAGE(G8:I8)</f>
         <v>1.2743333333331501E-4</v>
       </c>
@@ -8359,7 +8252,7 @@
       <c r="M8" s="4">
         <v>2.6379999999992499E-4</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="28">
         <f>AVERAGE(K8:M8)</f>
         <v>2.5539999999997932E-4</v>
       </c>
@@ -8372,7 +8265,7 @@
       <c r="Q8" s="4">
         <v>6.7530000000015601E-4</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="28">
         <f>AVERAGE(O8:Q8)</f>
         <v>6.303333333334359E-4</v>
       </c>
@@ -8385,7 +8278,7 @@
       <c r="U8" s="4">
         <v>1.65400000000004E-3</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="28">
         <f t="shared" si="0"/>
         <v>1.33836666666664E-3</v>
       </c>
@@ -8398,7 +8291,7 @@
       <c r="Y8" s="4">
         <v>3.3013000000000599E-3</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="Z8" s="28">
         <f t="shared" si="1"/>
         <v>3.3525666666666832E-3</v>
       </c>
@@ -8411,7 +8304,7 @@
       <c r="AC8" s="4">
         <v>8.4081000000000294E-3</v>
       </c>
-      <c r="AD8" s="29">
+      <c r="AD8" s="28">
         <f t="shared" si="2"/>
         <v>8.7914999999999868E-3</v>
       </c>
@@ -8424,7 +8317,7 @@
       <c r="AG8" s="4">
         <v>2.9729800000000001E-2</v>
       </c>
-      <c r="AH8" s="29">
+      <c r="AH8" s="28">
         <f t="shared" si="3"/>
         <v>2.8637133333333269E-2</v>
       </c>
@@ -8437,7 +8330,7 @@
       <c r="AK8" s="4">
         <v>0.100961499999999</v>
       </c>
-      <c r="AL8" s="29">
+      <c r="AL8" s="28">
         <f t="shared" si="4"/>
         <v>0.10160603333333267</v>
       </c>
@@ -8450,7 +8343,7 @@
       <c r="AO8" s="4">
         <v>0.43812259999999897</v>
       </c>
-      <c r="AP8" s="29">
+      <c r="AP8" s="28">
         <f t="shared" si="5"/>
         <v>0.42380776666666625</v>
       </c>
@@ -8463,7 +8356,7 @@
       <c r="AS8" s="4">
         <v>1.9180953000000001</v>
       </c>
-      <c r="AT8" s="29">
+      <c r="AT8" s="28">
         <f t="shared" si="6"/>
         <v>1.9158226333333268</v>
       </c>
@@ -8476,7 +8369,7 @@
       <c r="AW8" s="4">
         <v>8.4724173999999906</v>
       </c>
-      <c r="AX8" s="29">
+      <c r="AX8" s="28">
         <f t="shared" si="7"/>
         <v>8.268901466666664</v>
       </c>
@@ -8489,7 +8382,7 @@
       <c r="BA8" s="4">
         <v>36.394675700000001</v>
       </c>
-      <c r="BB8" s="29">
+      <c r="BB8" s="28">
         <f t="shared" si="8"/>
         <v>36.256256466666663</v>
       </c>
@@ -8502,838 +8395,713 @@
       <c r="BE8" s="4">
         <v>181.95623499999999</v>
       </c>
-      <c r="BF8" s="29">
+      <c r="BF8" s="28">
         <f t="shared" si="9"/>
         <v>171.36670049999967</v>
       </c>
       <c r="BG8" s="3"/>
       <c r="BH8" s="3"/>
       <c r="BI8" s="4"/>
-      <c r="BJ8" s="29" t="e">
+      <c r="BJ8" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
       <c r="BM8" s="4"/>
-      <c r="BN8" s="29" t="e">
+      <c r="BN8" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
       <c r="BQ8" s="4"/>
-      <c r="BR8" s="29" t="e">
+      <c r="BR8" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS8" s="3"/>
       <c r="BT8" s="3"/>
       <c r="BU8" s="4"/>
-      <c r="BV8" s="29" t="e">
+      <c r="BV8" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW8" s="3"/>
       <c r="BX8" s="3"/>
       <c r="BY8" s="4"/>
-      <c r="BZ8" s="29" t="e">
+      <c r="BZ8" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA8" s="3"/>
       <c r="CB8" s="3"/>
       <c r="CC8" s="4"/>
-      <c r="CD8" s="29" t="e">
+      <c r="CD8" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE8" s="3"/>
       <c r="CF8" s="3"/>
       <c r="CG8" s="4"/>
-      <c r="CH8" s="29" t="e">
+      <c r="CH8" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="4"/>
-      <c r="CL8" s="12"/>
+      <c r="CL8" s="11"/>
       <c r="CM8" s="3"/>
       <c r="CN8" s="3"/>
       <c r="CO8" s="4"/>
-      <c r="CP8" s="12"/>
+      <c r="CP8" s="11"/>
       <c r="CQ8" s="3"/>
       <c r="CR8" s="3"/>
       <c r="CS8" s="4"/>
-      <c r="CT8" s="12"/>
+      <c r="CT8" s="11"/>
       <c r="CU8" s="3"/>
       <c r="CV8" s="3"/>
       <c r="CW8" s="4"/>
-      <c r="CX8" s="12"/>
+      <c r="CX8" s="11"/>
       <c r="CY8" s="3"/>
       <c r="CZ8" s="3"/>
       <c r="DA8" s="4"/>
-      <c r="DB8" s="12"/>
+      <c r="DB8" s="11"/>
       <c r="DC8" s="3"/>
       <c r="DD8" s="3"/>
       <c r="DE8" s="4"/>
-      <c r="DF8" s="12"/>
+      <c r="DF8" s="11"/>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="5">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9">
         <v>5.0020000000006095E-4</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>5.1029999999996302E-4</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>4.2920000000001802E-4</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <f>AVERAGE(G9:I9)</f>
         <v>4.79900000000014E-4</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>1.93509999999996E-3</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9">
         <v>1.58720000000001E-3</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>1.7048000000000601E-3</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="28">
         <f>AVERAGE(K9:M9)</f>
         <v>1.7423666666666765E-3</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9">
         <v>9.2110000000000802E-3</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9">
         <v>8.9578999999999596E-3</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>8.6317999999999603E-3</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="28">
         <f>AVERAGE(O9:Q9)</f>
         <v>8.9335666666666667E-3</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9">
         <v>5.8017199999999901E-2</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9">
         <v>6.0335099999999899E-2</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>5.8336599999999898E-2</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="28">
         <f t="shared" si="0"/>
         <v>5.8896299999999902E-2</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9">
         <v>0.53116980000000003</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9">
         <v>0.55345149999999999</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <v>0.54606789999999905</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="Z9" s="28">
         <f t="shared" si="1"/>
         <v>0.54356306666666632</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9">
         <v>5.5337225999999999</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9">
         <v>6.0109999999999904</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AC9" s="5">
         <v>5.9757831000000001</v>
       </c>
-      <c r="AD9" s="29">
+      <c r="AD9" s="28">
         <f t="shared" si="2"/>
         <v>5.8401685666666632</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AE9">
         <v>65.677665399999995</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AF9">
         <v>64.701007899999993</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AG9" s="5">
         <v>64.688005099999998</v>
       </c>
-      <c r="AH9" s="29">
+      <c r="AH9" s="28">
         <f t="shared" si="3"/>
         <v>65.022226133333334</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AI9">
         <v>941.21151220000002</v>
       </c>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="29">
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="28">
         <f t="shared" si="4"/>
         <v>941.21151220000002</v>
       </c>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="29" t="e">
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="6"/>
-      <c r="AT9" s="29" t="e">
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="28" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="6"/>
-      <c r="AX9" s="29" t="e">
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="28" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="5"/>
-      <c r="BA9" s="6"/>
-      <c r="BB9" s="29" t="e">
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="5"/>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="29" t="e">
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG9" s="5"/>
-      <c r="BH9" s="5"/>
-      <c r="BI9" s="6"/>
-      <c r="BJ9" s="29" t="e">
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK9" s="5"/>
-      <c r="BL9" s="5"/>
-      <c r="BM9" s="6"/>
-      <c r="BN9" s="29" t="e">
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO9" s="5"/>
-      <c r="BP9" s="5"/>
-      <c r="BQ9" s="6"/>
-      <c r="BR9" s="29" t="e">
+      <c r="BQ9" s="5"/>
+      <c r="BR9" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS9" s="5"/>
-      <c r="BT9" s="5"/>
-      <c r="BU9" s="6"/>
-      <c r="BV9" s="29" t="e">
+      <c r="BU9" s="5"/>
+      <c r="BV9" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW9" s="5"/>
-      <c r="BX9" s="5"/>
-      <c r="BY9" s="6"/>
-      <c r="BZ9" s="29" t="e">
+      <c r="BY9" s="5"/>
+      <c r="BZ9" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA9" s="5"/>
-      <c r="CB9" s="5"/>
-      <c r="CC9" s="6"/>
-      <c r="CD9" s="29" t="e">
+      <c r="CC9" s="5"/>
+      <c r="CD9" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE9" s="5"/>
-      <c r="CF9" s="5"/>
-      <c r="CG9" s="6"/>
-      <c r="CH9" s="29" t="e">
+      <c r="CG9" s="5"/>
+      <c r="CH9" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI9" s="5"/>
-      <c r="CJ9" s="5"/>
-      <c r="CK9" s="6"/>
-      <c r="CL9" s="13"/>
-      <c r="CM9" s="5"/>
-      <c r="CN9" s="5"/>
-      <c r="CO9" s="6"/>
-      <c r="CP9" s="13"/>
-      <c r="CQ9" s="5"/>
-      <c r="CR9" s="5"/>
-      <c r="CS9" s="6"/>
-      <c r="CT9" s="13"/>
-      <c r="CU9" s="5"/>
-      <c r="CV9" s="5"/>
-      <c r="CW9" s="6"/>
-      <c r="CX9" s="13"/>
-      <c r="CY9" s="5"/>
-      <c r="CZ9" s="5"/>
-      <c r="DA9" s="6"/>
-      <c r="DB9" s="13"/>
-      <c r="DC9" s="5"/>
-      <c r="DD9" s="5"/>
-      <c r="DE9" s="6"/>
-      <c r="DF9" s="13"/>
+      <c r="CK9" s="5"/>
+      <c r="CL9" s="12"/>
+      <c r="CO9" s="5"/>
+      <c r="CP9" s="12"/>
+      <c r="CS9" s="5"/>
+      <c r="CT9" s="12"/>
+      <c r="CW9" s="5"/>
+      <c r="CX9" s="12"/>
+      <c r="DA9" s="5"/>
+      <c r="DB9" s="12"/>
+      <c r="DE9" s="5"/>
+      <c r="DF9" s="12"/>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="5">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="30"/>
+      <c r="K10">
         <v>1.9680699999999898E-2</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10">
         <v>1.7403899999999899E-2</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>2.9576399999999999E-2</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="28">
         <f>AVERAGE(K10:M10)</f>
         <v>2.2220333333333269E-2</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10">
         <v>0.3361787</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10">
         <v>0.38450719999999899</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>0.3521241</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="28">
         <f>AVERAGE(O10:Q10)</f>
         <v>0.357603333333333</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10">
         <v>8.1268163999999992</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10">
         <v>8.3810970000000005</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>8.1411528000000004</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="28">
         <f t="shared" si="0"/>
         <v>8.2163553999999994</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10">
         <v>273.6620312</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10">
         <v>307.98909880000002</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <v>306.14584730000001</v>
       </c>
-      <c r="Z10" s="29">
+      <c r="Z10" s="28">
         <f t="shared" si="1"/>
         <v>295.93232576666668</v>
       </c>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="29" t="e">
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="29" t="e">
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="29" t="e">
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="29" t="e">
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="29" t="e">
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="28" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="29" t="e">
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="28" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="6"/>
-      <c r="BB10" s="29" t="e">
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-      <c r="BE10" s="6"/>
-      <c r="BF10" s="29" t="e">
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG10" s="5"/>
-      <c r="BH10" s="5"/>
-      <c r="BI10" s="6"/>
-      <c r="BJ10" s="29" t="e">
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK10" s="5"/>
-      <c r="BL10" s="5"/>
-      <c r="BM10" s="6"/>
-      <c r="BN10" s="29" t="e">
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO10" s="5"/>
-      <c r="BP10" s="5"/>
-      <c r="BQ10" s="6"/>
-      <c r="BR10" s="29" t="e">
+      <c r="BQ10" s="5"/>
+      <c r="BR10" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS10" s="5"/>
-      <c r="BT10" s="5"/>
-      <c r="BU10" s="6"/>
-      <c r="BV10" s="29" t="e">
+      <c r="BU10" s="5"/>
+      <c r="BV10" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW10" s="5"/>
-      <c r="BX10" s="5"/>
-      <c r="BY10" s="6"/>
-      <c r="BZ10" s="29" t="e">
+      <c r="BY10" s="5"/>
+      <c r="BZ10" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA10" s="5"/>
-      <c r="CB10" s="5"/>
-      <c r="CC10" s="6"/>
-      <c r="CD10" s="29" t="e">
+      <c r="CC10" s="5"/>
+      <c r="CD10" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE10" s="5"/>
-      <c r="CF10" s="5"/>
-      <c r="CG10" s="6"/>
-      <c r="CH10" s="29" t="e">
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI10" s="5"/>
-      <c r="CJ10" s="5"/>
-      <c r="CK10" s="6"/>
-      <c r="CL10" s="13"/>
-      <c r="CM10" s="5"/>
-      <c r="CN10" s="5"/>
-      <c r="CO10" s="6"/>
-      <c r="CP10" s="13"/>
-      <c r="CQ10" s="5"/>
-      <c r="CR10" s="5"/>
-      <c r="CS10" s="6"/>
-      <c r="CT10" s="13"/>
-      <c r="CU10" s="5"/>
-      <c r="CV10" s="5"/>
-      <c r="CW10" s="6"/>
-      <c r="CX10" s="13"/>
-      <c r="CY10" s="5"/>
-      <c r="CZ10" s="5"/>
-      <c r="DA10" s="6"/>
-      <c r="DB10" s="13"/>
-      <c r="DC10" s="5"/>
-      <c r="DD10" s="5"/>
-      <c r="DE10" s="6"/>
-      <c r="DF10" s="13"/>
+      <c r="CK10" s="5"/>
+      <c r="CL10" s="12"/>
+      <c r="CO10" s="5"/>
+      <c r="CP10" s="12"/>
+      <c r="CS10" s="5"/>
+      <c r="CT10" s="12"/>
+      <c r="CW10" s="5"/>
+      <c r="CX10" s="12"/>
+      <c r="DA10" s="5"/>
+      <c r="DB10" s="12"/>
+      <c r="DE10" s="5"/>
+      <c r="DF10" s="12"/>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="5">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="30"/>
+      <c r="O11">
         <v>24.125190699999902</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11">
         <v>23.2290478</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>24.2371628</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="28">
         <f>AVERAGE(O11:Q11)</f>
         <v>23.863800433333299</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="29" t="e">
+      <c r="U11" s="5"/>
+      <c r="V11" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="29" t="e">
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="29" t="e">
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="29" t="e">
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="29" t="e">
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="29" t="e">
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="29" t="e">
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="28" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="29" t="e">
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="28" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="6"/>
-      <c r="BB11" s="29" t="e">
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="6"/>
-      <c r="BF11" s="29" t="e">
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="6"/>
-      <c r="BJ11" s="29" t="e">
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK11" s="5"/>
-      <c r="BL11" s="5"/>
-      <c r="BM11" s="6"/>
-      <c r="BN11" s="29" t="e">
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO11" s="5"/>
-      <c r="BP11" s="5"/>
-      <c r="BQ11" s="6"/>
-      <c r="BR11" s="29" t="e">
+      <c r="BQ11" s="5"/>
+      <c r="BR11" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS11" s="5"/>
-      <c r="BT11" s="5"/>
-      <c r="BU11" s="6"/>
-      <c r="BV11" s="29" t="e">
+      <c r="BU11" s="5"/>
+      <c r="BV11" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW11" s="5"/>
-      <c r="BX11" s="5"/>
-      <c r="BY11" s="6"/>
-      <c r="BZ11" s="29" t="e">
+      <c r="BY11" s="5"/>
+      <c r="BZ11" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA11" s="5"/>
-      <c r="CB11" s="5"/>
-      <c r="CC11" s="6"/>
-      <c r="CD11" s="29" t="e">
+      <c r="CC11" s="5"/>
+      <c r="CD11" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE11" s="5"/>
-      <c r="CF11" s="5"/>
-      <c r="CG11" s="6"/>
-      <c r="CH11" s="29" t="e">
+      <c r="CG11" s="5"/>
+      <c r="CH11" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI11" s="5"/>
-      <c r="CJ11" s="5"/>
-      <c r="CK11" s="6"/>
-      <c r="CL11" s="13"/>
-      <c r="CM11" s="5"/>
-      <c r="CN11" s="5"/>
-      <c r="CO11" s="6"/>
-      <c r="CP11" s="13"/>
-      <c r="CQ11" s="5"/>
-      <c r="CR11" s="5"/>
-      <c r="CS11" s="6"/>
-      <c r="CT11" s="13"/>
-      <c r="CU11" s="5"/>
-      <c r="CV11" s="5"/>
-      <c r="CW11" s="6"/>
-      <c r="CX11" s="13"/>
-      <c r="CY11" s="5"/>
-      <c r="CZ11" s="5"/>
-      <c r="DA11" s="6"/>
-      <c r="DB11" s="13"/>
-      <c r="DC11" s="5"/>
-      <c r="DD11" s="5"/>
-      <c r="DE11" s="6"/>
-      <c r="DF11" s="13"/>
+      <c r="CK11" s="5"/>
+      <c r="CL11" s="12"/>
+      <c r="CO11" s="5"/>
+      <c r="CP11" s="12"/>
+      <c r="CS11" s="5"/>
+      <c r="CT11" s="12"/>
+      <c r="CW11" s="5"/>
+      <c r="CX11" s="12"/>
+      <c r="DA11" s="5"/>
+      <c r="DB11" s="12"/>
+      <c r="DE11" s="5"/>
+      <c r="DF11" s="12"/>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="29" t="e">
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="29" t="e">
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="29" t="e">
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="29" t="e">
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="29" t="e">
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="29" t="e">
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="29" t="e">
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="28" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="29" t="e">
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="28" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="29" t="e">
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC12" s="7"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="8"/>
-      <c r="BF12" s="29" t="e">
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="8"/>
-      <c r="BJ12" s="29" t="e">
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
-      <c r="BM12" s="8"/>
-      <c r="BN12" s="29" t="e">
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO12" s="7"/>
-      <c r="BP12" s="7"/>
-      <c r="BQ12" s="8"/>
-      <c r="BR12" s="29" t="e">
+      <c r="BO12" s="6"/>
+      <c r="BP12" s="6"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS12" s="7"/>
-      <c r="BT12" s="7"/>
-      <c r="BU12" s="8"/>
-      <c r="BV12" s="29" t="e">
+      <c r="BS12" s="6"/>
+      <c r="BT12" s="6"/>
+      <c r="BU12" s="7"/>
+      <c r="BV12" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW12" s="7"/>
-      <c r="BX12" s="7"/>
-      <c r="BY12" s="8"/>
-      <c r="BZ12" s="29" t="e">
+      <c r="BW12" s="6"/>
+      <c r="BX12" s="6"/>
+      <c r="BY12" s="7"/>
+      <c r="BZ12" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA12" s="7"/>
-      <c r="CB12" s="7"/>
-      <c r="CC12" s="8"/>
-      <c r="CD12" s="29" t="e">
+      <c r="CA12" s="6"/>
+      <c r="CB12" s="6"/>
+      <c r="CC12" s="7"/>
+      <c r="CD12" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE12" s="7"/>
-      <c r="CF12" s="7"/>
-      <c r="CG12" s="8"/>
-      <c r="CH12" s="29" t="e">
+      <c r="CE12" s="6"/>
+      <c r="CF12" s="6"/>
+      <c r="CG12" s="7"/>
+      <c r="CH12" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI12" s="7"/>
-      <c r="CJ12" s="7"/>
-      <c r="CK12" s="8"/>
-      <c r="CL12" s="14"/>
-      <c r="CM12" s="7"/>
-      <c r="CN12" s="7"/>
-      <c r="CO12" s="8"/>
-      <c r="CP12" s="14"/>
-      <c r="CQ12" s="7"/>
-      <c r="CR12" s="7"/>
-      <c r="CS12" s="8"/>
-      <c r="CT12" s="14"/>
-      <c r="CU12" s="7"/>
-      <c r="CV12" s="7"/>
-      <c r="CW12" s="8"/>
-      <c r="CX12" s="14"/>
-      <c r="CY12" s="7"/>
-      <c r="CZ12" s="7"/>
-      <c r="DA12" s="8"/>
-      <c r="DB12" s="14"/>
-      <c r="DC12" s="7"/>
-      <c r="DD12" s="7"/>
-      <c r="DE12" s="8"/>
-      <c r="DF12" s="14"/>
+      <c r="CI12" s="6"/>
+      <c r="CJ12" s="6"/>
+      <c r="CK12" s="7"/>
+      <c r="CL12" s="13"/>
+      <c r="CM12" s="6"/>
+      <c r="CN12" s="6"/>
+      <c r="CO12" s="7"/>
+      <c r="CP12" s="13"/>
+      <c r="CQ12" s="6"/>
+      <c r="CR12" s="6"/>
+      <c r="CS12" s="7"/>
+      <c r="CT12" s="13"/>
+      <c r="CU12" s="6"/>
+      <c r="CV12" s="6"/>
+      <c r="CW12" s="7"/>
+      <c r="CX12" s="13"/>
+      <c r="CY12" s="6"/>
+      <c r="CZ12" s="6"/>
+      <c r="DA12" s="7"/>
+      <c r="DB12" s="13"/>
+      <c r="DC12" s="6"/>
+      <c r="DD12" s="6"/>
+      <c r="DE12" s="7"/>
+      <c r="DF12" s="13"/>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1">
@@ -9348,7 +9116,7 @@
       <c r="E13" s="4">
         <v>2.0640000000005099E-4</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>AVERAGE(C13:E13)</f>
         <v>2.0686666666669366E-4</v>
       </c>
@@ -9361,7 +9129,7 @@
       <c r="I13" s="4">
         <v>4.18899999999666E-4</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="28">
         <f>AVERAGE(G13:I13)</f>
         <v>2.9906666666660637E-4</v>
       </c>
@@ -9374,7 +9142,7 @@
       <c r="M13" s="4">
         <v>5.7600000000013196E-4</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="28">
         <f>AVERAGE(K13:M13)</f>
         <v>6.299000000001459E-4</v>
       </c>
@@ -9387,7 +9155,7 @@
       <c r="Q13" s="4">
         <v>9.9059999999995198E-4</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="28">
         <f>AVERAGE(O13:Q13)</f>
         <v>1.0672000000000439E-3</v>
       </c>
@@ -9400,7 +9168,7 @@
       <c r="U13" s="4">
         <v>2.0910999999999001E-3</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="28">
         <f t="shared" si="0"/>
         <v>2.8017999999999967E-3</v>
       </c>
@@ -9413,7 +9181,7 @@
       <c r="Y13" s="4">
         <v>4.6891999999999403E-3</v>
       </c>
-      <c r="Z13" s="29">
+      <c r="Z13" s="28">
         <f t="shared" si="1"/>
         <v>5.0592666666666305E-3</v>
       </c>
@@ -9426,7 +9194,7 @@
       <c r="AC13" s="4">
         <v>1.2955700000000001E-2</v>
       </c>
-      <c r="AD13" s="29">
+      <c r="AD13" s="28">
         <f t="shared" si="2"/>
         <v>1.4957433333333299E-2</v>
       </c>
@@ -9439,7 +9207,7 @@
       <c r="AG13" s="4">
         <v>2.7337500000000198E-2</v>
       </c>
-      <c r="AH13" s="29">
+      <c r="AH13" s="28">
         <f t="shared" si="3"/>
         <v>2.7703166666666598E-2</v>
       </c>
@@ -9452,7 +9220,7 @@
       <c r="AK13" s="4">
         <v>8.5858799999999999E-2</v>
       </c>
-      <c r="AL13" s="29">
+      <c r="AL13" s="28">
         <f t="shared" si="4"/>
         <v>8.1548000000000009E-2</v>
       </c>
@@ -9465,7 +9233,7 @@
       <c r="AO13" s="4">
         <v>0.234510999999999</v>
       </c>
-      <c r="AP13" s="29">
+      <c r="AP13" s="28">
         <f t="shared" si="5"/>
         <v>0.23350689999999899</v>
       </c>
@@ -9478,7 +9246,7 @@
       <c r="AS13" s="4">
         <v>0.80799399999999899</v>
       </c>
-      <c r="AT13" s="29">
+      <c r="AT13" s="28">
         <f t="shared" si="6"/>
         <v>0.81881753333333263</v>
       </c>
@@ -9491,7 +9259,7 @@
       <c r="AW13" s="4">
         <v>3.84443149999999</v>
       </c>
-      <c r="AX13" s="29">
+      <c r="AX13" s="28">
         <f t="shared" si="7"/>
         <v>3.6568906666666634</v>
       </c>
@@ -9504,11 +9272,11 @@
       <c r="BA13" s="4">
         <v>14.3022732999999</v>
       </c>
-      <c r="BB13" s="29">
+      <c r="BB13" s="28">
         <f t="shared" si="8"/>
         <v>14.158216566666601</v>
       </c>
-      <c r="BC13" s="5">
+      <c r="BC13">
         <v>59.6226439</v>
       </c>
       <c r="BD13" s="3">
@@ -9517,7 +9285,7 @@
       <c r="BE13" s="4">
         <v>61.840815899999903</v>
       </c>
-      <c r="BF13" s="29">
+      <c r="BF13" s="28">
         <f t="shared" si="9"/>
         <v>60.188196166666636</v>
       </c>
@@ -9530,860 +9298,719 @@
       <c r="BI13" s="4">
         <v>264.79604029999899</v>
       </c>
-      <c r="BJ13" s="29">
+      <c r="BJ13" s="28">
         <f t="shared" si="10"/>
         <v>266.19534633333268</v>
       </c>
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
       <c r="BM13" s="4"/>
-      <c r="BN13" s="29" t="e">
+      <c r="BN13" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BO13" s="3"/>
       <c r="BP13" s="3"/>
       <c r="BQ13" s="4"/>
-      <c r="BR13" s="29" t="e">
+      <c r="BR13" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BS13" s="3"/>
       <c r="BT13" s="3"/>
       <c r="BU13" s="4"/>
-      <c r="BV13" s="29" t="e">
+      <c r="BV13" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BW13" s="3"/>
       <c r="BX13" s="3"/>
       <c r="BY13" s="4"/>
-      <c r="BZ13" s="29" t="e">
+      <c r="BZ13" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CA13" s="3"/>
       <c r="CB13" s="3"/>
       <c r="CC13" s="4"/>
-      <c r="CD13" s="29" t="e">
+      <c r="CD13" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE13" s="3"/>
       <c r="CF13" s="3"/>
       <c r="CG13" s="4"/>
-      <c r="CH13" s="29" t="e">
+      <c r="CH13" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI13" s="3"/>
       <c r="CJ13" s="3"/>
       <c r="CK13" s="4"/>
-      <c r="CL13" s="15"/>
+      <c r="CL13" s="14"/>
       <c r="CM13" s="3"/>
       <c r="CN13" s="3"/>
       <c r="CO13" s="4"/>
-      <c r="CP13" s="15"/>
+      <c r="CP13" s="14"/>
       <c r="CQ13" s="3"/>
       <c r="CR13" s="3"/>
       <c r="CS13" s="4"/>
-      <c r="CT13" s="15"/>
+      <c r="CT13" s="14"/>
       <c r="CU13" s="3"/>
       <c r="CV13" s="3"/>
       <c r="CW13" s="4"/>
-      <c r="CX13" s="15"/>
+      <c r="CX13" s="14"/>
       <c r="CY13" s="3"/>
       <c r="CZ13" s="3"/>
       <c r="DA13" s="4"/>
-      <c r="DB13" s="15"/>
+      <c r="DB13" s="14"/>
       <c r="DC13" s="3"/>
       <c r="DD13" s="3"/>
       <c r="DE13" s="4"/>
-      <c r="DF13" s="15"/>
+      <c r="DF13" s="14"/>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="5">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14">
         <v>9.3969999999998701E-4</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <v>8.3999999999995103E-4</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>8.7490000000001102E-4</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="28">
         <f>AVERAGE(G14:I14)</f>
         <v>8.8486666666664961E-4</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14">
         <v>2.1626999999999601E-3</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14">
         <v>2.4888000000000601E-3</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>2.0459999999999901E-3</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="28">
         <f>AVERAGE(K14:M14)</f>
         <v>2.2325000000000036E-3</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14">
         <v>5.3155000000000199E-3</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14">
         <v>5.2798999999999997E-3</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>6.5541000000000002E-3</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="28">
         <f>AVERAGE(O14:Q14)</f>
         <v>5.7165000000000063E-3</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14">
         <v>2.6732599999999902E-2</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14">
         <v>2.82265999999999E-2</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="5">
         <v>2.7502499999999899E-2</v>
       </c>
-      <c r="V14" s="29">
+      <c r="V14" s="28">
         <f t="shared" si="0"/>
         <v>2.7487233333333236E-2</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14">
         <v>0.14092289999999899</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14">
         <v>0.13942650000000001</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="5">
         <v>0.1393558</v>
       </c>
-      <c r="Z14" s="29">
+      <c r="Z14" s="28">
         <f t="shared" si="1"/>
         <v>0.139901733333333</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14">
         <v>1.1644269999999901</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14">
         <v>1.1201064000000001</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AC14" s="5">
         <v>1.1298878000000001</v>
       </c>
-      <c r="AD14" s="29">
+      <c r="AD14" s="28">
         <f t="shared" si="2"/>
         <v>1.1381403999999968</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AE14">
         <v>10.5930011</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AF14">
         <v>9.8977356000000007</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AG14" s="5">
         <v>10.7181149999999</v>
       </c>
-      <c r="AH14" s="29">
+      <c r="AH14" s="28">
         <f t="shared" si="3"/>
         <v>10.402950566666632</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AI14">
         <v>106.34320339999999</v>
       </c>
-      <c r="AJ14" s="5">
+      <c r="AJ14">
         <v>105.220956</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AK14" s="5">
         <v>106.93552849999899</v>
       </c>
-      <c r="AL14" s="29">
+      <c r="AL14" s="28">
         <f t="shared" si="4"/>
         <v>106.166562633333</v>
       </c>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="29" t="e">
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="29" t="e">
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="28" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="29" t="e">
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="28" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="29" t="e">
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="29" t="e">
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="6"/>
-      <c r="BJ14" s="29" t="e">
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK14" s="5"/>
-      <c r="BL14" s="5"/>
-      <c r="BM14" s="6"/>
-      <c r="BN14" s="29" t="e">
+      <c r="BM14" s="5"/>
+      <c r="BN14" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO14" s="5"/>
-      <c r="BP14" s="5"/>
-      <c r="BQ14" s="6"/>
-      <c r="BR14" s="29" t="e">
+      <c r="BQ14" s="5"/>
+      <c r="BR14" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS14" s="5"/>
-      <c r="BT14" s="5"/>
-      <c r="BU14" s="6"/>
-      <c r="BV14" s="29" t="e">
+      <c r="BU14" s="5"/>
+      <c r="BV14" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW14" s="5"/>
-      <c r="BX14" s="5"/>
-      <c r="BY14" s="6"/>
-      <c r="BZ14" s="29" t="e">
+      <c r="BY14" s="5"/>
+      <c r="BZ14" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA14" s="5"/>
-      <c r="CB14" s="5"/>
-      <c r="CC14" s="6"/>
-      <c r="CD14" s="29" t="e">
+      <c r="CC14" s="5"/>
+      <c r="CD14" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE14" s="5"/>
-      <c r="CF14" s="5"/>
-      <c r="CG14" s="6"/>
-      <c r="CH14" s="29" t="e">
+      <c r="CG14" s="5"/>
+      <c r="CH14" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI14" s="5"/>
-      <c r="CJ14" s="5"/>
-      <c r="CK14" s="6"/>
-      <c r="CL14" s="13"/>
-      <c r="CM14" s="5"/>
-      <c r="CN14" s="5"/>
-      <c r="CO14" s="6"/>
-      <c r="CP14" s="13"/>
-      <c r="CQ14" s="5"/>
-      <c r="CR14" s="5"/>
-      <c r="CS14" s="6"/>
-      <c r="CT14" s="13"/>
-      <c r="CU14" s="5"/>
-      <c r="CV14" s="5"/>
-      <c r="CW14" s="6"/>
-      <c r="CX14" s="13"/>
-      <c r="CY14" s="5"/>
-      <c r="CZ14" s="5"/>
-      <c r="DA14" s="6"/>
-      <c r="DB14" s="13"/>
-      <c r="DC14" s="5"/>
-      <c r="DD14" s="5"/>
-      <c r="DE14" s="6"/>
-      <c r="DF14" s="13"/>
+      <c r="CK14" s="5"/>
+      <c r="CL14" s="12"/>
+      <c r="CO14" s="5"/>
+      <c r="CP14" s="12"/>
+      <c r="CS14" s="5"/>
+      <c r="CT14" s="12"/>
+      <c r="CW14" s="5"/>
+      <c r="CX14" s="12"/>
+      <c r="DA14" s="5"/>
+      <c r="DB14" s="12"/>
+      <c r="DE14" s="5"/>
+      <c r="DF14" s="12"/>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="5">
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="30"/>
+      <c r="K15">
         <v>1.41667999999999E-2</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15">
         <v>1.4888200000000001E-2</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>1.51691E-2</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="28">
         <f>AVERAGE(K15:M15)</f>
         <v>1.4741366666666632E-2</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15">
         <v>0.1135451</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15">
         <v>0.117976599999999</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>0.12806089999999901</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="28">
         <f>AVERAGE(O15:Q15)</f>
         <v>0.119860866666666</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15">
         <v>1.8784015999999999</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15">
         <v>1.7879602999999999</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>1.76530979999999</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="28">
         <f t="shared" si="0"/>
         <v>1.81055723333333</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15">
         <v>42.5792067</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15">
         <v>42.971044800000001</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="5">
         <v>41.473571999999997</v>
       </c>
-      <c r="Z15" s="29">
+      <c r="Z15" s="28">
         <f t="shared" si="1"/>
         <v>42.341274499999997</v>
       </c>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="29" t="e">
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="29" t="e">
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="29" t="e">
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="29" t="e">
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="29" t="e">
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="28" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="6"/>
-      <c r="AX15" s="29" t="e">
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="28" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="6"/>
-      <c r="BB15" s="29" t="e">
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="6"/>
-      <c r="BF15" s="29" t="e">
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="6"/>
-      <c r="BJ15" s="29" t="e">
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK15" s="5"/>
-      <c r="BL15" s="5"/>
-      <c r="BM15" s="6"/>
-      <c r="BN15" s="29" t="e">
+      <c r="BM15" s="5"/>
+      <c r="BN15" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO15" s="5"/>
-      <c r="BP15" s="5"/>
-      <c r="BQ15" s="6"/>
-      <c r="BR15" s="29" t="e">
+      <c r="BQ15" s="5"/>
+      <c r="BR15" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS15" s="5"/>
-      <c r="BT15" s="5"/>
-      <c r="BU15" s="6"/>
-      <c r="BV15" s="29" t="e">
+      <c r="BU15" s="5"/>
+      <c r="BV15" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW15" s="5"/>
-      <c r="BX15" s="5"/>
-      <c r="BY15" s="6"/>
-      <c r="BZ15" s="29" t="e">
+      <c r="BY15" s="5"/>
+      <c r="BZ15" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA15" s="5"/>
-      <c r="CB15" s="5"/>
-      <c r="CC15" s="6"/>
-      <c r="CD15" s="29" t="e">
+      <c r="CC15" s="5"/>
+      <c r="CD15" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE15" s="5"/>
-      <c r="CF15" s="5"/>
-      <c r="CG15" s="6"/>
-      <c r="CH15" s="29" t="e">
+      <c r="CG15" s="5"/>
+      <c r="CH15" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI15" s="5"/>
-      <c r="CJ15" s="5"/>
-      <c r="CK15" s="6"/>
-      <c r="CL15" s="13"/>
-      <c r="CM15" s="5"/>
-      <c r="CN15" s="5"/>
-      <c r="CO15" s="6"/>
-      <c r="CP15" s="13"/>
-      <c r="CQ15" s="5"/>
-      <c r="CR15" s="5"/>
-      <c r="CS15" s="6"/>
-      <c r="CT15" s="13"/>
-      <c r="CU15" s="5"/>
-      <c r="CV15" s="5"/>
-      <c r="CW15" s="6"/>
-      <c r="CX15" s="13"/>
-      <c r="CY15" s="5"/>
-      <c r="CZ15" s="5"/>
-      <c r="DA15" s="6"/>
-      <c r="DB15" s="13"/>
-      <c r="DC15" s="5"/>
-      <c r="DD15" s="5"/>
-      <c r="DE15" s="6"/>
-      <c r="DF15" s="13"/>
+      <c r="CK15" s="5"/>
+      <c r="CL15" s="12"/>
+      <c r="CO15" s="5"/>
+      <c r="CP15" s="12"/>
+      <c r="CS15" s="5"/>
+      <c r="CT15" s="12"/>
+      <c r="CW15" s="5"/>
+      <c r="CX15" s="12"/>
+      <c r="DA15" s="5"/>
+      <c r="DB15" s="12"/>
+      <c r="DE15" s="5"/>
+      <c r="DF15" s="12"/>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1">
         <v>4</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="5">
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="30"/>
+      <c r="O16">
         <v>2.1477347</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16">
         <v>2.11213209999999</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>2.1792795999999899</v>
       </c>
-      <c r="R16" s="29">
+      <c r="R16" s="28">
         <f>AVERAGE(O16:Q16)</f>
         <v>2.1463821333333271</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16">
         <v>286.64900799999998</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16">
         <v>280.563101799999</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <v>282.1051794</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="28">
         <f t="shared" si="0"/>
         <v>283.10576306666633</v>
       </c>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="29" t="e">
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="29" t="e">
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="29" t="e">
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="29" t="e">
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="29" t="e">
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="29" t="e">
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="28" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="6"/>
-      <c r="AX16" s="29" t="e">
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="28" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY16" s="5"/>
-      <c r="AZ16" s="5"/>
-      <c r="BA16" s="6"/>
-      <c r="BB16" s="29" t="e">
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="5"/>
-      <c r="BE16" s="6"/>
-      <c r="BF16" s="29" t="e">
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG16" s="5"/>
-      <c r="BH16" s="5"/>
-      <c r="BI16" s="6"/>
-      <c r="BJ16" s="29" t="e">
+      <c r="BI16" s="5"/>
+      <c r="BJ16" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK16" s="5"/>
-      <c r="BL16" s="5"/>
-      <c r="BM16" s="6"/>
-      <c r="BN16" s="29" t="e">
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO16" s="5"/>
-      <c r="BP16" s="5"/>
-      <c r="BQ16" s="6"/>
-      <c r="BR16" s="29" t="e">
+      <c r="BQ16" s="5"/>
+      <c r="BR16" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS16" s="5"/>
-      <c r="BT16" s="5"/>
-      <c r="BU16" s="6"/>
-      <c r="BV16" s="29" t="e">
+      <c r="BU16" s="5"/>
+      <c r="BV16" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW16" s="5"/>
-      <c r="BX16" s="5"/>
-      <c r="BY16" s="6"/>
-      <c r="BZ16" s="29" t="e">
+      <c r="BY16" s="5"/>
+      <c r="BZ16" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA16" s="5"/>
-      <c r="CB16" s="5"/>
-      <c r="CC16" s="6"/>
-      <c r="CD16" s="29" t="e">
+      <c r="CC16" s="5"/>
+      <c r="CD16" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE16" s="5"/>
-      <c r="CF16" s="5"/>
-      <c r="CG16" s="6"/>
-      <c r="CH16" s="29" t="e">
+      <c r="CG16" s="5"/>
+      <c r="CH16" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI16" s="5"/>
-      <c r="CJ16" s="5"/>
-      <c r="CK16" s="6"/>
-      <c r="CL16" s="13"/>
-      <c r="CM16" s="5"/>
-      <c r="CN16" s="5"/>
-      <c r="CO16" s="6"/>
-      <c r="CP16" s="13"/>
-      <c r="CQ16" s="5"/>
-      <c r="CR16" s="5"/>
-      <c r="CS16" s="6"/>
-      <c r="CT16" s="13"/>
-      <c r="CU16" s="5"/>
-      <c r="CV16" s="5"/>
-      <c r="CW16" s="6"/>
-      <c r="CX16" s="13"/>
-      <c r="CY16" s="5"/>
-      <c r="CZ16" s="5"/>
-      <c r="DA16" s="6"/>
-      <c r="DB16" s="13"/>
-      <c r="DC16" s="5"/>
-      <c r="DD16" s="5"/>
-      <c r="DE16" s="6"/>
-      <c r="DF16" s="13"/>
+      <c r="CK16" s="5"/>
+      <c r="CL16" s="12"/>
+      <c r="CO16" s="5"/>
+      <c r="CP16" s="12"/>
+      <c r="CS16" s="5"/>
+      <c r="CT16" s="12"/>
+      <c r="CW16" s="5"/>
+      <c r="CX16" s="12"/>
+      <c r="DA16" s="5"/>
+      <c r="DB16" s="12"/>
+      <c r="DE16" s="5"/>
+      <c r="DF16" s="12"/>
     </row>
     <row r="17" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="29" t="e">
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="29" t="e">
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="29" t="e">
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="28" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="29" t="e">
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="28" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="29" t="e">
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="28" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="8"/>
-      <c r="AP17" s="29" t="e">
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="29" t="e">
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="28" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU17" s="7"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="8"/>
-      <c r="AX17" s="29" t="e">
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="28" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY17" s="7"/>
-      <c r="AZ17" s="7"/>
-      <c r="BA17" s="8"/>
-      <c r="BB17" s="29" t="e">
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="28" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC17" s="7"/>
-      <c r="BD17" s="7"/>
-      <c r="BE17" s="8"/>
-      <c r="BF17" s="29" t="e">
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="28" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BG17" s="7"/>
-      <c r="BH17" s="7"/>
-      <c r="BI17" s="8"/>
-      <c r="BJ17" s="29" t="e">
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="28" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK17" s="7"/>
-      <c r="BL17" s="7"/>
-      <c r="BM17" s="8"/>
-      <c r="BN17" s="29" t="e">
+      <c r="BK17" s="6"/>
+      <c r="BL17" s="6"/>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="28" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO17" s="7"/>
-      <c r="BP17" s="7"/>
-      <c r="BQ17" s="8"/>
-      <c r="BR17" s="29" t="e">
+      <c r="BO17" s="6"/>
+      <c r="BP17" s="6"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="28" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS17" s="7"/>
-      <c r="BT17" s="7"/>
-      <c r="BU17" s="8"/>
-      <c r="BV17" s="29" t="e">
+      <c r="BS17" s="6"/>
+      <c r="BT17" s="6"/>
+      <c r="BU17" s="7"/>
+      <c r="BV17" s="28" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW17" s="7"/>
-      <c r="BX17" s="7"/>
-      <c r="BY17" s="8"/>
-      <c r="BZ17" s="29" t="e">
+      <c r="BW17" s="6"/>
+      <c r="BX17" s="6"/>
+      <c r="BY17" s="7"/>
+      <c r="BZ17" s="28" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA17" s="7"/>
-      <c r="CB17" s="7"/>
-      <c r="CC17" s="8"/>
-      <c r="CD17" s="29" t="e">
+      <c r="CA17" s="6"/>
+      <c r="CB17" s="6"/>
+      <c r="CC17" s="7"/>
+      <c r="CD17" s="28" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE17" s="7"/>
-      <c r="CF17" s="7"/>
-      <c r="CG17" s="8"/>
-      <c r="CH17" s="29" t="e">
+      <c r="CE17" s="6"/>
+      <c r="CF17" s="6"/>
+      <c r="CG17" s="7"/>
+      <c r="CH17" s="28" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CI17" s="7"/>
-      <c r="CJ17" s="7"/>
-      <c r="CK17" s="8"/>
-      <c r="CL17" s="14"/>
-      <c r="CM17" s="7"/>
-      <c r="CN17" s="7"/>
-      <c r="CO17" s="8"/>
-      <c r="CP17" s="14"/>
-      <c r="CQ17" s="7"/>
-      <c r="CR17" s="7"/>
-      <c r="CS17" s="8"/>
-      <c r="CT17" s="14"/>
-      <c r="CU17" s="7"/>
-      <c r="CV17" s="7"/>
-      <c r="CW17" s="8"/>
-      <c r="CX17" s="14"/>
-      <c r="CY17" s="7"/>
-      <c r="CZ17" s="7"/>
-      <c r="DA17" s="8"/>
-      <c r="DB17" s="14"/>
-      <c r="DC17" s="7"/>
-      <c r="DD17" s="7"/>
-      <c r="DE17" s="8"/>
-      <c r="DF17" s="14"/>
+      <c r="CI17" s="6"/>
+      <c r="CJ17" s="6"/>
+      <c r="CK17" s="7"/>
+      <c r="CL17" s="13"/>
+      <c r="CM17" s="6"/>
+      <c r="CN17" s="6"/>
+      <c r="CO17" s="7"/>
+      <c r="CP17" s="13"/>
+      <c r="CQ17" s="6"/>
+      <c r="CR17" s="6"/>
+      <c r="CS17" s="7"/>
+      <c r="CT17" s="13"/>
+      <c r="CU17" s="6"/>
+      <c r="CV17" s="6"/>
+      <c r="CW17" s="7"/>
+      <c r="CX17" s="13"/>
+      <c r="CY17" s="6"/>
+      <c r="CZ17" s="6"/>
+      <c r="DA17" s="7"/>
+      <c r="DB17" s="13"/>
+      <c r="DC17" s="6"/>
+      <c r="DD17" s="6"/>
+      <c r="DE17" s="7"/>
+      <c r="DF17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
     <mergeCell ref="DC1:DF1"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="BS1:BV1"/>
@@ -10395,6 +10022,26 @@
     <mergeCell ref="CI1:CL1"/>
     <mergeCell ref="CM1:CP1"/>
     <mergeCell ref="CQ1:CT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10923,7 +10570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFF2C2F-8B5A-494F-8116-5199FDA899C3}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>

--- a/Experiment/RunningTime+SolutionNumber(SAT Solver).xlsx
+++ b/Experiment/RunningTime+SolutionNumber(SAT Solver).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Yin-Yang-SAT-Solver\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012ABD7E-9687-436B-ABA6-CD8428CBCCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9ED1DB-E352-4CFE-8B49-08A80CC912C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{786B68CC-4CCC-48FD-999D-77648639387C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{786B68CC-4CCC-48FD-999D-77648639387C}"/>
   </bookViews>
   <sheets>
     <sheet name="Number of Solutions" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,6 +350,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,10 +533,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'T(1,n)'!$B$1:$U$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(1,n)'!$B$1:$U$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(1,n)'!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -576,36 +583,22 @@
                 <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'T(1,n)'!$B$2:$U$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(1,n)'!$B$2:$U$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(1,n)'!$B$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>5.6166666666671897E-5</c:v>
                 </c:pt>
@@ -644,27 +637,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.25920489999999935</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.57439179999999956</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1544019333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.6930842666666632</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.8804635666666663</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.433749999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>36.635885266666669</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>90.667480166666607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,10 +690,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'T(1,n)'!$B$1:$U$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(1,n)'!$B$1:$U$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(1,n)'!$B$1:$N$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -761,36 +740,22 @@
                 <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'T(1,n)'!$B$3:$U$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(1,n)'!$B$3:$U$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(1,n)'!$B$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>5.3333333333349637E-5</c:v>
                 </c:pt>
@@ -830,9 +795,6 @@
                 <c:pt idx="12">
                   <c:v>36.256256466666663</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>171.36670049999967</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -840,176 +802,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CF4E-499C-AA26-B9AE60671551}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'T(1,n)'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unique SAT Solver</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="1270">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'T(1,n)'!$B$1:$U$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'T(1,n)'!$B$4:$U$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>2.0686666666669366E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9906666666660637E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.299000000001459E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0672000000000439E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8017999999999967E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0592666666666305E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4957433333333299E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7703166666666598E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.1548000000000009E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.23350689999999899</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.81881753333333263</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6568906666666634</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.158216566666601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60.188196166666636</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>266.19534633333268</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF4E-499C-AA26-B9AE60671551}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1025,6 +817,179 @@
         <c:smooth val="0"/>
         <c:axId val="1431975888"/>
         <c:axId val="1431969232"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'T(1,n)'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Unique SAT Solver</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="square"/>
+                  <c:size val="2"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="1270">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'T(1,n)'!$B$1:$U$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'T(1,n)'!$B$1:$N$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'T(1,n)'!$B$4:$U$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'T(1,n)'!$B$4:$N$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>2.0686666666669366E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.9906666666660637E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.299000000001459E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.0672000000000439E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.8017999999999967E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0592666666666305E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.4957433333333299E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.7703166666666598E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.1548000000000009E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.23350689999999899</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.81881753333333263</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.6568906666666634</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14.158216566666601</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-CF4E-499C-AA26-B9AE60671551}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1431975888"/>
@@ -1506,10 +1471,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'T(2,n)'!$B$1:$L$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(2,n)'!$B$1:$L$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(2,n)'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1531,27 +1503,22 @@
                 <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'T(2,n)'!$B$2:$L$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(2,n)'!$B$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(2,n)'!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.3936666666656629E-4</c:v>
                 </c:pt>
@@ -1572,18 +1539,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.60939636666666608</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0887958333333301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.1073683999999959</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.174428133333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>104.819255133333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1637,10 +1592,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'T(2,n)'!$B$1:$L$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(2,n)'!$B$1:$L$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(2,n)'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1662,27 +1624,22 @@
                 <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'T(2,n)'!$B$3:$L$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(2,n)'!$B$3:$L$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(2,n)'!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4.79900000000014E-4</c:v>
                 </c:pt>
@@ -1714,128 +1671,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'T(2,n)'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unique SAT Solver</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="1270">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'T(2,n)'!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'T(2,n)'!$B$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>8.8486666666664961E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2325000000000036E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7165000000000063E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7487233333333236E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.139901733333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1381403999999968</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.402950566666632</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>106.166562633333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F880-487E-AC55-4753CE568635}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1848,6 +1683,143 @@
         <c:smooth val="0"/>
         <c:axId val="1431975888"/>
         <c:axId val="1431969232"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'T(2,n)'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Unique SAT Solver</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="square"/>
+                  <c:size val="2"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="1270">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'T(2,n)'!$B$1:$L$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'T(2,n)'!$B$1:$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'T(2,n)'!$B$4:$L$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'T(2,n)'!$B$4:$H$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>8.8486666666664961E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.2325000000000036E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.7165000000000063E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.7487233333333236E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.139901733333333</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.1381403999999968</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10.402950566666632</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-F880-487E-AC55-4753CE568635}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1431975888"/>
@@ -2329,10 +2301,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'T(3,n)'!$B$1:$H$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(3,n)'!$B$1:$H$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(3,n)'!$B$1:$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2345,24 +2324,22 @@
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'T(3,n)'!$B$2:$H$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(3,n)'!$B$2:$H$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(3,n)'!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.6818000000000658E-3</c:v>
                 </c:pt>
@@ -2374,15 +2351,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.05867893333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9377166333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.5624015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>397.93158736666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2436,10 +2404,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'T(3,n)'!$B$1:$H$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(3,n)'!$B$1:$H$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(3,n)'!$B$1:$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2452,24 +2427,22 @@
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'T(3,n)'!$B$3:$H$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'T(3,n)'!$B$3:$H$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'T(3,n)'!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.2220333333333269E-2</c:v>
                 </c:pt>
@@ -2492,104 +2465,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'T(3,n)'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unique SAT Solver</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="1270">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'T(3,n)'!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'T(3,n)'!$B$4:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.4741366666666632E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.119860866666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.81055723333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.341274499999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75B4-4541-916D-1A3050688A5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2602,6 +2477,125 @@
         <c:smooth val="0"/>
         <c:axId val="1431975888"/>
         <c:axId val="1431969232"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'T(3,n)'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Unique SAT Solver</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDot"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="square"/>
+                  <c:size val="2"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="1270">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'T(3,n)'!$B$1:$H$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'T(3,n)'!$B$1:$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'T(3,n)'!$B$4:$H$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'T(3,n)'!$B$4:$E$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1.4741366666666632E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.119860866666666</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.81055723333333</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42.341274499999997</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-75B4-4541-916D-1A3050688A5C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1431975888"/>
@@ -5847,7 +5841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994536F1-51AE-4898-86E3-1F56E77BFE33}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -6696,194 +6690,194 @@
         <v>0</v>
       </c>
       <c r="B1" s="37"/>
-      <c r="C1" s="33">
+      <c r="C1" s="32">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="33">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="32">
         <f>C1+1</f>
         <v>2</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="33">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="32">
         <f>G1+1</f>
         <v>3</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="33">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="32">
         <f>K1+1</f>
         <v>4</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="33">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="32">
         <f>O1+1</f>
         <v>5</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="33">
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="32">
         <f>S1+1</f>
         <v>6</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="33">
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="32">
         <f>W1+1</f>
         <v>7</v>
       </c>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="33">
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="32">
         <f>AA1+1</f>
         <v>8</v>
       </c>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="33">
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="32">
         <f>AE1+1</f>
         <v>9</v>
       </c>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="33">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="32">
         <f>AI1+1</f>
         <v>10</v>
       </c>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="33">
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="32">
         <f>AM1+1</f>
         <v>11</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="33">
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="32">
         <f>AQ1+1</f>
         <v>12</v>
       </c>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="33">
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="32">
         <f>AU1+1</f>
         <v>13</v>
       </c>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="33">
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="32">
         <f>AY1+1</f>
         <v>14</v>
       </c>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="33">
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="32">
         <f>BC1+1</f>
         <v>15</v>
       </c>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="33">
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="32">
         <f>BG1+1</f>
         <v>16</v>
       </c>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="33">
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="32">
         <f>BK1+1</f>
         <v>17</v>
       </c>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="33">
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="32">
         <f>BO1+1</f>
         <v>18</v>
       </c>
-      <c r="BT1" s="34"/>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="35"/>
-      <c r="BW1" s="33">
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="34"/>
+      <c r="BW1" s="32">
         <f>BS1+1</f>
         <v>19</v>
       </c>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="35"/>
-      <c r="CA1" s="33">
+      <c r="BX1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="32">
         <f>BW1+1</f>
         <v>20</v>
       </c>
-      <c r="CB1" s="34"/>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="35"/>
-      <c r="CE1" s="33">
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="34"/>
+      <c r="CE1" s="32">
         <f>CA1+1</f>
         <v>21</v>
       </c>
-      <c r="CF1" s="34"/>
-      <c r="CG1" s="34"/>
-      <c r="CH1" s="35"/>
-      <c r="CI1" s="33">
+      <c r="CF1" s="33"/>
+      <c r="CG1" s="33"/>
+      <c r="CH1" s="34"/>
+      <c r="CI1" s="32">
         <f>CE1+1</f>
         <v>22</v>
       </c>
-      <c r="CJ1" s="34"/>
-      <c r="CK1" s="34"/>
-      <c r="CL1" s="35"/>
-      <c r="CM1" s="33">
+      <c r="CJ1" s="33"/>
+      <c r="CK1" s="33"/>
+      <c r="CL1" s="34"/>
+      <c r="CM1" s="32">
         <f>CI1+1</f>
         <v>23</v>
       </c>
-      <c r="CN1" s="34"/>
-      <c r="CO1" s="34"/>
-      <c r="CP1" s="35"/>
-      <c r="CQ1" s="33">
+      <c r="CN1" s="33"/>
+      <c r="CO1" s="33"/>
+      <c r="CP1" s="34"/>
+      <c r="CQ1" s="32">
         <f>CM1+1</f>
         <v>24</v>
       </c>
-      <c r="CR1" s="34"/>
-      <c r="CS1" s="34"/>
-      <c r="CT1" s="35"/>
-      <c r="CU1" s="33">
+      <c r="CR1" s="33"/>
+      <c r="CS1" s="33"/>
+      <c r="CT1" s="34"/>
+      <c r="CU1" s="32">
         <f>CQ1+1</f>
         <v>25</v>
       </c>
-      <c r="CV1" s="34"/>
-      <c r="CW1" s="34"/>
-      <c r="CX1" s="35"/>
-      <c r="CY1" s="33">
+      <c r="CV1" s="33"/>
+      <c r="CW1" s="33"/>
+      <c r="CX1" s="34"/>
+      <c r="CY1" s="32">
         <f>CU1+1</f>
         <v>26</v>
       </c>
-      <c r="CZ1" s="34"/>
-      <c r="DA1" s="34"/>
-      <c r="DB1" s="35"/>
-      <c r="DC1" s="33">
+      <c r="CZ1" s="33"/>
+      <c r="DA1" s="33"/>
+      <c r="DB1" s="34"/>
+      <c r="DC1" s="32">
         <f>CY1+1</f>
         <v>27</v>
       </c>
-      <c r="DD1" s="34"/>
-      <c r="DE1" s="34"/>
-      <c r="DF1" s="35"/>
+      <c r="DD1" s="33"/>
+      <c r="DE1" s="33"/>
+      <c r="DF1" s="34"/>
     </row>
     <row r="2" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
@@ -7214,7 +7208,7 @@
       </c>
     </row>
     <row r="3" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -7513,7 +7507,7 @@
       <c r="DF3" s="11"/>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -7723,7 +7717,7 @@
       <c r="DF4" s="12"/>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -7900,7 +7894,7 @@
       <c r="DF5" s="12"/>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -8044,7 +8038,7 @@
       <c r="DF6" s="12"/>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -8211,7 +8205,7 @@
       <c r="DF7" s="13"/>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1">
@@ -8474,7 +8468,7 @@
       <c r="DF8" s="11"/>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -8655,7 +8649,7 @@
       <c r="DF9" s="12"/>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -8808,7 +8802,7 @@
       <c r="DF10" s="12"/>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -8936,7 +8930,7 @@
       <c r="DF11" s="12"/>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -9101,7 +9095,7 @@
       <c r="DF12" s="13"/>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1">
@@ -9370,7 +9364,7 @@
       <c r="DF13" s="14"/>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -9556,7 +9550,7 @@
       <c r="DF14" s="12"/>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -9709,7 +9703,7 @@
       <c r="DF15" s="12"/>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="1">
         <v>4</v>
       </c>
@@ -9845,7 +9839,7 @@
       <c r="DF16" s="12"/>
     </row>
     <row r="17" spans="1:110" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="1">
         <v>5</v>
       </c>
@@ -10011,6 +10005,26 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
     <mergeCell ref="DC1:DF1"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="BS1:BV1"/>
@@ -10022,26 +10036,6 @@
     <mergeCell ref="CI1:CL1"/>
     <mergeCell ref="CM1:CP1"/>
     <mergeCell ref="CQ1:CT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10052,7 +10046,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10378,7 +10372,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10570,8 +10564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFF2C2F-8B5A-494F-8116-5199FDA899C3}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
